--- a/src/main/java/resources/generateduuid.xlsx
+++ b/src/main/java/resources/generateduuid.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="748">
   <si>
     <t>Vehicle uuid</t>
   </si>
@@ -1519,6 +1519,756 @@
   </si>
   <si>
     <t>2018-11-18T12:53:17.946</t>
+  </si>
+  <si>
+    <t>17u145t781k4f4h0ytt8rdo03ph1phl9</t>
+  </si>
+  <si>
+    <t>2018-11-18T13:44:52.198</t>
+  </si>
+  <si>
+    <t>61k0re8et37823gsdod2kadx07f6183p</t>
+  </si>
+  <si>
+    <t>2018-11-18T13:45:21.541</t>
+  </si>
+  <si>
+    <t>nw1lpd99ordd1hst1w0fmuc98ueo6bs1</t>
+  </si>
+  <si>
+    <t>2018-11-18T13:46:23.893</t>
+  </si>
+  <si>
+    <t>g0ppkhet375tk5n9dr6yzwc06k727u3t</t>
+  </si>
+  <si>
+    <t>2018-11-18T13:47:19.423</t>
+  </si>
+  <si>
+    <t>1ck483036u27qy716uk27531porurj2v</t>
+  </si>
+  <si>
+    <t>2018-11-18T13:48:19.546</t>
+  </si>
+  <si>
+    <t>gb711nw27w17f171a3d12tz7g4t17les</t>
+  </si>
+  <si>
+    <t>2018-11-18T13:49:19.036</t>
+  </si>
+  <si>
+    <t>p9o1thjcg5jsevwucr5d92xfmv3oou64</t>
+  </si>
+  <si>
+    <t>2018-11-18T14:18:17.126</t>
+  </si>
+  <si>
+    <t>bv103ve3ib9z64b224ag2j1qqi6s1fh1</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:28:07.658</t>
+  </si>
+  <si>
+    <t>gp9015o381pi2mg0jxhx7cu476c3yp3k</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:31:35.670</t>
+  </si>
+  <si>
+    <t>muyc735buik6h13apf184q0p3k511y5j</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:32:20.710</t>
+  </si>
+  <si>
+    <t>8p287960cc7tebo1o02119d2rffct6xq</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:33:21.771</t>
+  </si>
+  <si>
+    <t>7s3o2t6w693sgvd5r0071573m0rm0tm0</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:34:22.426</t>
+  </si>
+  <si>
+    <t>icksbpws017y74le6pi462cuslw9km89</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:35:22.066</t>
+  </si>
+  <si>
+    <t>nwdm8tn8x71747ju8nvdb2pv1x3cgyfv</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:36:22.097</t>
+  </si>
+  <si>
+    <t>1m9p79q00z6xc30z7037110916401pc6</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:37:17.320</t>
+  </si>
+  <si>
+    <t>8099h0tpr7663rrqgbn5cu918bmmhv45</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:37:30.943</t>
+  </si>
+  <si>
+    <t>9of0uz0zx9750a58rzywblg8725m5c38</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:37:46.403</t>
+  </si>
+  <si>
+    <t>k6u21iuy23xs5m6hv542dtr9cujbf9r6</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:38:26.024</t>
+  </si>
+  <si>
+    <t>83c2rmuhmaeb915wump31ynema827s7s</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:39:21.642</t>
+  </si>
+  <si>
+    <t>a6sxn817g34630o5e51w17i4zqdhxhti</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:40:24.605</t>
+  </si>
+  <si>
+    <t>346r60m4w7dvcnwow693u145r92b2e98</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:41:21.638</t>
+  </si>
+  <si>
+    <t>vu0v66i6p8pv523b03psv5295r4ze598</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:41:35.639</t>
+  </si>
+  <si>
+    <t>758u354udtp8tm8kytg3awg2ef1l2wd5</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:41:50.058</t>
+  </si>
+  <si>
+    <t>olzrb7m58kzx58xuzy1k5i9f8q5714d5</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:42:04.346</t>
+  </si>
+  <si>
+    <t>bh301ehyxb0m4m9q7130e125fp1p86pr</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:45:04.989</t>
+  </si>
+  <si>
+    <t>b5n3vv7y1am9sk0qyi5eg8plhn2981l6</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:46:20.346</t>
+  </si>
+  <si>
+    <t>9a4i6tbafg7f64mw0fe95fprv6k7bvi4</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:47:21.474</t>
+  </si>
+  <si>
+    <t>434swwn50350ufy339vrca6w575a5ojs</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:48:22.572</t>
+  </si>
+  <si>
+    <t>l1hhystxc341gj2tp26rjhb7for47he2</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:49:24.688</t>
+  </si>
+  <si>
+    <t>wk5n2c5f5bo1guqqp0942u59srw7n08l</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:50:19.727</t>
+  </si>
+  <si>
+    <t>tzz28fi28stv5h1t58pcmcs79i85k91d</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:51:19.734</t>
+  </si>
+  <si>
+    <t>164z658pale6u6chvx9wh1oc9wy68evi</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:51:32.663</t>
+  </si>
+  <si>
+    <t>f4rsh79h5uj3hh58i74ivrvm020fupx3</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:51:45.771</t>
+  </si>
+  <si>
+    <t>jz8t65n972od3vk6t528f7cduf5os62l</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:52:20.572</t>
+  </si>
+  <si>
+    <t>4e8n4t09945a806the6470q33h040856</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:53:21.043</t>
+  </si>
+  <si>
+    <t>3bvn1zi4ff1gtigse438mt0641ue0pqx</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:54:20.889</t>
+  </si>
+  <si>
+    <t>iy7l018iqcuewvw7htzqphmq0d2nbdb2</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:54:35.176</t>
+  </si>
+  <si>
+    <t>4a6j74zzsg3l9670a5hg4x9tas939a2n</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:54:49.729</t>
+  </si>
+  <si>
+    <t>w7di2onaj13jg59m0vyagyls5ie90ep8</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:55:04.112</t>
+  </si>
+  <si>
+    <t>yu9ivh0tzfkp32gi510njw6vducgxat3</t>
+  </si>
+  <si>
+    <t>2018-11-18T15:55:18.340</t>
+  </si>
+  <si>
+    <t>s0cgc244hzej8lbqhau08hur3u6q81is</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:02:35.231</t>
+  </si>
+  <si>
+    <t>hi67x26zandpj3w06yu0kb27g3c07057</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:03:22.739</t>
+  </si>
+  <si>
+    <t>3t94q6n1ozmd43ly3fl391tyx0zp45ov</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:04:22.800</t>
+  </si>
+  <si>
+    <t>0cc4bp76ubqd0y7lq47d3e71ze0t0c0v</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:05:23.926</t>
+  </si>
+  <si>
+    <t>uxjk5j0b13tr2aa9n91s9o7d0xo7p9e2</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:06:20.929</t>
+  </si>
+  <si>
+    <t>yrvtns4ui6v57iac45ri9rkh4vu934df</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:07:22.010</t>
+  </si>
+  <si>
+    <t>x333aez1xm8r3pvs3tcs2xcod0g2azt5</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:08:23.681</t>
+  </si>
+  <si>
+    <t>5a589dg78il0i3kd0bze3cm9znwx7o08</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:08:37.954</t>
+  </si>
+  <si>
+    <t>tdlv76kneitdzvm64862738j2b02fo80</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:08:52.212</t>
+  </si>
+  <si>
+    <t>rl8tr2jy131z6fhuo4706dkj95mhn40y</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:09:22.954</t>
+  </si>
+  <si>
+    <t>qpmj84y0614yc3q0viqsb6dg6u1ab64u</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:10:18.199</t>
+  </si>
+  <si>
+    <t>91o07d89tq9q4m0t9vq5a6urxi7936bu</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:10:32.357</t>
+  </si>
+  <si>
+    <t>vnl890oox3eqi0pm6bn48y4f1y129400</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:11:24.729</t>
+  </si>
+  <si>
+    <t>y0yzyx1q2j02tml92ex6y6705g1j7t79</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:11:55.075</t>
+  </si>
+  <si>
+    <t>dj2uu5l3sd692g38rndxatvb6xjtf50z</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:12:22.458</t>
+  </si>
+  <si>
+    <t>exzq6dvztg0eudi2p1zrd6m2zo845f72</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:13:20.658</t>
+  </si>
+  <si>
+    <t>2k901zc80n00ys5p87dx8890pxogodcn</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:14:22.307</t>
+  </si>
+  <si>
+    <t>17v67h37j4r3wy8tc1bb3vuj2g53geqv</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:14:37.106</t>
+  </si>
+  <si>
+    <t>po05wk2b0570ez28wf25srd2bt675fl8</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:14:51.823</t>
+  </si>
+  <si>
+    <t>c802tu5xdix0dqjq0cs7qxix4z016wj1</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:15:06.690</t>
+  </si>
+  <si>
+    <t>52yf6xzc64nqv6386lotkkt0jwr91z0h</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:32:33.982</t>
+  </si>
+  <si>
+    <t>ak9toi8uuh4t02b170ap7rh282p3n5g2</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:33:20.646</t>
+  </si>
+  <si>
+    <t>n23ay9drpo68zi6krh822n87ge2ytf4f</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:34:23.268</t>
+  </si>
+  <si>
+    <t>23dc3bbd2hiu1kz0o8f68efwai0v2nhu</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:35:19.363</t>
+  </si>
+  <si>
+    <t>rpnrv13rxfg87yhjqd49ilvi76ziywlj</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:36:14.683</t>
+  </si>
+  <si>
+    <t>18m8befl84wu6uuk5816c8xdie8gy822</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:37:26.135</t>
+  </si>
+  <si>
+    <t>lary9ua94f15c56g0x7hy7a7573796eq</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:38:19.683</t>
+  </si>
+  <si>
+    <t>y5st0w25khqx1pa8ixp7uw1gmjy81kk3</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:38:33.770</t>
+  </si>
+  <si>
+    <t>b53z3rxlpx39723b0rd7tt4v0g8yz829</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:38:48.868</t>
+  </si>
+  <si>
+    <t>zqny38a93g27rtx2hloqv581v1qs22mi</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:39:20.596</t>
+  </si>
+  <si>
+    <t>4qb833ft0491c3056i4sqbl0u95r781l</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:40:23.414</t>
+  </si>
+  <si>
+    <t>36sjmwe01ob9m24q2dfsi646y8x1c84m</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:41:21.065</t>
+  </si>
+  <si>
+    <t>c4n8y556akax7xqh2bd38896ayzogt9h</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:42:25.294</t>
+  </si>
+  <si>
+    <t>8592f723be79f9dxal85ua9w7w3jni35</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:43:25.448</t>
+  </si>
+  <si>
+    <t>tzanx756wvzmbi5j044s0th8725byfm2</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:44:23.533</t>
+  </si>
+  <si>
+    <t>o2yy3d563xey80391qb0xqn2dsngvbyk</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:45:20.351</t>
+  </si>
+  <si>
+    <t>7mriqgv4hg7ns0gzz83p16e6ud21zyrs</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:46:21.303</t>
+  </si>
+  <si>
+    <t>51kdnu2q13k34jzi0s6n277xz3iq9891</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:46:38.040</t>
+  </si>
+  <si>
+    <t>m0hn7ve7f21y02dm5x2lbmbms9dbgjv0</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:46:53.091</t>
+  </si>
+  <si>
+    <t>my8fun79j02u78rgbz07l7xw03sq954n</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:47:08.564</t>
+  </si>
+  <si>
+    <t>nk5og5jnwx8hfth8on389axo077lb84w</t>
+  </si>
+  <si>
+    <t>2018-11-18T16:57:03.971</t>
+  </si>
+  <si>
+    <t>ul9176ls41ajvilt54r21o88n9p54p6s</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:03:27.886</t>
+  </si>
+  <si>
+    <t>570818mbvhbm73kjmu01qfm8p1nlmg5r</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:03:42.806</t>
+  </si>
+  <si>
+    <t>t6eh2114my1pv22lg5bvc329c3gdww82</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:03:58.183</t>
+  </si>
+  <si>
+    <t>4qsd9u5ooi9032v5wh6260hd9l83bo77</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:04:16.619</t>
+  </si>
+  <si>
+    <t>o3ku82mui3otkkl32xgep3vuz4eom9pb</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:04:32.519</t>
+  </si>
+  <si>
+    <t>om2z9n0g2w31po4kj32g94v8b9aig4pj</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:04:49.365</t>
+  </si>
+  <si>
+    <t>83weialxk16tll24y4jy9bw0f2669wwe</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:05:05.208</t>
+  </si>
+  <si>
+    <t>w97864c0k18017210d70s08fq4luxk95</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:05:22.504</t>
+  </si>
+  <si>
+    <t>vm87d8t22m5sn6e4f80jl2pi62j7hvo9</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:05:37.939</t>
+  </si>
+  <si>
+    <t>24zqime6crdwm99dc2gc69zy6tjpuosw</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:05:54.402</t>
+  </si>
+  <si>
+    <t>lg63s7ngi9pjfo732v5h0h6v4i0slmyi</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:06:10.410</t>
+  </si>
+  <si>
+    <t>qdtn77qpv9cfy8hmq7du2k84t6ssmhtj</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:06:27.449</t>
+  </si>
+  <si>
+    <t>w5bfw15xd4258vr2159ll42g382p918a</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:06:44.850</t>
+  </si>
+  <si>
+    <t>x936a1f6xjvda8hdw5j6fd2ft3t153w6</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:07:04.817</t>
+  </si>
+  <si>
+    <t>5i66067brcglbm5nfrv0c59s08s35sq0</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:07:19.979</t>
+  </si>
+  <si>
+    <t>ua709uib7z6z69hwd14dkmo1o29js64j</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:07:39.878</t>
+  </si>
+  <si>
+    <t>84lhgbwghk8mjb5ivmw4h4va2zzs5n75</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:07:59.141</t>
+  </si>
+  <si>
+    <t>p56f4vv7tm7532va85zl873r3p4adp08</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:08:19.990</t>
+  </si>
+  <si>
+    <t>5o5w8e5eo0o8z9a5ux57g2vx17ki3298</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:08:40.397</t>
+  </si>
+  <si>
+    <t>aelc492u53etxfo2oiq8zq5bc1mnkf69</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:08:58.718</t>
+  </si>
+  <si>
+    <t>d5f6d9m392i5th4i8i642a592p8o7e65</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:14:00.682</t>
+  </si>
+  <si>
+    <t>ft320y7g3u85qb8lizu4el90kdxzf4ay</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:14:21.451</t>
+  </si>
+  <si>
+    <t>1jf7jsfuvadhoky84fonzq147z58419x</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:15:24.255</t>
+  </si>
+  <si>
+    <t>vwj9tz7d30i9gd73na0taylkmflj40e3</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:16:20.564</t>
+  </si>
+  <si>
+    <t>9c9506c6k5klhk58a5w62p7ch34uveje</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:17:22.364</t>
+  </si>
+  <si>
+    <t>tmaf9i38q53e71g3vn3y2j8z4rfp5448</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:18:27.485</t>
+  </si>
+  <si>
+    <t>bd1753tkfh8yn2llgah9fr8yq303grj2</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:19:23.895</t>
+  </si>
+  <si>
+    <t>g9131e6oyl4tb5udb7vku7apr0b5ev0l</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:19:38.387</t>
+  </si>
+  <si>
+    <t>zr4c308d419hhug1lu488a0pp0135u9n</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:19:52.727</t>
+  </si>
+  <si>
+    <t>g2klp2g63h2o0fyust87tnqer962ha98</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:20:19.223</t>
+  </si>
+  <si>
+    <t>alzulzv5x3jkgiqcjjrs38qfn9a2r10f</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:21:24.948</t>
+  </si>
+  <si>
+    <t>ya1e8j516sxux5a159mqvjrq5rsffl4e</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:22:25.715</t>
+  </si>
+  <si>
+    <t>kynt14ns11b8ovvyz5lzcxv7oe8f19m5</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:24:56.217</t>
+  </si>
+  <si>
+    <t>8r4o2qwdikbhgjc8g3t524e8ihhg0nt5</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:25:17.850</t>
+  </si>
+  <si>
+    <t>sp0tbe18720cdz41d30sjsmayc9x72pd</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:26:18.612</t>
+  </si>
+  <si>
+    <t>57v9um019g316s170orbmc7t5jd028w8</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:27:23.880</t>
+  </si>
+  <si>
+    <t>10dp7q74fbm6qmtsu8mawe208yh3m6t8</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:28:23.629</t>
+  </si>
+  <si>
+    <t>tfuyiktzdz33j4u2fz3h9g9ugw1dxm98</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:28:39.937</t>
+  </si>
+  <si>
+    <t>95xq8rgxb12j200s5u5py603c2e2460x</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:28:54.806</t>
+  </si>
+  <si>
+    <t>6o21hu35gf931munpncl662lql8c9fq5</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:29:09.787</t>
+  </si>
+  <si>
+    <t>jfi8n0r513yk0ib724alt2hhff351699</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:30:44.332</t>
+  </si>
+  <si>
+    <t>50h741465o4q0mp3el9f1u713a94x09m</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:30:58.118</t>
+  </si>
+  <si>
+    <t>oe9g01ylr09455e9162w047j7534zvb5</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:31:26.736</t>
+  </si>
+  <si>
+    <t>75nngn8ucoqhb3nxtgq25wiay5ths7c7</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:32:18.941</t>
   </si>
 </sst>
 </file>
@@ -3874,6 +4624,1006 @@
         <v>497</v>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>498</v>
+      </c>
+      <c r="B251" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>500</v>
+      </c>
+      <c r="B252" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>502</v>
+      </c>
+      <c r="B253" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>504</v>
+      </c>
+      <c r="B254" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>506</v>
+      </c>
+      <c r="B255" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>508</v>
+      </c>
+      <c r="B256" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>510</v>
+      </c>
+      <c r="B257" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>512</v>
+      </c>
+      <c r="B258" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>514</v>
+      </c>
+      <c r="B259" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>516</v>
+      </c>
+      <c r="B260" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>518</v>
+      </c>
+      <c r="B261" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>520</v>
+      </c>
+      <c r="B262" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>522</v>
+      </c>
+      <c r="B263" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>524</v>
+      </c>
+      <c r="B264" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>526</v>
+      </c>
+      <c r="B265" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>528</v>
+      </c>
+      <c r="B266" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>530</v>
+      </c>
+      <c r="B267" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>532</v>
+      </c>
+      <c r="B268" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>534</v>
+      </c>
+      <c r="B269" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>536</v>
+      </c>
+      <c r="B270" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>538</v>
+      </c>
+      <c r="B271" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>540</v>
+      </c>
+      <c r="B272" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>542</v>
+      </c>
+      <c r="B273" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>544</v>
+      </c>
+      <c r="B274" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>546</v>
+      </c>
+      <c r="B275" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>548</v>
+      </c>
+      <c r="B276" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>550</v>
+      </c>
+      <c r="B277" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>552</v>
+      </c>
+      <c r="B278" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>554</v>
+      </c>
+      <c r="B279" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>556</v>
+      </c>
+      <c r="B280" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>558</v>
+      </c>
+      <c r="B281" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>560</v>
+      </c>
+      <c r="B282" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>562</v>
+      </c>
+      <c r="B283" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>564</v>
+      </c>
+      <c r="B284" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>566</v>
+      </c>
+      <c r="B285" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>568</v>
+      </c>
+      <c r="B286" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>570</v>
+      </c>
+      <c r="B287" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>572</v>
+      </c>
+      <c r="B288" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>574</v>
+      </c>
+      <c r="B289" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>576</v>
+      </c>
+      <c r="B290" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>578</v>
+      </c>
+      <c r="B291" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>580</v>
+      </c>
+      <c r="B292" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>582</v>
+      </c>
+      <c r="B293" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>584</v>
+      </c>
+      <c r="B294" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>586</v>
+      </c>
+      <c r="B295" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>588</v>
+      </c>
+      <c r="B296" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>590</v>
+      </c>
+      <c r="B297" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>592</v>
+      </c>
+      <c r="B298" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>594</v>
+      </c>
+      <c r="B299" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>596</v>
+      </c>
+      <c r="B300" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>598</v>
+      </c>
+      <c r="B301" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>600</v>
+      </c>
+      <c r="B302" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>602</v>
+      </c>
+      <c r="B303" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>604</v>
+      </c>
+      <c r="B304" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>606</v>
+      </c>
+      <c r="B305" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>608</v>
+      </c>
+      <c r="B306" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>610</v>
+      </c>
+      <c r="B307" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>612</v>
+      </c>
+      <c r="B308" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>614</v>
+      </c>
+      <c r="B309" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>616</v>
+      </c>
+      <c r="B310" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>618</v>
+      </c>
+      <c r="B311" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>620</v>
+      </c>
+      <c r="B312" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>622</v>
+      </c>
+      <c r="B313" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>624</v>
+      </c>
+      <c r="B314" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>626</v>
+      </c>
+      <c r="B315" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>628</v>
+      </c>
+      <c r="B316" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>630</v>
+      </c>
+      <c r="B317" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>632</v>
+      </c>
+      <c r="B318" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>634</v>
+      </c>
+      <c r="B319" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>636</v>
+      </c>
+      <c r="B320" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>638</v>
+      </c>
+      <c r="B321" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>640</v>
+      </c>
+      <c r="B322" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>642</v>
+      </c>
+      <c r="B323" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>644</v>
+      </c>
+      <c r="B324" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>646</v>
+      </c>
+      <c r="B325" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>648</v>
+      </c>
+      <c r="B326" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>650</v>
+      </c>
+      <c r="B327" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>652</v>
+      </c>
+      <c r="B328" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>654</v>
+      </c>
+      <c r="B329" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>656</v>
+      </c>
+      <c r="B330" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>658</v>
+      </c>
+      <c r="B331" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>660</v>
+      </c>
+      <c r="B332" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>662</v>
+      </c>
+      <c r="B333" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>664</v>
+      </c>
+      <c r="B334" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>666</v>
+      </c>
+      <c r="B335" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>668</v>
+      </c>
+      <c r="B336" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>670</v>
+      </c>
+      <c r="B337" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>672</v>
+      </c>
+      <c r="B338" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>674</v>
+      </c>
+      <c r="B339" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>676</v>
+      </c>
+      <c r="B340" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>678</v>
+      </c>
+      <c r="B341" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>680</v>
+      </c>
+      <c r="B342" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>682</v>
+      </c>
+      <c r="B343" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>684</v>
+      </c>
+      <c r="B344" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>686</v>
+      </c>
+      <c r="B345" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>688</v>
+      </c>
+      <c r="B346" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>690</v>
+      </c>
+      <c r="B347" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>692</v>
+      </c>
+      <c r="B348" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>694</v>
+      </c>
+      <c r="B349" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>696</v>
+      </c>
+      <c r="B350" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>698</v>
+      </c>
+      <c r="B351" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>700</v>
+      </c>
+      <c r="B352" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>702</v>
+      </c>
+      <c r="B353" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>704</v>
+      </c>
+      <c r="B354" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>706</v>
+      </c>
+      <c r="B355" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>708</v>
+      </c>
+      <c r="B356" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>710</v>
+      </c>
+      <c r="B357" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>712</v>
+      </c>
+      <c r="B358" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>714</v>
+      </c>
+      <c r="B359" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>716</v>
+      </c>
+      <c r="B360" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>718</v>
+      </c>
+      <c r="B361" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>720</v>
+      </c>
+      <c r="B362" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>722</v>
+      </c>
+      <c r="B363" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>724</v>
+      </c>
+      <c r="B364" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>726</v>
+      </c>
+      <c r="B365" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>728</v>
+      </c>
+      <c r="B366" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>730</v>
+      </c>
+      <c r="B367" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>732</v>
+      </c>
+      <c r="B368" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>734</v>
+      </c>
+      <c r="B369" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>736</v>
+      </c>
+      <c r="B370" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>738</v>
+      </c>
+      <c r="B371" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>740</v>
+      </c>
+      <c r="B372" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>742</v>
+      </c>
+      <c r="B373" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>744</v>
+      </c>
+      <c r="B374" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>746</v>
+      </c>
+      <c r="B375" t="s">
+        <v>747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/java/resources/generateduuid.xlsx
+++ b/src/main/java/resources/generateduuid.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1218">
   <si>
     <t>Vehicle uuid</t>
   </si>
@@ -2269,6 +2269,1416 @@
   </si>
   <si>
     <t>2018-11-18T17:32:18.941</t>
+  </si>
+  <si>
+    <t>509eh3218k46se5332u12t9t39f0upj5</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:34:59.576</t>
+  </si>
+  <si>
+    <t>ye9q7tt0zt6ebw0uzqk73k72695y8fsc</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:35:22.301</t>
+  </si>
+  <si>
+    <t>1231pof6rwz437p6jx93nf3heijln24a</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:36:23.482</t>
+  </si>
+  <si>
+    <t>r0c12xlo32p30ok3se97tj2308d6zpgu</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:37:24.456</t>
+  </si>
+  <si>
+    <t>tpqct68beiit9652y50c1317ng29u7lq</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:38:20.735</t>
+  </si>
+  <si>
+    <t>563qf6695o3rf8rwqaw3709kj4p1e86p</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:39:26.751</t>
+  </si>
+  <si>
+    <t>zv4g3t1k288nowy7ozd987p53410393l</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:40:20.312</t>
+  </si>
+  <si>
+    <t>zbgchnq89jc2am066kl16481e0d8w0r3</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:40:34.894</t>
+  </si>
+  <si>
+    <t>8c84bajkv90c1f1vcqo27d2q62aogm66</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:40:50.289</t>
+  </si>
+  <si>
+    <t>1ytnd265h14wf0h1h21mj5stt6r47h08</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:41:23.369</t>
+  </si>
+  <si>
+    <t>0isu4ft5dqk993v97ne26032wcrn9sb6</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:42:18.901</t>
+  </si>
+  <si>
+    <t>8ujkjc58f9lz69l569jqbrfkt7kk2f7r</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:43:19.920</t>
+  </si>
+  <si>
+    <t>04bf3952w1q7f6q5vx3271ks1380c7iw</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:44:21.094</t>
+  </si>
+  <si>
+    <t>8f3l0h50xz7s4mc3bs2zom946npfgb9r</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:45:18.823</t>
+  </si>
+  <si>
+    <t>tt4731f0j3eo5w0qre4fvbkkg5i96lc3</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:46:21.959</t>
+  </si>
+  <si>
+    <t>ya4rp9howteyd084t21zsu10jw6bv5y8</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:47:22.642</t>
+  </si>
+  <si>
+    <t>wx3k61c953pjiy3od3lc7xx4g15cak53</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:48:23.725</t>
+  </si>
+  <si>
+    <t>4k8731g8dquxi1px3yjkm231u5f8i15m</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:48:40.721</t>
+  </si>
+  <si>
+    <t>fq9me8ht51elp95te7sf2ukrxo48cf2j</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:48:57.773</t>
+  </si>
+  <si>
+    <t>y32qk5mo11eevptpx3rj5bo2piw0lkye</t>
+  </si>
+  <si>
+    <t>2018-11-18T17:49:13.921</t>
+  </si>
+  <si>
+    <t>0ciurfwgpmj49w4n97bzgd64ibq265w1</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:47:55.698</t>
+  </si>
+  <si>
+    <t>6l7hoxjsya7ap86ug408exnph29p0h6k</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:48:27.102</t>
+  </si>
+  <si>
+    <t>uv5d67yqhox8k6w4tq38kglk7ef5g8yo</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:49:23.452</t>
+  </si>
+  <si>
+    <t>2gz9k51bex5etsx99l367787uikpfkj2</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:50:24.388</t>
+  </si>
+  <si>
+    <t>cajj1y9g45b83kyhfqc6q79g80nl2lz9</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:53:15.412</t>
+  </si>
+  <si>
+    <t>ev0blj2532c6h4561o2b2s3b7zfble9l</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:54:22.116</t>
+  </si>
+  <si>
+    <t>oa947f615tdcz45qt5g8dl7k5e2xjhir</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:55:25.916</t>
+  </si>
+  <si>
+    <t>15aps426n6z401709agfc4tw7fbu9fk8</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:55:44.787</t>
+  </si>
+  <si>
+    <t>32urc82c8jons3gu9aq7v5846h97kvno</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:55:59.794</t>
+  </si>
+  <si>
+    <t>thlh54wusr1lial4fbrb039y0a12gtl9</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:56:21.491</t>
+  </si>
+  <si>
+    <t>h5us4ah6xwiq293thp02937lzd8b31c3</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:57:23.127</t>
+  </si>
+  <si>
+    <t>6on1v8q4lvq4vql8d8pqk9m8s6t87af2</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:58:19.590</t>
+  </si>
+  <si>
+    <t>y2n575bd333c8x15c286sh5uu8hy6748</t>
+  </si>
+  <si>
+    <t>2018-11-18T20:59:26.148</t>
+  </si>
+  <si>
+    <t>zf28y5b69j48vu02e4udwghq4oo9pr94</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:00:24.600</t>
+  </si>
+  <si>
+    <t>ee3etlsys3kk4wf417h8im6fr8189473</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:01:20.957</t>
+  </si>
+  <si>
+    <t>kb754y85gl9ncbr40jfevaa944ex9l2j</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:02:20.988</t>
+  </si>
+  <si>
+    <t>0c9y58fu5wu126su1ui6wunvi69m0b56</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:03:22.457</t>
+  </si>
+  <si>
+    <t>5sde8w0lgb5mv92jw3vv2nk3nt92kdjt</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:03:42.373</t>
+  </si>
+  <si>
+    <t>j0nac98027zjmwg45f71uutk0q917996</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:03:58.497</t>
+  </si>
+  <si>
+    <t>9m4cpgosequ36bw4347j0lbt7y00d97v</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:04:18.473</t>
+  </si>
+  <si>
+    <t>j4366afdvrfg68r2vpjnp8zvdnr3jj1p</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:15:53.908</t>
+  </si>
+  <si>
+    <t>axacp3hrwlth24898d1rb71v4d5ig16y</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:16:25.157</t>
+  </si>
+  <si>
+    <t>jkhbcp1c4kb78e1k12zl450xw8uib55i</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:20:43.875</t>
+  </si>
+  <si>
+    <t>95cho9v804ey5p3qxm4c5g04144v8w8v</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:21:19.751</t>
+  </si>
+  <si>
+    <t>101g9480cgqiq27ov6ytd8t67v2ztco7</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:22:21.817</t>
+  </si>
+  <si>
+    <t>bd9jms1i1iy36pyrx60kq6asset69xgd</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:24:59.189</t>
+  </si>
+  <si>
+    <t>5d6w1rhi81q197742781i1i7melh9te1</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:25:23.008</t>
+  </si>
+  <si>
+    <t>3h658j3gtim480yyryuszpe15e16sxs1</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:25:42.490</t>
+  </si>
+  <si>
+    <t>a2lh6lbc3sb5oh85a4400a6m0ahf47lv</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:26:20.454</t>
+  </si>
+  <si>
+    <t>a79d29m16w8d3e2lsnpme5048y3o99u6</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:27:20.925</t>
+  </si>
+  <si>
+    <t>f05rhz0xck820b831zhbm0h9pw1wf268</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:28:19.091</t>
+  </si>
+  <si>
+    <t>bfds338xnp36po4245cfyht442up9j97</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:29:23.817</t>
+  </si>
+  <si>
+    <t>2pv1nme0yipn88i8p94o4ma7l7in6y99</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:29:42.833</t>
+  </si>
+  <si>
+    <t>jy6zqihrre47jflhp13y6mek17tv3sdd</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:30:01.046</t>
+  </si>
+  <si>
+    <t>6h1fv1dzvzc21ibz8z782ytmie0ykdv1</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:33:48.127</t>
+  </si>
+  <si>
+    <t>ny0zidfc1i2h4g2m3wr1zg8ygq0lu4r9</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:34:18.486</t>
+  </si>
+  <si>
+    <t>0o77whst86vq4h97wm329ft9x94bxwhv</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:34:37.810</t>
+  </si>
+  <si>
+    <t>sqrv25s5bp1z9u6u9xy1epqsrznf2q2o</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:46:50.865</t>
+  </si>
+  <si>
+    <t>668fv9fsv6x3azhso38241273v6n0q5y</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:47:24.990</t>
+  </si>
+  <si>
+    <t>lml4si060iw3g6xuthoxl518ajt55v22</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:48:21.921</t>
+  </si>
+  <si>
+    <t>9f857ye4nws80udfu5h26gcmx1u7s3he</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:49:24.866</t>
+  </si>
+  <si>
+    <t>x6hax8407i9hh8le41unoq2e18njm42i</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:50:19.631</t>
+  </si>
+  <si>
+    <t>aztqwwhs9mf8q39ym0ey9q0qe557j68r</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:51:24.161</t>
+  </si>
+  <si>
+    <t>jo1v7fai400js240e6zyz0ed6ryvx9vy</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:52:23.841</t>
+  </si>
+  <si>
+    <t>wh2a0ajq4228j9edjcdy194i1crr17k6</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:52:42.871</t>
+  </si>
+  <si>
+    <t>ehq489k1nq5124ryh15flizm2y1a7429</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:53:01.719</t>
+  </si>
+  <si>
+    <t>7rn1xo19igu44g71h1s3ci312pi4k17f</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:57:26.270</t>
+  </si>
+  <si>
+    <t>olxeqa62kk4o67o92sn3h231wg7a80jt</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:58:19.707</t>
+  </si>
+  <si>
+    <t>v56q1sk0mvv7gdq37q5dr334w3kct9zj</t>
+  </si>
+  <si>
+    <t>2018-11-18T21:58:39.913</t>
+  </si>
+  <si>
+    <t>rx434sdg3snzsti84183c4rm8n278ql3</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:05:44.517</t>
+  </si>
+  <si>
+    <t>vbb6z70prg4c762azshmz0sx5zjdq579</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:06:02.943</t>
+  </si>
+  <si>
+    <t>237jvn8349s5olb522mhk8yrjd0ime91</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:10:02.823</t>
+  </si>
+  <si>
+    <t>zdm2ee6yxin732wnma1va23u9907gbat</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:11:26.927</t>
+  </si>
+  <si>
+    <t>1paa03tun2pu6g3x82pcp0c9xup3534u</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:12:20.043</t>
+  </si>
+  <si>
+    <t>pm6mta7ek393tfb83r30p45o65rih3my</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:13:18.748</t>
+  </si>
+  <si>
+    <t>c95o7t6jnzce9644oin28tq41h071dtc</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:14:24.930</t>
+  </si>
+  <si>
+    <t>5zf9sp8sl5qef26zj0d0391tywh3f4u0</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:14:44.629</t>
+  </si>
+  <si>
+    <t>89h9gt0qc26emzr5y2d8ph3tn6c36148</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:15:04.424</t>
+  </si>
+  <si>
+    <t>3quzjbceagxgz7itibj7pxjz95d584ex</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:16:25.988</t>
+  </si>
+  <si>
+    <t>1ssnd6g88c35foxrfb0ievs316ko0u93</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:17:26.858</t>
+  </si>
+  <si>
+    <t>dzts8460my4tiyij5i508x0d2300rsj9</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:17:46.893</t>
+  </si>
+  <si>
+    <t>2479tehmdy2451mrc19nk77rl138ej1p</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:31:01.936</t>
+  </si>
+  <si>
+    <t>v2wbjnhkmwc01aq5b83b4rb1t29n2w9l</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:33:27.072</t>
+  </si>
+  <si>
+    <t>rs59lz76hk22w008k716ylhaa4gf1a44</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:34:28.181</t>
+  </si>
+  <si>
+    <t>483gtbvof0h7xkp20ra2w5342ledgqos</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:35:27.189</t>
+  </si>
+  <si>
+    <t>18wdt82fs6ut495xy635xgq8ug6xg64q</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:36:25.543</t>
+  </si>
+  <si>
+    <t>3f21ts44lq7csz5g30e17xu17rn8z6er</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:37:23.490</t>
+  </si>
+  <si>
+    <t>6n0ja62k0p96s3zxcdhw23wg06uw71uh</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:38:21.949</t>
+  </si>
+  <si>
+    <t>k44batt155rl550qd70mzhdjh7x793i4</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:38:41.538</t>
+  </si>
+  <si>
+    <t>2040sufre0s7399o78t2p5l05u3i39u4</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:39:01.318</t>
+  </si>
+  <si>
+    <t>1vrx9hkj6qz618e0zw9mq8ixcov43q33</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:43:41.551</t>
+  </si>
+  <si>
+    <t>ol592vnfo2ic44oc0o1aajrm3v94agw5</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:44:27.435</t>
+  </si>
+  <si>
+    <t>92n5fateb3cf875875godrmc2131h1qf</t>
+  </si>
+  <si>
+    <t>2018-11-18T22:44:48.243</t>
+  </si>
+  <si>
+    <t>b0bx3o1rmr5fa9pjrc7qnxtq8coq812n</t>
+  </si>
+  <si>
+    <t>2018-11-18T23:05:30.981</t>
+  </si>
+  <si>
+    <t>064tg857ornofh8f00v5oh1odv3bfaby</t>
+  </si>
+  <si>
+    <t>2018-11-18T23:05:54.596</t>
+  </si>
+  <si>
+    <t>2h66hdf94v2dpde9d351ltq3ko7kg6a1</t>
+  </si>
+  <si>
+    <t>2018-11-18T23:06:25.168</t>
+  </si>
+  <si>
+    <t>vpv3mjocc4dbz7cu6v0s8am8k35rgmwo</t>
+  </si>
+  <si>
+    <t>2018-11-18T23:07:21.538</t>
+  </si>
+  <si>
+    <t>in8et961808pv5x67094ws07gn6gaour</t>
+  </si>
+  <si>
+    <t>2018-11-18T23:08:23.248</t>
+  </si>
+  <si>
+    <t>77sz8kvuf4lrp79nwq78fa3rvoqsyiby</t>
+  </si>
+  <si>
+    <t>2018-11-18T23:09:24.938</t>
+  </si>
+  <si>
+    <t>5ow5t95g55ktwg4o5ib272mkz4hb46f9</t>
+  </si>
+  <si>
+    <t>2018-11-18T23:10:19.911</t>
+  </si>
+  <si>
+    <t>a9myfe629j000tyjk6y9it69pn548jh8</t>
+  </si>
+  <si>
+    <t>2018-11-18T23:10:43.981</t>
+  </si>
+  <si>
+    <t>u83pzfwmw0y2dv32pn2u08a0c49el785</t>
+  </si>
+  <si>
+    <t>2018-11-18T23:11:05.266</t>
+  </si>
+  <si>
+    <t>o753y1231td9i98nm0xj09kcgyyc4mcx</t>
+  </si>
+  <si>
+    <t>2018-11-18T23:12:22.634</t>
+  </si>
+  <si>
+    <t>x8sl3b0kawx37p1r3380ncvft345fhtr</t>
+  </si>
+  <si>
+    <t>2018-11-18T23:13:23.008</t>
+  </si>
+  <si>
+    <t>vfkp1b0ficw096c7a9qd61o2agd4r3bs</t>
+  </si>
+  <si>
+    <t>2018-11-18T23:13:46.022</t>
+  </si>
+  <si>
+    <t>r03x4a46q2l0kl40y0lrijudc9z2dp7p</t>
+  </si>
+  <si>
+    <t>2018-11-19T09:06:32.448</t>
+  </si>
+  <si>
+    <t>3tn331lbky5lfnz21kvnz296o29c1gei</t>
+  </si>
+  <si>
+    <t>2018-11-19T09:08:59.474</t>
+  </si>
+  <si>
+    <t>z3hf0ttjh6w6eh0579d77fsu212807l2</t>
+  </si>
+  <si>
+    <t>2018-11-19T09:22:45.859</t>
+  </si>
+  <si>
+    <t>h27ryslj2zlc2fsa7yxzjtq3io934eax</t>
+  </si>
+  <si>
+    <t>2018-11-19T09:35:16.460</t>
+  </si>
+  <si>
+    <t>y7w95fdpt119dc75htw67q265rnzg9u2</t>
+  </si>
+  <si>
+    <t>2018-11-19T09:37:35.751</t>
+  </si>
+  <si>
+    <t>zpw2d068dkhd8j70c04bxf22wufe32x3</t>
+  </si>
+  <si>
+    <t>2018-11-19T09:38:27.983</t>
+  </si>
+  <si>
+    <t>06w05idl47014m9k7bht0210dupu0tqp</t>
+  </si>
+  <si>
+    <t>2018-11-19T09:39:58.459</t>
+  </si>
+  <si>
+    <t>98vy7bc017cocl4xc8y301ly873443l9</t>
+  </si>
+  <si>
+    <t>2018-11-19T09:59:15.634</t>
+  </si>
+  <si>
+    <t>wp0fx6f0b0u3u3h38sx1u66kspmoxvrg</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:03:25.772</t>
+  </si>
+  <si>
+    <t>wf0hbuwz2rz7y7pedb43fjr4bwm37ep5</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:06:34.071</t>
+  </si>
+  <si>
+    <t>7103726zmx52hw9ue5nly7o7as19jz84</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:07:24.091</t>
+  </si>
+  <si>
+    <t>82i6qz4d4a1ine80z662g05nu219247b</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:16:00.954</t>
+  </si>
+  <si>
+    <t>i7ly8g68z8c0c883727179s4988o61zg</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:16:29.187</t>
+  </si>
+  <si>
+    <t>5ae9u3b8a0ffq301gsp109h2ko1w2byy</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:17:20.497</t>
+  </si>
+  <si>
+    <t>c1qwkw45g1628410l984834cbylh634g</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:18:31.928</t>
+  </si>
+  <si>
+    <t>wf0972nsj4z31tl2jnxb263cex501ke2</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:20:34.525</t>
+  </si>
+  <si>
+    <t>5u8gdz57yg3p902mx3qeql5q8q9q473c</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:21:21.858</t>
+  </si>
+  <si>
+    <t>cx5q35796sgj1o51gtdw0v5h41u8x9b6</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:22:21.058</t>
+  </si>
+  <si>
+    <t>hs4496v927rf14dln713fhyt8myb480g</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:22:33.623</t>
+  </si>
+  <si>
+    <t>v4j491fard13277ht68dqb1b5b05hlkr</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:22:49.272</t>
+  </si>
+  <si>
+    <t>q85r71m475ld155iux2zx54ug38g1fsp</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:23:30.611</t>
+  </si>
+  <si>
+    <t>kvg92y31mj0x7b05s45t0xw6iiyppy3z</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:25:34.503</t>
+  </si>
+  <si>
+    <t>a43e22b5vfogq37wa7kax069r8oqax00</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:27:36.962</t>
+  </si>
+  <si>
+    <t>qzmbzp90e2z7ct2w904016ptk5b92p40</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:28:06.349</t>
+  </si>
+  <si>
+    <t>un023c9187cm8s28ktz05q6sb733n19i</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:28:35.825</t>
+  </si>
+  <si>
+    <t>kp5sv1uko8lp441p6cki5d37v0fq8k84</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:29:17.042</t>
+  </si>
+  <si>
+    <t>crv0a1nr0301d6uif0i2gwibc2iuhvfm</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:31:25.825</t>
+  </si>
+  <si>
+    <t>7ef2lych652r330wef42wb94trho30ve</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:31:53.812</t>
+  </si>
+  <si>
+    <t>3735qkw8wr7cp1zfiywst012yjtat90i</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:32:22.021</t>
+  </si>
+  <si>
+    <t>94d0j93y78l4vz48tx8k19m1iu712pfa</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:39:53.889</t>
+  </si>
+  <si>
+    <t>5285cuvb23011clvnngh3zlti97yeck3</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:42:22.307</t>
+  </si>
+  <si>
+    <t>jyls88384uwmvt7o36s3f189volr5s4l</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:42:54.065</t>
+  </si>
+  <si>
+    <t>f25fhi3c33j0tg2hs3z06845wu84o0n7</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:43:22.819</t>
+  </si>
+  <si>
+    <t>ak91k7q62ypvcu0zws85dd4eazh9828v</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:43:52.134</t>
+  </si>
+  <si>
+    <t>6m372gtr51j7jpzyaopjbbroj62f235h</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:53:09.315</t>
+  </si>
+  <si>
+    <t>rqlv1erbcz30xj4vtyk8mpfeck7rdjlp</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:53:39.434</t>
+  </si>
+  <si>
+    <t>ctvg02mno75gxvj2524l25s18npxfdsr</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:54:54.595</t>
+  </si>
+  <si>
+    <t>9578yq59gy48gyxn65iiw288hr0qu88p</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:55:19.551</t>
+  </si>
+  <si>
+    <t>599t93wign5ifu7s0x411q9h6p5e88m0</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:56:19.530</t>
+  </si>
+  <si>
+    <t>pldg7ke3ofhbmsp93v3e982d0kyluezb</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:57:19.513</t>
+  </si>
+  <si>
+    <t>k241ytked653p296yrfjelj5v7t1rc15</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:57:31.421</t>
+  </si>
+  <si>
+    <t>sl7f99f8m26k9rfxnbp4zu7ot588h1sf</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:57:43.231</t>
+  </si>
+  <si>
+    <t>o6cxiupx4cnzfl7zj7bwxj5v30yev72h</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:58:23.275</t>
+  </si>
+  <si>
+    <t>ux7wrvcjn3t6024a81qokl7kri518y7f</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:58:35.901</t>
+  </si>
+  <si>
+    <t>u4haef8ns3tdfmyp0xcz4s99t8u15nyy</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:58:49.164</t>
+  </si>
+  <si>
+    <t>41g73k95by6a89k5alhicl2050dc18e3</t>
+  </si>
+  <si>
+    <t>2018-11-19T10:59:23.627</t>
+  </si>
+  <si>
+    <t>778fc96g4xj6df59021214c9sc7q8685</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:00:22.798</t>
+  </si>
+  <si>
+    <t>c1782580vee3ttgl7cc3jbep23f7k7ss</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:00:36.772</t>
+  </si>
+  <si>
+    <t>egvrrlrz6x59ir957sm68mde07i289ja</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:07:22.759</t>
+  </si>
+  <si>
+    <t>2qbqfv3rfj23r6x3sm4ye46p3405dq98</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:08:24.268</t>
+  </si>
+  <si>
+    <t>85gtb93d7szbj6r9mtbfq47t9m64yvhs</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:09:24.620</t>
+  </si>
+  <si>
+    <t>rxd8qd06p7oz238bb7zw3gnt220v7dqk</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:10:20.223</t>
+  </si>
+  <si>
+    <t>9up80h248migbj1q8o2e4b5qv75z1tws</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:12:38.503</t>
+  </si>
+  <si>
+    <t>24a0ya95se7n9qf7f1k40528jq2qcs0j</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:13:22.565</t>
+  </si>
+  <si>
+    <t>c7106287ol5wtqm0879j0zl81fc08y74</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:16:39.024</t>
+  </si>
+  <si>
+    <t>5g4i7c0981209a428c33jimxo8q6g531</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:17:19.021</t>
+  </si>
+  <si>
+    <t>15oel65urzuim20p4w3q7vp040bbdfol</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:17:30.982</t>
+  </si>
+  <si>
+    <t>j8q96k5v7xiai467ogtvp8p4idm5uujc</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:17:42.767</t>
+  </si>
+  <si>
+    <t>947c1prnb8w6za7lsgg52393gcqi7ztl</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:18:21.867</t>
+  </si>
+  <si>
+    <t>q3z0a8q7sf3gcr69b1yv69v12472ffy2</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:20:26.373</t>
+  </si>
+  <si>
+    <t>ks305304319s7gi6d9326ogn09r2vb7a</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:26:51.020</t>
+  </si>
+  <si>
+    <t>adlye1or984uz2p49nx0v7zjbzils290</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:27:21.625</t>
+  </si>
+  <si>
+    <t>0t5kb3284bgbd0zpnur20r9fc7hi30w1</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:29:16.575</t>
+  </si>
+  <si>
+    <t>32u32z6fk1664xe7v77vq3l1l041rc61</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:30:51.807</t>
+  </si>
+  <si>
+    <t>i40wya1i9vo8m8kc8t3pb7fkf0z2ksw3</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:31:22.357</t>
+  </si>
+  <si>
+    <t>8h63i0kv8v8r9q245kqp9z7ry17sv4d2</t>
+  </si>
+  <si>
+    <t>2018-11-19T11:31:37.750</t>
+  </si>
+  <si>
+    <t>w6pix3h20z9wa7f6v86nsfgc9358uewu</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:11:12.166</t>
+  </si>
+  <si>
+    <t>w99xs139303th2q26641gw611s2m7e76</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:13:17.015</t>
+  </si>
+  <si>
+    <t>31z9t666j5v1zdxlbig1aad2v9a9a965</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:15:03.922</t>
+  </si>
+  <si>
+    <t>8n30s2h958z0wxvcl4kn477z91p5p5lk</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:17:16.661</t>
+  </si>
+  <si>
+    <t>u4d29t6i44gz013lp01j99c0ftcbn063</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:19:45.046</t>
+  </si>
+  <si>
+    <t>pwe62z22i6c2w110jz27vv9k6hrfre41</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:21:14.446</t>
+  </si>
+  <si>
+    <t>r1a3sym917jpflkj4m9492m869u3k04j</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:23:13.149</t>
+  </si>
+  <si>
+    <t>okd0omxzda0b6p5i75n65545hq4uhv8q</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:24:23.915</t>
+  </si>
+  <si>
+    <t>b5350npk7g57lh5aeonvd1563v6q3z22</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:24:42.565</t>
+  </si>
+  <si>
+    <t>fqy31y7w1cfwaf0874a98cl012umateg</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:25:23.298</t>
+  </si>
+  <si>
+    <t>mhtw2u26h8vpt8r76wnaf11109nrdj1x</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:27:15.170</t>
+  </si>
+  <si>
+    <t>0qaxrgu4o033fd8ip10a69vszsgr2ruk</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:27:35.295</t>
+  </si>
+  <si>
+    <t>b57v8y2j0jp5bp6319oq8k1b9hulc510</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:30:46.601</t>
+  </si>
+  <si>
+    <t>6xj12ip0f563131kx2w67629304is540</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:33:11.829</t>
+  </si>
+  <si>
+    <t>y9lclv6p93112ahdd9pz3n399dnx8dji</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:34:44.887</t>
+  </si>
+  <si>
+    <t>rlbyp3x0084xknwh70lbk3vopn0cq83y</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:35:20.138</t>
+  </si>
+  <si>
+    <t>mrufk072jb4gr51m3w9ovxp2gxb7vw2i</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:36:23.057</t>
+  </si>
+  <si>
+    <t>lh96wn2bu0e5ifdyr2h9e42mmu5m077l</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:38:13.514</t>
+  </si>
+  <si>
+    <t>g946sgy42jq0a9nre8vtt8n44mf5ub39</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:39:21.574</t>
+  </si>
+  <si>
+    <t>2g7r5jisu3v7343f9j73gu1bu0c39k42</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:39:33.673</t>
+  </si>
+  <si>
+    <t>neq976tggjibw6t6gng8r4104y1yt9h9</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:39:45.770</t>
+  </si>
+  <si>
+    <t>lbwezvsw7vuv2fc7f9qgsh1271xuwj36</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:40:19.746</t>
+  </si>
+  <si>
+    <t>321p9dcplr2fi0gf07chst69t96uc587</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:41:18.712</t>
+  </si>
+  <si>
+    <t>7smq65mo1sop72bhd83fz45i4nh14136</t>
+  </si>
+  <si>
+    <t>2018-11-19T12:41:31.436</t>
+  </si>
+  <si>
+    <t>6a0w8v8vl5z94yqs93l2ye3271umzalg</t>
+  </si>
+  <si>
+    <t>2018-11-19T13:49:49.841</t>
+  </si>
+  <si>
+    <t>ktt1c095yr9qwvaqf57gyqmoiyr85f6k</t>
+  </si>
+  <si>
+    <t>2018-11-19T13:50:22.293</t>
+  </si>
+  <si>
+    <t>24nq3ery00z709qh13da4x45i68xm0eo</t>
+  </si>
+  <si>
+    <t>2018-11-19T13:52:17.406</t>
+  </si>
+  <si>
+    <t>3vwy742cjury53jd55963cimz0mut3m6</t>
+  </si>
+  <si>
+    <t>2018-11-19T13:54:09.626</t>
+  </si>
+  <si>
+    <t>59o4204o3y7sxexfbgeu875605l93xg6</t>
+  </si>
+  <si>
+    <t>2018-11-19T13:56:10.899</t>
+  </si>
+  <si>
+    <t>6vuwy42mp7o9irlf612ktbq4jnxg80yc</t>
+  </si>
+  <si>
+    <t>2018-11-19T13:57:32.816</t>
+  </si>
+  <si>
+    <t>s7f5ow10wf9bt1l07h1m9bvuw2hetrv4</t>
+  </si>
+  <si>
+    <t>2018-11-19T13:58:56.424</t>
+  </si>
+  <si>
+    <t>2tkd0oa09b4b380wz0a8uy6b3vyc9us0</t>
+  </si>
+  <si>
+    <t>2018-11-19T13:59:13.962</t>
+  </si>
+  <si>
+    <t>8k5d22t0211q3pqszpct737160a6lfh5</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:00:19.716</t>
+  </si>
+  <si>
+    <t>5h6p61zl68pt012l7681equluworjm63</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:02:11.940</t>
+  </si>
+  <si>
+    <t>75t1adwapze8961yn9x1p4ze16tzyf0t</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:04:12.735</t>
+  </si>
+  <si>
+    <t>d7b5klbxe46y71dal4lr755u4mybzu5w</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:05:23.022</t>
+  </si>
+  <si>
+    <t>29wope1018kqhn45lse89owq70rva7mi</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:47:07.503</t>
+  </si>
+  <si>
+    <t>ue2rg562ztd45ksezmck098333qbzwer</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:47:19.468</t>
+  </si>
+  <si>
+    <t>j1jp0w5w14lybkixcd2k3484or9f17yo</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:48:23.824</t>
+  </si>
+  <si>
+    <t>p6ti54e122z7tyqsqzdrjfw9o70y161u</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:49:23.168</t>
+  </si>
+  <si>
+    <t>ii7g1f1k73lvi2yff0rifa3781r4yp7s</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:49:35.273</t>
+  </si>
+  <si>
+    <t>54e2e44n53337xs785614zxohbpuud6b</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:50:20.080</t>
+  </si>
+  <si>
+    <t>g63epcgqj3x1keq8i4w335p2dkllpxy3</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:50:32.366</t>
+  </si>
+  <si>
+    <t>4jin79g0ruwf1mo7dt7n2v68pe8cavu6</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:50:44.833</t>
+  </si>
+  <si>
+    <t>5y0p86243v6m48xng4ttcbk6mlvj1fmk</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:50:56.853</t>
+  </si>
+  <si>
+    <t>da8hd3xx75ovd4mzsjz8sf9e637kssrj</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:51:23.398</t>
+  </si>
+  <si>
+    <t>z4nud4939l8dmmluisf7dq2nmgi931bl</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:52:28.606</t>
+  </si>
+  <si>
+    <t>5axzf4cegdkih16rtwzk90enhkz7l0r1</t>
+  </si>
+  <si>
+    <t>2018-11-19T14:52:51.885</t>
+  </si>
+  <si>
+    <t>sned06wvrdbi4x164r5i6qvd45ir672k</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:04:43.770</t>
+  </si>
+  <si>
+    <t>37436f6gq8u2254eo8125a6w795n9l9p</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:05:21.223</t>
+  </si>
+  <si>
+    <t>ay10k3lxxfv8hd5q77md190et655x99o</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:06:22.020</t>
+  </si>
+  <si>
+    <t>62uff02z2v5262j9mnpvptr43b2a0yjl</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:07:21.977</t>
+  </si>
+  <si>
+    <t>lke490ys6fe95o3r488f7m3w146j0hj7</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:08:22.515</t>
+  </si>
+  <si>
+    <t>zi4b7ew6f1qzj385i0ei0793gq884j9x</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:08:44.056</t>
+  </si>
+  <si>
+    <t>4ncn0r8rk8c98c23e1dqrhjtkdq14enc</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:09:08.819</t>
+  </si>
+  <si>
+    <t>99ooof4y890i1i7k2if9ze8ftr5662re</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:23:07.897</t>
+  </si>
+  <si>
+    <t>mx773bf76z9201e35kok418ntkc6msj7</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:24:25.324</t>
+  </si>
+  <si>
+    <t>uelhqzz4lbo22p6anfow661idb2nc761</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:26:39.668</t>
+  </si>
+  <si>
+    <t>exo93hwm69cf96ori48s2oih7e2o23j7</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:27:33.098</t>
+  </si>
+  <si>
+    <t>x9fjnre7ydyz81csrd7cbvwnu9ob8kq1</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:28:21.951</t>
+  </si>
+  <si>
+    <t>4wd6o53gz84774l8ix219c0vzbi5w73d</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:29:24.423</t>
+  </si>
+  <si>
+    <t>50usew49osr7oy4wo6rwm4z3i8mn02a6</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:30:22.188</t>
+  </si>
+  <si>
+    <t>akmb25z65ups22p607qovb4ut09jjd7a</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:30:47.041</t>
+  </si>
+  <si>
+    <t>0x0u4g257vgro64umel3bb3mtsgiv8pd</t>
+  </si>
+  <si>
+    <t>2018-11-19T15:31:09.736</t>
   </si>
 </sst>
 </file>
@@ -5624,6 +7034,1886 @@
         <v>747</v>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>748</v>
+      </c>
+      <c r="B376" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>750</v>
+      </c>
+      <c r="B377" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>752</v>
+      </c>
+      <c r="B378" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>754</v>
+      </c>
+      <c r="B379" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>756</v>
+      </c>
+      <c r="B380" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>758</v>
+      </c>
+      <c r="B381" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>760</v>
+      </c>
+      <c r="B382" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>762</v>
+      </c>
+      <c r="B383" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>764</v>
+      </c>
+      <c r="B384" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>766</v>
+      </c>
+      <c r="B385" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>768</v>
+      </c>
+      <c r="B386" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>770</v>
+      </c>
+      <c r="B387" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>772</v>
+      </c>
+      <c r="B388" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>774</v>
+      </c>
+      <c r="B389" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>776</v>
+      </c>
+      <c r="B390" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>778</v>
+      </c>
+      <c r="B391" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>780</v>
+      </c>
+      <c r="B392" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>782</v>
+      </c>
+      <c r="B393" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>784</v>
+      </c>
+      <c r="B394" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>786</v>
+      </c>
+      <c r="B395" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>788</v>
+      </c>
+      <c r="B396" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>790</v>
+      </c>
+      <c r="B397" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>792</v>
+      </c>
+      <c r="B398" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>794</v>
+      </c>
+      <c r="B399" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>796</v>
+      </c>
+      <c r="B400" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>798</v>
+      </c>
+      <c r="B401" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>800</v>
+      </c>
+      <c r="B402" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>802</v>
+      </c>
+      <c r="B403" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>804</v>
+      </c>
+      <c r="B404" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>806</v>
+      </c>
+      <c r="B405" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>808</v>
+      </c>
+      <c r="B406" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>810</v>
+      </c>
+      <c r="B407" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>812</v>
+      </c>
+      <c r="B408" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>814</v>
+      </c>
+      <c r="B409" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>816</v>
+      </c>
+      <c r="B410" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>818</v>
+      </c>
+      <c r="B411" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>820</v>
+      </c>
+      <c r="B412" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>822</v>
+      </c>
+      <c r="B413" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>824</v>
+      </c>
+      <c r="B414" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>826</v>
+      </c>
+      <c r="B415" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>828</v>
+      </c>
+      <c r="B416" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>830</v>
+      </c>
+      <c r="B417" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>832</v>
+      </c>
+      <c r="B418" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>834</v>
+      </c>
+      <c r="B419" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>836</v>
+      </c>
+      <c r="B420" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>838</v>
+      </c>
+      <c r="B421" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>840</v>
+      </c>
+      <c r="B422" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>842</v>
+      </c>
+      <c r="B423" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>844</v>
+      </c>
+      <c r="B424" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>846</v>
+      </c>
+      <c r="B425" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>848</v>
+      </c>
+      <c r="B426" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>850</v>
+      </c>
+      <c r="B427" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>852</v>
+      </c>
+      <c r="B428" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>854</v>
+      </c>
+      <c r="B429" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>856</v>
+      </c>
+      <c r="B430" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>858</v>
+      </c>
+      <c r="B431" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>860</v>
+      </c>
+      <c r="B432" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>862</v>
+      </c>
+      <c r="B433" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>864</v>
+      </c>
+      <c r="B434" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>866</v>
+      </c>
+      <c r="B435" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>868</v>
+      </c>
+      <c r="B436" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>870</v>
+      </c>
+      <c r="B437" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>872</v>
+      </c>
+      <c r="B438" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>874</v>
+      </c>
+      <c r="B439" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>876</v>
+      </c>
+      <c r="B440" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>878</v>
+      </c>
+      <c r="B441" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>880</v>
+      </c>
+      <c r="B442" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>882</v>
+      </c>
+      <c r="B443" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>884</v>
+      </c>
+      <c r="B444" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>886</v>
+      </c>
+      <c r="B445" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>888</v>
+      </c>
+      <c r="B446" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>890</v>
+      </c>
+      <c r="B447" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>892</v>
+      </c>
+      <c r="B448" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>894</v>
+      </c>
+      <c r="B449" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>896</v>
+      </c>
+      <c r="B450" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>898</v>
+      </c>
+      <c r="B451" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>900</v>
+      </c>
+      <c r="B452" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>902</v>
+      </c>
+      <c r="B453" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>904</v>
+      </c>
+      <c r="B454" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>906</v>
+      </c>
+      <c r="B455" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>908</v>
+      </c>
+      <c r="B456" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>910</v>
+      </c>
+      <c r="B457" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>912</v>
+      </c>
+      <c r="B458" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>914</v>
+      </c>
+      <c r="B459" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>916</v>
+      </c>
+      <c r="B460" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>918</v>
+      </c>
+      <c r="B461" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>920</v>
+      </c>
+      <c r="B462" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>922</v>
+      </c>
+      <c r="B463" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>924</v>
+      </c>
+      <c r="B464" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>926</v>
+      </c>
+      <c r="B465" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>928</v>
+      </c>
+      <c r="B466" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>930</v>
+      </c>
+      <c r="B467" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>932</v>
+      </c>
+      <c r="B468" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>934</v>
+      </c>
+      <c r="B469" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>936</v>
+      </c>
+      <c r="B470" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>938</v>
+      </c>
+      <c r="B471" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>940</v>
+      </c>
+      <c r="B472" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>942</v>
+      </c>
+      <c r="B473" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>944</v>
+      </c>
+      <c r="B474" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>946</v>
+      </c>
+      <c r="B475" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>948</v>
+      </c>
+      <c r="B476" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>950</v>
+      </c>
+      <c r="B477" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>952</v>
+      </c>
+      <c r="B478" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>954</v>
+      </c>
+      <c r="B479" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>956</v>
+      </c>
+      <c r="B480" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>958</v>
+      </c>
+      <c r="B481" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>960</v>
+      </c>
+      <c r="B482" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>962</v>
+      </c>
+      <c r="B483" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>964</v>
+      </c>
+      <c r="B484" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>966</v>
+      </c>
+      <c r="B485" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>968</v>
+      </c>
+      <c r="B486" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>970</v>
+      </c>
+      <c r="B487" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>972</v>
+      </c>
+      <c r="B488" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>974</v>
+      </c>
+      <c r="B489" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>976</v>
+      </c>
+      <c r="B490" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>978</v>
+      </c>
+      <c r="B491" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>980</v>
+      </c>
+      <c r="B492" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>982</v>
+      </c>
+      <c r="B493" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>984</v>
+      </c>
+      <c r="B494" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>986</v>
+      </c>
+      <c r="B495" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>988</v>
+      </c>
+      <c r="B496" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>990</v>
+      </c>
+      <c r="B497" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>992</v>
+      </c>
+      <c r="B498" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>994</v>
+      </c>
+      <c r="B499" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>996</v>
+      </c>
+      <c r="B500" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>998</v>
+      </c>
+      <c r="B501" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/java/resources/generateduuid.xlsx
+++ b/src/main/java/resources/generateduuid.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1302">
   <si>
     <t>Vehicle uuid</t>
   </si>
@@ -3679,6 +3679,258 @@
   </si>
   <si>
     <t>2018-11-19T15:31:09.736</t>
+  </si>
+  <si>
+    <t>o19ool3dm6atef139bo63uo0a22rtab1</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:13:14.718</t>
+  </si>
+  <si>
+    <t>40757p2y353be0086m0ee80usdbk4ind</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:15:50.197</t>
+  </si>
+  <si>
+    <t>275280505v0mz9ci93z27h4xm3ivsm25</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:16:20.130</t>
+  </si>
+  <si>
+    <t>rbd2c6564le4q4n6wcsi7zxoz0y118l6</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:17:20.081</t>
+  </si>
+  <si>
+    <t>70o2abua894youqdmuk65eg490dym958</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:18:20.151</t>
+  </si>
+  <si>
+    <t>63ks5b8lp4s8vhc474fz0a0974zd6cf8</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:18:32.616</t>
+  </si>
+  <si>
+    <t>w1cd9g127myv39vl8s23vh18hta109by</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:18:47.222</t>
+  </si>
+  <si>
+    <t>57baf3t70ulav9ewj720jxq8ph7z52nx</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:32:45.937</t>
+  </si>
+  <si>
+    <t>owlze9c12wwgj7dm4pv1k1q5cdwun731</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:33:21.407</t>
+  </si>
+  <si>
+    <t>dx7o5ofi69n9342qzpvmt8ov8657n3a4</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:34:22.887</t>
+  </si>
+  <si>
+    <t>qnc5t5vy203opzg5cisdto8im9ffeknl</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:35:23.551</t>
+  </si>
+  <si>
+    <t>wx9x7bp022rj85d7il1kmtd94r18wh44</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:36:20.032</t>
+  </si>
+  <si>
+    <t>68m5z5s3133xwfa5snyra465x5127i1m</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:36:32.417</t>
+  </si>
+  <si>
+    <t>by6di4s1rxu745k3l1qv56tzujlq5rvu</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:36:46.043</t>
+  </si>
+  <si>
+    <t>ccpnf14573521j234spirk69tw6m6h51</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:38:22.423</t>
+  </si>
+  <si>
+    <t>jv504elatekk3gw14xmoig5h0le4g6hl</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:39:24.893</t>
+  </si>
+  <si>
+    <t>nddujp95o01av5z7l1cis8a8dx6tede2</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:40:20.356</t>
+  </si>
+  <si>
+    <t>j9u7ln3io8ej618da904kzex7gjji5o3</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:41:20.524</t>
+  </si>
+  <si>
+    <t>5z1i0303ehum0wb9374r8c8w8u4p9skj</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:42:20.875</t>
+  </si>
+  <si>
+    <t>oa8b19zp12v35wl4fo2nyhl00ihm7n2x</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:42:33.768</t>
+  </si>
+  <si>
+    <t>iswkwc81yq4xwthzm6jjy5up520h8wuy</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:42:46.369</t>
+  </si>
+  <si>
+    <t>p8lqzngnlo38bc7obtk23k0hgvp4p9qy</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:42:59.886</t>
+  </si>
+  <si>
+    <t>mgzi97jt7348f7c9r9sgx514e72uig4c</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:49:09.321</t>
+  </si>
+  <si>
+    <t>5ugc9za232i12a96n4qgmh89c5mkp0e9</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:50:19.238</t>
+  </si>
+  <si>
+    <t>4hx3676b4p4avl6m6vjp88kj6v7jr3qd</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:51:20.751</t>
+  </si>
+  <si>
+    <t>d0j4m30z949vrgfum5qa8m6167ogycyn</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:52:21.182</t>
+  </si>
+  <si>
+    <t>k9s46g8y8iaw68c0s2738ylk22nz8a8g</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:53:23.136</t>
+  </si>
+  <si>
+    <t>74zfrkh58k0vve66q3j4518yhw2kk2kg</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:54:24.587</t>
+  </si>
+  <si>
+    <t>gjmfd9l882kjn7ta0x1lrm8wycsc0m4s</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:55:20.404</t>
+  </si>
+  <si>
+    <t>at5o7j9f90947s82lf7dz6qo21ab90ea</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:55:33.867</t>
+  </si>
+  <si>
+    <t>ffm96i1l7mwqvf6c5pd1tkuxlwsv87o1</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:55:47.245</t>
+  </si>
+  <si>
+    <t>3g6a5m06e34ja4ca40lr65izragi8lx3</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:56:22.357</t>
+  </si>
+  <si>
+    <t>1s0u08gwd6ic3rbih7esvx1ruac1xrsu</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:57:22.670</t>
+  </si>
+  <si>
+    <t>pov3asg3qdcxqei010m0c37g2v379j2x</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:58:23.020</t>
+  </si>
+  <si>
+    <t>luruv8gam6xl6l6z9ewa6vj16o4n64jg</t>
+  </si>
+  <si>
+    <t>2018-11-19T20:59:23.361</t>
+  </si>
+  <si>
+    <t>svx9w05w711hjj8pnt48veqc56b7715w</t>
+  </si>
+  <si>
+    <t>2018-11-19T21:00:25.872</t>
+  </si>
+  <si>
+    <t>hqqduj297e13x2xd7bla9773c4ybn8to</t>
+  </si>
+  <si>
+    <t>2018-11-19T21:01:20.653</t>
+  </si>
+  <si>
+    <t>8fy6ppc4149tpxq742fm1k3h1rsc36k9</t>
+  </si>
+  <si>
+    <t>2018-11-19T21:02:20.605</t>
+  </si>
+  <si>
+    <t>0n8i1dri1ng4a6yx1odxx6qcd3q6w180</t>
+  </si>
+  <si>
+    <t>2018-11-19T21:03:21.791</t>
+  </si>
+  <si>
+    <t>o3js9tc8b713e1gprcgz2kg4iilo11m0</t>
+  </si>
+  <si>
+    <t>2018-11-19T21:03:35.856</t>
+  </si>
+  <si>
+    <t>8xo605rl3g78l4iurg8qfh23yll2lkkn</t>
+  </si>
+  <si>
+    <t>2018-11-19T21:03:49.329</t>
+  </si>
+  <si>
+    <t>o10lk8upoqi5curie4j8eh9lzo83kctt</t>
+  </si>
+  <si>
+    <t>2018-11-19T21:04:03.014</t>
   </si>
 </sst>
 </file>
@@ -8914,6 +9166,342 @@
         <v>1217</v>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/java/resources/generateduuid.xlsx
+++ b/src/main/java/resources/generateduuid.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="2124">
   <si>
     <t>Vehicle uuid</t>
   </si>
@@ -3931,6 +3931,2472 @@
   </si>
   <si>
     <t>2018-11-19T21:04:03.014</t>
+  </si>
+  <si>
+    <t>ylh5ya3y03kiv3upi11e4pbz1x3ja4br</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:31:10.143</t>
+  </si>
+  <si>
+    <t>80br34awal77cw22sf7gnmb3dy16742j</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:32:19.478</t>
+  </si>
+  <si>
+    <t>o3c687dc36cy0g26sud3z16b80j98cg8</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:33:18.769</t>
+  </si>
+  <si>
+    <t>we53n75wmcu1dtpxg0uhd2b78l4pw852</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:34:18.981</t>
+  </si>
+  <si>
+    <t>vxo0j4896d90o267ugu27i9osfv0tdi3</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:35:20.462</t>
+  </si>
+  <si>
+    <t>4209xe8kp5piu6c70zz1kueo4zz5opdi</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:37:13.145</t>
+  </si>
+  <si>
+    <t>r7k62eq3284kokk9eb8047aim5z68ayg</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:37:35.809</t>
+  </si>
+  <si>
+    <t>6l101s77qv17402zeuchcv80z9a13xcv</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:37:48.473</t>
+  </si>
+  <si>
+    <t>op0710040ume0q3dy1q0705dlp463lh5</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:38:01.456</t>
+  </si>
+  <si>
+    <t>q0962k23au9z16l5t342z2566w229qcl</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:38:21.365</t>
+  </si>
+  <si>
+    <t>o0x98gy3o4d68x8g2fli898z75f4uk3m</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:39:20.847</t>
+  </si>
+  <si>
+    <t>0c5evmmc3o6b6sxt2bl675eey3rxulj1</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:40:20.213</t>
+  </si>
+  <si>
+    <t>fb8dmky7yhg5k22204611l9gqwk0iouj</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:41:21.321</t>
+  </si>
+  <si>
+    <t>o5t604p3i0c7ux6884o6smvibz00b900</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:43:00.160</t>
+  </si>
+  <si>
+    <t>f19b95gslm1q6x1izbi5o3naa71smw0f</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:43:24.367</t>
+  </si>
+  <si>
+    <t>96oxteuf4cj3xf7e7952k8h46d6x12b9</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:44:24.290</t>
+  </si>
+  <si>
+    <t>5g93u9yqe6amx8d1qocbwn3i9v4zuksy</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:45:22.475</t>
+  </si>
+  <si>
+    <t>4tfx8ne4w4wq2jy2201t38na0s3c78m4</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:45:36.443</t>
+  </si>
+  <si>
+    <t>z772z50qk1grsvmxt0m0g69y82855upj</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:45:50.138</t>
+  </si>
+  <si>
+    <t>ji7il4seia4dmb73b9ctn47o8x3iw076</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:46:04.077</t>
+  </si>
+  <si>
+    <t>4gm9gwf6crj3mhcwgo79ovvm0i3of4f7</t>
+  </si>
+  <si>
+    <t>2018-11-20T10:59:40.835</t>
+  </si>
+  <si>
+    <t>v1mi1jle462e5xbw1yt54g5cawc29v0x</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:00:22.506</t>
+  </si>
+  <si>
+    <t>0ld7e9opj55qt4segk8jyv3kkh3h3jqi</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:01:25.825</t>
+  </si>
+  <si>
+    <t>u24p5kzegmn4p1z19s1n6123dezqxt00</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:03:16.615</t>
+  </si>
+  <si>
+    <t>2t2lpl3lknp23369490i6ad93yovp8l6</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:04:35.974</t>
+  </si>
+  <si>
+    <t>ovt4axjgl6aiatdh2197ux0g1wg017x3</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:05:46.182</t>
+  </si>
+  <si>
+    <t>xfh46qns0tv0kq95wt2ofvy9wln3es9t</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:06:00.988</t>
+  </si>
+  <si>
+    <t>6jewq0vus35y7m06y7h7u7gw0hb16d93</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:06:13.906</t>
+  </si>
+  <si>
+    <t>zmb1l4e37b912jm6vizt27tco6rio0pd</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:06:30.663</t>
+  </si>
+  <si>
+    <t>7b3a795v5379u966h95za00bnw3n56z0</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:08:14.675</t>
+  </si>
+  <si>
+    <t>4594g91fpf0g0s92h7v6s968b9i6f0hv</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:09:22.148</t>
+  </si>
+  <si>
+    <t>bafxrtkps01y3fv4c0sholrt0d0qmul3</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:11:20.510</t>
+  </si>
+  <si>
+    <t>ct606rsw4sx7v3y0kh625f44kwafh3z8</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:13:14.945</t>
+  </si>
+  <si>
+    <t>r44o11snj54wisew63xzma3y45038fa1</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:15:09.301</t>
+  </si>
+  <si>
+    <t>oaeexuh81mw3zwcw4r7t3i6ay227103v</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:18:40.833</t>
+  </si>
+  <si>
+    <t>em9x66fdv2yii5ar9m15t6p4c408ixld</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:21:17.661</t>
+  </si>
+  <si>
+    <t>6h736lrgv14f254mu6714b1qwpg55h21</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:22:22.457</t>
+  </si>
+  <si>
+    <t>5y4ioxm231yp63l827t89lraojn70m21</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:22:36.449</t>
+  </si>
+  <si>
+    <t>hlp93m2em97bw5869c0yp6d1l0ogty69</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:22:50.209</t>
+  </si>
+  <si>
+    <t>kk3f21r53r61dp47j6x93m2ts3vch50p</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:23:03.749</t>
+  </si>
+  <si>
+    <t>4d0prhp7k90hh2uu84x23zj26ahi0up5</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:27:51.759</t>
+  </si>
+  <si>
+    <t>r6iyz8ko9erb4j3h1vg76bi16av1qhe6</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:38:10.877</t>
+  </si>
+  <si>
+    <t>d31qg20x32q5nsk7djvf7c22979efae2</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:38:25.880</t>
+  </si>
+  <si>
+    <t>1b5ubl4zevfo055977v8qsf8419n69x7</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:39:21.586</t>
+  </si>
+  <si>
+    <t>2ywm13z05rbwds8f12769lg58ai3c666</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:40:22.777</t>
+  </si>
+  <si>
+    <t>q05m301k5su1fvezd184tio065qhrxzt</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:42:17.162</t>
+  </si>
+  <si>
+    <t>8n138hb3k501527ubl1l5wcmqweb539d</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:44:51.382</t>
+  </si>
+  <si>
+    <t>11m7p3jo7hd76sj51rd1iqlev8z97zc5</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:45:21.374</t>
+  </si>
+  <si>
+    <t>6thykq3693ho1lusoa3yobf60m22705g</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:48:27.600</t>
+  </si>
+  <si>
+    <t>mw6thgwci23bm99zqz98apeo75q16h7h</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:49:20.845</t>
+  </si>
+  <si>
+    <t>a2m267owvrsbb3ifwtprxe0fltj64dtd</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:50:21.915</t>
+  </si>
+  <si>
+    <t>456vgwsa686rbjt95rn3vcwrb2471vde</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:51:21.860</t>
+  </si>
+  <si>
+    <t>0s3klh048800f86t0y82ppp94605w4v1</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:53:14.140</t>
+  </si>
+  <si>
+    <t>32585341tfj6w6ndw7ujp5zw93l6byke</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:53:43.709</t>
+  </si>
+  <si>
+    <t>g38zi04mct9h36p4t2yee15iv0y61vpd</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:54:19.589</t>
+  </si>
+  <si>
+    <t>d9r1vvxnf4571lv329gn2y0u6u3ddf8k</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:55:24.965</t>
+  </si>
+  <si>
+    <t>d61ypqfy5l712t8v985gkvu05ba61z3j</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:55:40.972</t>
+  </si>
+  <si>
+    <t>2q1p2z5sm1kw12l28i0og4xh1hk8t059</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:57:13.254</t>
+  </si>
+  <si>
+    <t>mrhqoyo7hc2vd6t4dkl1v2g0f3a2uc5o</t>
+  </si>
+  <si>
+    <t>2018-11-20T11:59:13.731</t>
+  </si>
+  <si>
+    <t>hvzt7t96g7n71fq1gk501gzbl532n75i</t>
+  </si>
+  <si>
+    <t>2018-11-20T12:03:05.698</t>
+  </si>
+  <si>
+    <t>l4l19714qpes2i244h3ds7s3v000bkh5</t>
+  </si>
+  <si>
+    <t>2018-11-20T12:05:16.777</t>
+  </si>
+  <si>
+    <t>s1skxwnzmvh4js7mc5yjmp1r2rrs0rrl</t>
+  </si>
+  <si>
+    <t>2018-11-20T12:09:52.900</t>
+  </si>
+  <si>
+    <t>v0pa2x9scogq9k0bv85s6dvp96lf98k1</t>
+  </si>
+  <si>
+    <t>2018-11-20T12:11:20.029</t>
+  </si>
+  <si>
+    <t>96fp291yb5yzw1q7prj3y6550vl2z3se</t>
+  </si>
+  <si>
+    <t>2018-11-20T12:14:58.261</t>
+  </si>
+  <si>
+    <t>67jh72afs07x4y24b23mm9kh0ub8whct</t>
+  </si>
+  <si>
+    <t>2018-11-20T12:16:20.112</t>
+  </si>
+  <si>
+    <t>6v10f59jps720aiv5fgdvl630p9c1k57</t>
+  </si>
+  <si>
+    <t>2018-11-20T12:17:33.230</t>
+  </si>
+  <si>
+    <t>j237627phev51ujh1sx0qj1mab5eu92p</t>
+  </si>
+  <si>
+    <t>2018-11-20T12:17:51.541</t>
+  </si>
+  <si>
+    <t>q4jbp94rskipyzewkm157wgaav8r6x5c</t>
+  </si>
+  <si>
+    <t>2018-11-20T12:18:05.378</t>
+  </si>
+  <si>
+    <t>28vn25208pgeu8f9d86f8iba8d14ftq9</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:17:36.793</t>
+  </si>
+  <si>
+    <t>vm180gk8gykr4l4zkf1g0mmwpwll99so</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:19:16.017</t>
+  </si>
+  <si>
+    <t>o913aq0wt4kastmwo60cec5zas5lpxh0</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:21:07.779</t>
+  </si>
+  <si>
+    <t>41c4tad8u53gbrk38vmfzqui3j127g29</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:23:06.045</t>
+  </si>
+  <si>
+    <t>2dh438qie3v991t771j1vnoxyw9d265y</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:25:17.315</t>
+  </si>
+  <si>
+    <t>j0l69ybvptid83rirc9c88i6l32x7zdr</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:26:40.380</t>
+  </si>
+  <si>
+    <t>5sm59nc5olvrdh2n42nj4cp45fs80q6p</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:27:10.728</t>
+  </si>
+  <si>
+    <t>xio0ef90560o6lm0i2u02villi77if28</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:28:08.592</t>
+  </si>
+  <si>
+    <t>plgya1xh36kwovowmq9f61v749tpjkuv</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:29:47.237</t>
+  </si>
+  <si>
+    <t>hrnkiy8grb0pundrq18bzsi793j26512</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:32:07.591</t>
+  </si>
+  <si>
+    <t>jf35g7nz6x12466af0kddl1bp1m0q7el</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:34:26.371</t>
+  </si>
+  <si>
+    <t>4xh68xv53a99j23ms3gzd0wn42g742b6</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:36:46.318</t>
+  </si>
+  <si>
+    <t>53iitzlnmw82sa0ira06tl7u1m92mhv6</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:38:12.899</t>
+  </si>
+  <si>
+    <t>g8t908695oitt02drn93mw4at0rybqvo</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:39:28.307</t>
+  </si>
+  <si>
+    <t>6bcm3wp8kzvh5uri06g9d8rtytyik3pd</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:41:17.263</t>
+  </si>
+  <si>
+    <t>416t1ftk5i66054eejn2ki6ovpq0246n</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:43:36.518</t>
+  </si>
+  <si>
+    <t>5senxr3med8yn8r6uzql73ay1895l95d</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:43:54.779</t>
+  </si>
+  <si>
+    <t>m4n9tifyfu5gynmn4q48x0ea5g02ir0l</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:44:10.378</t>
+  </si>
+  <si>
+    <t>e85y36i07akucza1iw63dz1a1560rr0j</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:44:24.968</t>
+  </si>
+  <si>
+    <t>9255g673fvlb0xvbdw1pbh9bkb49q1a0</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:51:49.495</t>
+  </si>
+  <si>
+    <t>l3h6j63x44w24ji7qdrl7h69jb85g2lc</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:52:21.601</t>
+  </si>
+  <si>
+    <t>rz9x5dm0rdbx42j6878es6j27a0p2m6l</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:54:16.417</t>
+  </si>
+  <si>
+    <t>r5id8j5l436yyawuronmawfjkb1pvx39</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:54:46.687</t>
+  </si>
+  <si>
+    <t>6gmk51k08o73i524vker8rhy4cjqdt2w</t>
+  </si>
+  <si>
+    <t>2018-11-20T13:59:57.215</t>
+  </si>
+  <si>
+    <t>lsz286w511u4cnmgicf63m36n988koz3</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:00:49.590</t>
+  </si>
+  <si>
+    <t>9l6lw9eij7ml0f1c99yj6k5dnf28694v</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:02:12.791</t>
+  </si>
+  <si>
+    <t>3467duci0ebe1twqv4nqo47bzom2zw08</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:02:43.159</t>
+  </si>
+  <si>
+    <t>hc906mx664c14a986qhj22n539j3yrg6</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:14:27.663</t>
+  </si>
+  <si>
+    <t>92j14c8xthl93w7i9d0321ubo6ee952r</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:16:12.721</t>
+  </si>
+  <si>
+    <t>4f754m18ezlc006yy5o36r1i5bcdws38</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:16:44.890</t>
+  </si>
+  <si>
+    <t>bn0dy84yj8be76ssiucxh575fsmdvjc2</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:17:25.204</t>
+  </si>
+  <si>
+    <t>99wfy7443gn7831tfzz15ek936cb8onx</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:22:55.902</t>
+  </si>
+  <si>
+    <t>r8vpwrf7eqxapouc4243sn4ac7y3wt38</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:23:25.352</t>
+  </si>
+  <si>
+    <t>el05xhe4323pp49qrj1m0tuj7l6j4v3d</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:24:20.884</t>
+  </si>
+  <si>
+    <t>6bbu9unvapq4k1tuysrqhms3r274j40g</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:25:21.868</t>
+  </si>
+  <si>
+    <t>2p562137a5037i9en5q96voum1ng01hb</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:26:45.023</t>
+  </si>
+  <si>
+    <t>w0buit60q79it0h92x96554680y9680h</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:27:20.057</t>
+  </si>
+  <si>
+    <t>41zkad2ep7nmo3fr9mhr9x55j2bcd6q6</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:28:20.572</t>
+  </si>
+  <si>
+    <t>57j1n0kd8w2085c5n0k2cmvc8816hb0e</t>
+  </si>
+  <si>
+    <t>2018-11-20T14:29:21.311</t>
+  </si>
+  <si>
+    <t>6ao73baa3v2r5z4izd6431wkgov5ufo7</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:10:08.068</t>
+  </si>
+  <si>
+    <t>ozp2f57l91v6h3v5q92n71mbydm2ed37</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:11:20.937</t>
+  </si>
+  <si>
+    <t>np3hdboa9nehbq6tvsgj68t4h73mx0sf</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:11:51.615</t>
+  </si>
+  <si>
+    <t>btsgyzhbc1bbtghtrz3g21ota46lljrt</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:12:22.386</t>
+  </si>
+  <si>
+    <t>f4o393zjqk65h2p2kqf0n4ua2341s7go</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:18:42.344</t>
+  </si>
+  <si>
+    <t>w6npiei9g8h8cq1w70i8688o6p2vzh63</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:19:22.796</t>
+  </si>
+  <si>
+    <t>50nem7243ht2uxdw536fk4ymdolm5wvj</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:20:47.633</t>
+  </si>
+  <si>
+    <t>h04b07588rz4o26u8d43h4jwqbc00h4s</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:21:22.457</t>
+  </si>
+  <si>
+    <t>o2jv2n1c1gtjuackj4h9q2hl0diqvy26</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:22:22.394</t>
+  </si>
+  <si>
+    <t>49y23668n63tp471y51er1upunq9ryl6</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:23:22.250</t>
+  </si>
+  <si>
+    <t>hw2b14h9803oi8g466ii4acm18h8dczr</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:24:35.865</t>
+  </si>
+  <si>
+    <t>oi83xoa42m13830m5xb3okevj979k6v4</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:25:21.357</t>
+  </si>
+  <si>
+    <t>01t67t71e07170utn7e4s97dt77e6m9w</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:26:24.060</t>
+  </si>
+  <si>
+    <t>64svujbp0x13cjxagv77es5to7513v8a</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:27:19.044</t>
+  </si>
+  <si>
+    <t>h7y3x7u91b0146v7hgiuvrip4n62731w</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:28:46.670</t>
+  </si>
+  <si>
+    <t>8l434rvcoztv61ffbo8xkfln4z7cx4sr</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:29:23.711</t>
+  </si>
+  <si>
+    <t>10167f4s3euqj4br51so939gxp2pyi05</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:30:20.389</t>
+  </si>
+  <si>
+    <t>q1k9cr85pdgaa5z13sddf8zwhaq6u5sn</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:31:20.488</t>
+  </si>
+  <si>
+    <t>4v7f3a2t96nki9g2jfutmb4kf2yji460</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:32:41.152</t>
+  </si>
+  <si>
+    <t>sbxim93t79b61om5qvx2ha5050i17cl5</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:33:21.521</t>
+  </si>
+  <si>
+    <t>thcd78934dduha913vi37oq3ya2t9fp9</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:34:22.168</t>
+  </si>
+  <si>
+    <t>23kjjel6jk0eezy5cr5ni32e7l5fd9v4</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:35:22.775</t>
+  </si>
+  <si>
+    <t>0fmc91k6p8mdullf3o585lghk11o5t42</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:43:44.963</t>
+  </si>
+  <si>
+    <t>80hm2de5mbfa1b5ij0t4f66628b4z348</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:44:50.179</t>
+  </si>
+  <si>
+    <t>a8f227cm57990kgu5069m1k107htliix</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:45:04.705</t>
+  </si>
+  <si>
+    <t>djkyyzidiei02h1b6bo2g56160mzm2ab</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:47:08.389</t>
+  </si>
+  <si>
+    <t>0y71zug57znr589bp0b01u5vl99428tm</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:59:14.309</t>
+  </si>
+  <si>
+    <t>jp0r7r19yfsz79y2x3epjo269xdnz020</t>
+  </si>
+  <si>
+    <t>2018-11-20T15:59:38.631</t>
+  </si>
+  <si>
+    <t>0jirou469ulwf2ibrki25xuxfmv11y1y</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:00:55.146</t>
+  </si>
+  <si>
+    <t>5yyf62ca15lz58q0fk81nn8n0077rv1x</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:02:33.450</t>
+  </si>
+  <si>
+    <t>9o131r1rt0w7902k2frlyc51808lb06v</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:11:54.629</t>
+  </si>
+  <si>
+    <t>4vdsgs7641tw4ilwk19xi9v4pq3s64d1</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:12:24.457</t>
+  </si>
+  <si>
+    <t>77x2601j5dtxt2k9f4knv7m779ac6fto</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:13:19.336</t>
+  </si>
+  <si>
+    <t>elc80pcpl114nz37091gs8vy2wtyc5j9</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:14:19.626</t>
+  </si>
+  <si>
+    <t>901pujhmmvrw6krbyqgx9iyxf69yg56t</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:16:14.818</t>
+  </si>
+  <si>
+    <t>75b63bn99u41tu98h8y24t1nm5l5l568</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:17:19.990</t>
+  </si>
+  <si>
+    <t>b8z48yf1696v15z7x18i3oohw2wnm241</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:18:20.111</t>
+  </si>
+  <si>
+    <t>23q96i69g62z0iv23wtpxgvzhto85ov0</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:19:20.278</t>
+  </si>
+  <si>
+    <t>xp10k746869qo7840qczseidgfcs6098</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:20:50.837</t>
+  </si>
+  <si>
+    <t>58i3qfe2eyefa5n4lr6vcsyg9z464ii1</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:21:21.449</t>
+  </si>
+  <si>
+    <t>iz24t60ld94guoe06875hoytf9bd96yv</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:23:15.613</t>
+  </si>
+  <si>
+    <t>6ynqa0up5l3pq99x4fs9ix80ycvl3m5r</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:23:41.959</t>
+  </si>
+  <si>
+    <t>j121hx9smdg5bwd198z0w8m25921l08x</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:41:05.009</t>
+  </si>
+  <si>
+    <t>nj70xh91det0y238vu2z87t140y67554</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:42:20.935</t>
+  </si>
+  <si>
+    <t>qqb3yw42il68s9518h7641rwt9568i3u</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:43:20.550</t>
+  </si>
+  <si>
+    <t>8402skjdcp8lw3bcj29910jh159ay4y6</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:44:21.208</t>
+  </si>
+  <si>
+    <t>o769xbuc1519tz31v5e635uv4w6573o4</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:46:54.704</t>
+  </si>
+  <si>
+    <t>n525vb5auzdnxoq7dq33rnrmu39o3w4j</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:47:45.735</t>
+  </si>
+  <si>
+    <t>965imn5d4qf1s333j305497jev3pacpr</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:49:14.758</t>
+  </si>
+  <si>
+    <t>j573xe8mbn5f3qhhmufkrrb95s1q5vi3</t>
+  </si>
+  <si>
+    <t>2018-11-20T16:49:44.893</t>
+  </si>
+  <si>
+    <t>hkk31ubw7u5y3nl7qq6o3q9i55b5frho</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:00:45.407</t>
+  </si>
+  <si>
+    <t>0t958sw707408408o4609u6s1ow3z2yo</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:01:30.985</t>
+  </si>
+  <si>
+    <t>9eeoasn9nc1098911x9zq6iu4q3e7338</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:03:39.673</t>
+  </si>
+  <si>
+    <t>6924vsdg96mepyh28915apxi3re83zxx</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:05:03.815</t>
+  </si>
+  <si>
+    <t>21c46gifo1lpstvj0j5eql4100uwn4r2</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:12:19.772</t>
+  </si>
+  <si>
+    <t>h6c9hyla6t07797527ljq7d6io369oj0</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:13:20.003</t>
+  </si>
+  <si>
+    <t>99ohyh8dgozp1340r3g87u03061l4495</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:14:19.936</t>
+  </si>
+  <si>
+    <t>3w4k66ydcum9t4q5l129a76d2umce318</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:15:20.117</t>
+  </si>
+  <si>
+    <t>gxp58t266sals286h248jqbrh5eo7c8w</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:16:28.855</t>
+  </si>
+  <si>
+    <t>x4g6pkxel8w88e419h9r56bgp3lxkn70</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:17:19.189</t>
+  </si>
+  <si>
+    <t>vb03a8by0su35jaai4n08io50y604488</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:18:19.287</t>
+  </si>
+  <si>
+    <t>kksasebk6900sj92tc63ktrse443ipay</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:19:19.651</t>
+  </si>
+  <si>
+    <t>iym8cm3tx63cuqn389gl52lik4xx0y8s</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:22:00.485</t>
+  </si>
+  <si>
+    <t>w06z7ypj1h87y1o0b6k01an8wo1ta1fw</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:22:29.533</t>
+  </si>
+  <si>
+    <t>nzb565jhf7nvjh3h87fk00048872d1dw</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:24:12.925</t>
+  </si>
+  <si>
+    <t>f7p9de3k493k9iq0w5gxk7423i1a7frx</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:24:42.185</t>
+  </si>
+  <si>
+    <t>3dwzla3f9g8i5268csnlhi31117u4gvq</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:32:42.037</t>
+  </si>
+  <si>
+    <t>zo7li2ektptdis1lubs7o2t6nn9q4u76</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:33:26.049</t>
+  </si>
+  <si>
+    <t>1z3eh689myp548vpu0j53xn6b055o1i1</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:34:23.841</t>
+  </si>
+  <si>
+    <t>6w70wrq808k22hn4zqhj94r9aai3239h</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:35:22.421</t>
+  </si>
+  <si>
+    <t>v2w72hds592e8m1q2mwo02yd8v57s2u0</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:36:36.828</t>
+  </si>
+  <si>
+    <t>ptacmwoglx1z0ipv1m752xopvox0g3q1</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:37:24.985</t>
+  </si>
+  <si>
+    <t>gkvgi4v2okpyn4q0kfkkbt23k6c26lzc</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:38:23.281</t>
+  </si>
+  <si>
+    <t>euyzt03u7of8pssglyi97ap4kq655gb8</t>
+  </si>
+  <si>
+    <t>2018-11-20T17:39:21.758</t>
+  </si>
+  <si>
+    <t>1erpd940em9jy11hqicm09e9h2321840</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:40:09.563</t>
+  </si>
+  <si>
+    <t>q1ng71d5o99i493m86047e1ok7v97m70</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:41:24.513</t>
+  </si>
+  <si>
+    <t>8sq00optd4bbsqo7mjbmfkc2ce5p9c8u</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:42:23.897</t>
+  </si>
+  <si>
+    <t>addv6aeg5l7h2r443q20wh4uqrp6hry7</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:43:23.414</t>
+  </si>
+  <si>
+    <t>0t6kr0w9j7byggb46612i19vyal630l4</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:44:22.428</t>
+  </si>
+  <si>
+    <t>130mpbdrvhy1z9sq2u9vvc7b920fadf2</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:45:21.772</t>
+  </si>
+  <si>
+    <t>f1137v7cq3xs2u4k4xgkdr9h2mqxmm5y</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:46:26.519</t>
+  </si>
+  <si>
+    <t>w83g7oau45vjh3tm8b3v2i914883t7j0</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:47:26.039</t>
+  </si>
+  <si>
+    <t>55td96x350939f04z6cve96x25t72672</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:48:43.556</t>
+  </si>
+  <si>
+    <t>0sei513x0ze1diw8vkzx60gxrj8o988v</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:49:25.780</t>
+  </si>
+  <si>
+    <t>eld8br5w7dw794n5vi5544hzh6k877je</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:50:25.430</t>
+  </si>
+  <si>
+    <t>6xc40p4k1zukb51i9og0zac3b6idam32</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:51:25.361</t>
+  </si>
+  <si>
+    <t>epi6ynq1kn0qj8zyj27nqnaq346c0c53</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:52:24.792</t>
+  </si>
+  <si>
+    <t>o7pfrg64537cxtk3autr266d72330mdx</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:53:24.946</t>
+  </si>
+  <si>
+    <t>g9t672ahzrjj53kp3cu7g71nl7agh46c</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:54:24.666</t>
+  </si>
+  <si>
+    <t>1cv14iaiezw3j7jfrpxxoh47912187g4</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:55:24.592</t>
+  </si>
+  <si>
+    <t>9u2s40n9c1nh9ummoe5fx55lhn735cs8</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:56:58.182</t>
+  </si>
+  <si>
+    <t>1dmpyloha19mpz25270w6fnc9gz6607p</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:57:26.694</t>
+  </si>
+  <si>
+    <t>717ar4ke63qs6w6k6yz4dkrcvnfiy9hx</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:58:26.390</t>
+  </si>
+  <si>
+    <t>v025edpulf1vy7d45r80kqa820013k9t</t>
+  </si>
+  <si>
+    <t>2018-11-20T18:59:29.229</t>
+  </si>
+  <si>
+    <t>0169m3t13u9e0jq3tm9psm0zz8e3ctm2</t>
+  </si>
+  <si>
+    <t>2018-11-20T19:00:23.151</t>
+  </si>
+  <si>
+    <t>su2w4tehm88jz13hw52qlof05pev8kt6</t>
+  </si>
+  <si>
+    <t>2018-11-20T19:01:27.461</t>
+  </si>
+  <si>
+    <t>ezje1m4leru4vk2mu421t3n7zj658frw</t>
+  </si>
+  <si>
+    <t>2018-11-20T19:02:21.747</t>
+  </si>
+  <si>
+    <t>8jusg50hvdh8c96lr3qr28v4spw6bmt1</t>
+  </si>
+  <si>
+    <t>2018-11-20T19:03:26.045</t>
+  </si>
+  <si>
+    <t>i3232l3vo06082po336pee0fcgrleg0x</t>
+  </si>
+  <si>
+    <t>2018-11-20T19:04:25.334</t>
+  </si>
+  <si>
+    <t>0lm7g4p683g08959t3fggwbv7f0e96uh</t>
+  </si>
+  <si>
+    <t>2018-11-20T19:05:24.637</t>
+  </si>
+  <si>
+    <t>77qzw9d31tc8bb6kz2hhuvn8k7q7vqmh</t>
+  </si>
+  <si>
+    <t>2018-11-20T19:06:23.901</t>
+  </si>
+  <si>
+    <t>8he4tx080mzy0m5jov28275k89mq5bfx</t>
+  </si>
+  <si>
+    <t>2018-11-20T19:07:23.822</t>
+  </si>
+  <si>
+    <t>9r8g2mn4b348ddo14i252695m1zphm4o</t>
+  </si>
+  <si>
+    <t>2018-11-20T19:08:22.977</t>
+  </si>
+  <si>
+    <t>9k9v41tt2ftt96y3j4c7pph49qx16k4s</t>
+  </si>
+  <si>
+    <t>2018-11-20T19:09:27.309</t>
+  </si>
+  <si>
+    <t>8zavnch5xy8jjsr5m58batnk9m0b80ao</t>
+  </si>
+  <si>
+    <t>2018-11-20T19:10:23.120</t>
+  </si>
+  <si>
+    <t>p1n7o0wmi840tevv86ty7331hadp1qis</t>
+  </si>
+  <si>
+    <t>2018-11-20T19:11:22.507</t>
+  </si>
+  <si>
+    <t>pn594f85jt7a0t7qgq2t14j018f3d3gs</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:09:18.184</t>
+  </si>
+  <si>
+    <t>udvgc9e2618io0teka5e928i9n9zbn0y</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:10:27.243</t>
+  </si>
+  <si>
+    <t>4i6ur6dg9tylmqpt04oe4mzqmj07nkgt</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:11:28.222</t>
+  </si>
+  <si>
+    <t>uoe57rc4t6b469x6m702dp73fn9m1vm2</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:13:36.478</t>
+  </si>
+  <si>
+    <t>vi5h542z869nd90ci6gnqq39m26i174d</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:16:20.770</t>
+  </si>
+  <si>
+    <t>4uvpb3s4zx4qml7t2o5af3d2cj9pmng1</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:18:49.603</t>
+  </si>
+  <si>
+    <t>tu62pg175aks6n7zy90ezqy8boh1tu7t</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:19:31.440</t>
+  </si>
+  <si>
+    <t>2vm97sdazjjyme7s37yxra474j8kila0</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:20:31.745</t>
+  </si>
+  <si>
+    <t>ndd7od0585v91f6m7k89q2fv6a43319i</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:21:34.361</t>
+  </si>
+  <si>
+    <t>tgh6856hb8d40t492ya9bk5k9t2sy4g3</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:22:36.126</t>
+  </si>
+  <si>
+    <t>evdlfg4nwyqc0ll2d3uh1f7u6p2d2kk5</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:23:31.393</t>
+  </si>
+  <si>
+    <t>zabt5840u18w6ss25xe536ki36h656t3</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:24:28.146</t>
+  </si>
+  <si>
+    <t>j76f548k0g9go73tf2ccco96b45255ii</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:25:28.838</t>
+  </si>
+  <si>
+    <t>945x84v86zfnmnptj39ki5auv8sc9v7a</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:26:30.882</t>
+  </si>
+  <si>
+    <t>8eppn1qmmg9jh4wzeumytn6kr5u1sed5</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:37:02.439</t>
+  </si>
+  <si>
+    <t>j3d34rex4ija4imbtf04cnvlxsyfid58</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:37:29.750</t>
+  </si>
+  <si>
+    <t>pfkbu260z384b0v37jj3h486le53s781</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:37:56.947</t>
+  </si>
+  <si>
+    <t>791h953f3jyk0x3p52098yu5g9qckur2</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:38:24.191</t>
+  </si>
+  <si>
+    <t>vpmck64y0ni5krybxl9q13080su9w2i2</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:38:51.608</t>
+  </si>
+  <si>
+    <t>o3lk83dsch30g7uzd16r7g7uez05eo3v</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:39:19.162</t>
+  </si>
+  <si>
+    <t>0brgkcxiqf13dbqu1126tre7ych5mm9t</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:39:48.143</t>
+  </si>
+  <si>
+    <t>fx1f8f795bh9pb922p396m63e7anjgb7</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:40:16.357</t>
+  </si>
+  <si>
+    <t>6oo9r2604089428r14ma5dnyn3szx49n</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:40:45.211</t>
+  </si>
+  <si>
+    <t>pt8ef694ip3pyy5qpo5jcd9i93dfv4t1</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:41:12.910</t>
+  </si>
+  <si>
+    <t>b460qdqc8lz1s20bpwl06x2ge44a1f15</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:41:41.633</t>
+  </si>
+  <si>
+    <t>0x78fag2m911wpi1091gu9h25j43ier5</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:42:12.050</t>
+  </si>
+  <si>
+    <t>cdh6sd473h5vp9cwtp4tp2090lsuam5r</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:42:47.113</t>
+  </si>
+  <si>
+    <t>1rd52l360fwb804mxtil57u29zj6fkzv</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:43:17.763</t>
+  </si>
+  <si>
+    <t>10elgu46dda0lljpziji25f7rx8s3647</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:43:53.804</t>
+  </si>
+  <si>
+    <t>7k761vm2ns6u715rtsvdg9s4x0oxs0tj</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:45:07.548</t>
+  </si>
+  <si>
+    <t>1m240px720kjtzhf0eqvr3p95h20n411</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:48:34.041</t>
+  </si>
+  <si>
+    <t>o580m4m2b69shp1hgjq0fjqxgy778a8e</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:53:31.931</t>
+  </si>
+  <si>
+    <t>2e2fgp4v2629f3rhx0ezd1r9pah3i69u</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:55:41.524</t>
+  </si>
+  <si>
+    <t>zqvm675p6jmyh4669mwmgaob0igde72b</t>
+  </si>
+  <si>
+    <t>2018-11-20T22:58:18.954</t>
+  </si>
+  <si>
+    <t>b15g03c9ere5a432yy2plsm7bp8tb29z</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:00:46.724</t>
+  </si>
+  <si>
+    <t>8o427dyw3d66e9gw19t8908l1649t730</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:01:32.494</t>
+  </si>
+  <si>
+    <t>9f2g311gi0d7mr2a97ut6822fm73h0eo</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:02:28.218</t>
+  </si>
+  <si>
+    <t>kn3d594l561o91p11e363z80074ixrb9</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:03:27.155</t>
+  </si>
+  <si>
+    <t>5melpwq6s1f67h3dezr5z795ylz3u7t8</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:04:25.572</t>
+  </si>
+  <si>
+    <t>k8t37159b9gk61mt1t4e68tpl6666s2t</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:05:26.264</t>
+  </si>
+  <si>
+    <t>998z7cega334ejrez5k96qfxku4geazx</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:06:25.604</t>
+  </si>
+  <si>
+    <t>594z91w5d884npjkyxhqmt7970y4v18f</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:07:25.953</t>
+  </si>
+  <si>
+    <t>mqhtbdgf0pjc5z2ud557ova1g6qef990</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:08:26.025</t>
+  </si>
+  <si>
+    <t>w64x7i1o43rvedxk982pdzf8ssul4f2o</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:09:25.384</t>
+  </si>
+  <si>
+    <t>p0g98qfrf26hhofe5lcw272s760fhwv5</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:10:25.946</t>
+  </si>
+  <si>
+    <t>qi67op92fxx5mf08l2vime1dvox2409n</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:11:25.877</t>
+  </si>
+  <si>
+    <t>zz9cxl2vsdq0tz0r3i8rh86i14kg7vp3</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:12:26.750</t>
+  </si>
+  <si>
+    <t>8o2s4z3248jpns2zn2htab8423y28byv</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:13:29.305</t>
+  </si>
+  <si>
+    <t>594mqc09ih2mmg6hl9i2wdp5y2bmqe77</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:14:28.597</t>
+  </si>
+  <si>
+    <t>j6gt99n8mxc5lr17rm23nrdj6ebhruz8</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:15:28.555</t>
+  </si>
+  <si>
+    <t>g563on0oksq4479dnc28v5vo80bobcz5</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:16:49.096</t>
+  </si>
+  <si>
+    <t>hq906726wpn7m1bu26ox9o1to2svv9m2</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:17:28.588</t>
+  </si>
+  <si>
+    <t>nnj339400urtl0rmnz97rb4gpolub3ky</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:18:23.636</t>
+  </si>
+  <si>
+    <t>ve0t4z081z6zksgqe7g3j5nzyc7a55cd</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:19:22.449</t>
+  </si>
+  <si>
+    <t>y7pw45rk962vi4y661q15smx09ypjkzp</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:20:25.732</t>
+  </si>
+  <si>
+    <t>66ih81nyi9pbz9ffp94ghgpow9dur7eu</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:21:24.621</t>
+  </si>
+  <si>
+    <t>51qd8w6w7fu73e252215mi8llp5fjr1h</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:22:23.296</t>
+  </si>
+  <si>
+    <t>nn6ehwwkmg8h96tk1b8wcbmcjeazb673</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:23:28.797</t>
+  </si>
+  <si>
+    <t>7pa3esl09t8ax449639bny1f6k4w2prl</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:24:23.543</t>
+  </si>
+  <si>
+    <t>9sc61pe6ju777oc9163mopxvk82hl8l0</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:26:01.978</t>
+  </si>
+  <si>
+    <t>4d5h3ioa359d3im0202ovql1fwqlh028</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:27:26.472</t>
+  </si>
+  <si>
+    <t>7vi69tp26sxl4ywxctf377uvn1fyd5qg</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:28:26.550</t>
+  </si>
+  <si>
+    <t>k7z3qu6e0ioub401s7sb38a7386hkr2j</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:29:26.560</t>
+  </si>
+  <si>
+    <t>ig7i6vg27nu2ak07d2ur5fat5wtqq89f</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:30:25.411</t>
+  </si>
+  <si>
+    <t>pvm82yu4vp6s25a2rxe2ls00a28c4u2t</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:31:24.312</t>
+  </si>
+  <si>
+    <t>0uh34zgdv5698cr4kn32gd66l9zx313j</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:32:22.919</t>
+  </si>
+  <si>
+    <t>lsfv394s01wa746m8sq3u0slif5uvjgs</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:43:21.382</t>
+  </si>
+  <si>
+    <t>t24e78s8fe0e88y26gmub8bzsm0jztb4</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:43:39.941</t>
+  </si>
+  <si>
+    <t>z2alx870gd3se9556f97q68zxwqvzvc6</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:45:23.535</t>
+  </si>
+  <si>
+    <t>s142096u92v33659nds99923i8m6dqa0</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:45:52.501</t>
+  </si>
+  <si>
+    <t>pk42p7zx5lo75bxme957ogfd9v00f0bw</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:47:34.650</t>
+  </si>
+  <si>
+    <t>61nh6319g4bilyijkjae09a90sqew1gb</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:48:29.527</t>
+  </si>
+  <si>
+    <t>c8f9nanevn44g7ts6pcw013cels4e3k0</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:53:08.919</t>
+  </si>
+  <si>
+    <t>x8486404xt5o2f1sq3m826508jlb164w</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:54:18.189</t>
+  </si>
+  <si>
+    <t>pbxdxmnx0eeaz8v6owgko700wzft6kon</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:56:57.862</t>
+  </si>
+  <si>
+    <t>7li841x7cp4wc3kct3r0uha3329c073m</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:58:13.924</t>
+  </si>
+  <si>
+    <t>e9jiqe5upi9p7t3u60w08y852pb8l353</t>
+  </si>
+  <si>
+    <t>2018-11-20T23:59:15.966</t>
+  </si>
+  <si>
+    <t>2krgfa5w2373tbvxlvla21s83ocqufoi</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:00:16.034</t>
+  </si>
+  <si>
+    <t>xxts05v6q32j0ethyuq3lbqx6m7g206j</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:01:16.772</t>
+  </si>
+  <si>
+    <t>z2gkk5969nno6ym8b01689a7x29crv96</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:01:25.282</t>
+  </si>
+  <si>
+    <t>889y20zefmj8a7n4enulzj753m17i8s4</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:01:31.722</t>
+  </si>
+  <si>
+    <t>20b39f6xkq15ldznyv1g4oe0p124qh5w</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:01:40.087</t>
+  </si>
+  <si>
+    <t>vs617t803189bn3ole4shb0ea1t43mh3</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:01:46.160</t>
+  </si>
+  <si>
+    <t>buhx93m53m0448asv2dfk22bz2t2hrb2</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:02:13.630</t>
+  </si>
+  <si>
+    <t>8auh2bgooi7943112o5246ayrk103166</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:03:14.826</t>
+  </si>
+  <si>
+    <t>gq71kjz3372t64rjn45uskv725ig7y60</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:04:15.648</t>
+  </si>
+  <si>
+    <t>0v3wy07qzz45900ung9k1iuz8dyi8hsc</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:05:14.659</t>
+  </si>
+  <si>
+    <t>emv8cq0sa9x42ml5v0dqu53r427ispqb</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:05:30.283</t>
+  </si>
+  <si>
+    <t>5dzw016757mkek195gji65cs19c1o6b5</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:05:45.556</t>
+  </si>
+  <si>
+    <t>98jb7d6fm0y6xtriatogcjluydr365rg</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:06:00.449</t>
+  </si>
+  <si>
+    <t>v07aizmeb7a7kzq31t4yc6gkz9er6213</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:16:54.522</t>
+  </si>
+  <si>
+    <t>0l4i7yt16z6g9ms026x25x69l682kaey</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:18:15.149</t>
+  </si>
+  <si>
+    <t>be27rdtg0a0j0t4uyqo3v8uhbi078872</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:19:11.522</t>
+  </si>
+  <si>
+    <t>vitd30n5zmpvn8v29arnu6a0y233e9re</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:20:17.034</t>
+  </si>
+  <si>
+    <t>smz28li2yg2ihrs5g64r7u9zz416hr70</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:21:17.582</t>
+  </si>
+  <si>
+    <t>7970060t545645fko11w1ft1ld3gr713</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:22:17.805</t>
+  </si>
+  <si>
+    <t>1phlbaz4tgz9phqgzbpj6a19o0p4i29l</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:23:19.117</t>
+  </si>
+  <si>
+    <t>7t7gmu6s0sdr0mj2475u6s1863c2a10h</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:24:17.784</t>
+  </si>
+  <si>
+    <t>4qmuomv818xf0sw156xy8ny98o694oc6</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:25:20.139</t>
+  </si>
+  <si>
+    <t>dqr94ksg27rp55nz273zch03789e7692</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:26:16.771</t>
+  </si>
+  <si>
+    <t>9hql3156qlnhliph574464oohk2xjp6u</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:27:17.970</t>
+  </si>
+  <si>
+    <t>3cyqks98kp3a319104kqfb9gc8mskehe</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:28:18.781</t>
+  </si>
+  <si>
+    <t>1n7uopd142eeo94uv2m3z13kd4wj98l3</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:29:16.158</t>
+  </si>
+  <si>
+    <t>3jlk56ry4hs516893aqj40s80t7h7p5i</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:30:15.628</t>
+  </si>
+  <si>
+    <t>lm8mgu9jqg10lq2r9p12r6x59428p7ra</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:31:16.265</t>
+  </si>
+  <si>
+    <t>i0z002ceqxt5a2y4w61514ugakq4e39c</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:32:18.098</t>
+  </si>
+  <si>
+    <t>gob1vfyc33odk3z52krf671daj8qz5cz</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:33:19.202</t>
+  </si>
+  <si>
+    <t>n1pz0pmb95zrld4792zz079of06h2uex</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:34:19.829</t>
+  </si>
+  <si>
+    <t>f97m7umh6c57ulb42p85wiyd7cq9mblp</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:35:21.185</t>
+  </si>
+  <si>
+    <t>w78ox3a43039auj5kin82kw91lz032t0</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:35:28.668</t>
+  </si>
+  <si>
+    <t>f2p964wc828f498gc25ef5g2gvhw8n2e</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:35:34.968</t>
+  </si>
+  <si>
+    <t>8g6tml8ldruu39j8ggrh3j2s1d06qag1</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:35:42.738</t>
+  </si>
+  <si>
+    <t>91lug3c17tlm823ai3d8i3q39f479rt6</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:35:48.638</t>
+  </si>
+  <si>
+    <t>bqd5cvx1nq8y93y9r562hulfot6yxfes</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:36:16.251</t>
+  </si>
+  <si>
+    <t>y97pljbkf3yf60016au5je0ko41vwt1v</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:37:16.595</t>
+  </si>
+  <si>
+    <t>1w20fgw5h7s6s40jbblamf58q68na5dw</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:38:14.081</t>
+  </si>
+  <si>
+    <t>eluv5hi6fdqsrjcqmmlc0x4s51qsont3</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:39:13.700</t>
+  </si>
+  <si>
+    <t>fpaxkdusox2249tfaqc3ud17atw78f20</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:40:16.539</t>
+  </si>
+  <si>
+    <t>kmjg29qhry5h4n3m7tf94to1x9o6g774</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:41:16.438</t>
+  </si>
+  <si>
+    <t>sagm6w526757m2xfx55po66m5vew66y3</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:42:13.871</t>
+  </si>
+  <si>
+    <t>chg25dd82vafba60o1427d72em34anyh</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:43:13.560</t>
+  </si>
+  <si>
+    <t>z8zptrluy5v2nn4h2vonlg44wt1l0m2x</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:43:28.314</t>
+  </si>
+  <si>
+    <t>si4rtt9h35mjanz5odcg6f2o4w7p2n5h</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:43:43.620</t>
+  </si>
+  <si>
+    <t>988yrpht0nq5f422821u9gmn7qjcq2ds</t>
+  </si>
+  <si>
+    <t>2018-11-21T00:44:01.116</t>
+  </si>
+  <si>
+    <t>0157529e25u2unyt5460v8ow7937soc2</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:14:28.739</t>
+  </si>
+  <si>
+    <t>swk37n0w5ysng4r7g03m3x6r86rjl061</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:15:14.383</t>
+  </si>
+  <si>
+    <t>64knv52nzu0bq9a93l95p049drzoq46q</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:16:15.186</t>
+  </si>
+  <si>
+    <t>40o78hpq7pcdoyfe4ci0t479wx997of7</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:17:20.364</t>
+  </si>
+  <si>
+    <t>f1cb409u3t7f6m32b0525d3i7rw8g7rk</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:18:20.620</t>
+  </si>
+  <si>
+    <t>vpe1jgl9tzcg6bjxbozl16yg07vj516a</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:19:19.926</t>
+  </si>
+  <si>
+    <t>2la8lni2v3spq35s1u5a7d6aqysxffka</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:20:19.712</t>
+  </si>
+  <si>
+    <t>l4p1u8j5og5cf4791ne1nz2p49t64ihu</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:21:20.117</t>
+  </si>
+  <si>
+    <t>260gp7k70c4z0d0eq5oq4r6e38ykx1mv</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:22:19.108</t>
+  </si>
+  <si>
+    <t>76502ce3wmk7tscft07ogvdsyb6cf51u</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:23:19.552</t>
+  </si>
+  <si>
+    <t>2ik8t2o7je2qo33r94w6nepx12c0i3lc</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:24:16.563</t>
+  </si>
+  <si>
+    <t>m20p24pf33131oft2y981fuk29340bp0</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:25:16.771</t>
+  </si>
+  <si>
+    <t>3n374a8624h57mqxu7n83554ys5mqa4e</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:26:21.088</t>
+  </si>
+  <si>
+    <t>g981gfeqixdn4iq85oc899qs0f7vef75</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:27:21.468</t>
+  </si>
+  <si>
+    <t>phh055kb5sje80us38arq27067rpvu6x</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:28:20.644</t>
+  </si>
+  <si>
+    <t>4111q3mnl11iy0fs6b984aez9nrqmdw7</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:29:20.868</t>
+  </si>
+  <si>
+    <t>xsedyvdrb4ue3cw04w8v5k4kugkd2es0</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:30:21.799</t>
+  </si>
+  <si>
+    <t>cylf53j81hj7w2juk8dg64664cjt9o45</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:31:17.347</t>
+  </si>
+  <si>
+    <t>hg7s325j174hu6191hh6qva9c7i41zkc</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:32:17.286</t>
+  </si>
+  <si>
+    <t>r1lzb4d8896iqub042ys1y14o1878ive</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:32:25.480</t>
+  </si>
+  <si>
+    <t>27lyvaf3yj2fufhp0sh5pxm62non61us</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:32:31.722</t>
+  </si>
+  <si>
+    <t>f5d5ye3bsmdo1mg8h19r64gj72gd8bac</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:32:40.285</t>
+  </si>
+  <si>
+    <t>i5tr08z44k7gm8t11sm6lboefht3jk3i</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:32:46.355</t>
+  </si>
+  <si>
+    <t>52t942976zyp26locp5n6c7tutvubqlo</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:33:12.503</t>
+  </si>
+  <si>
+    <t>q3kj264kuais16fmc7ep7033vl8j3g96</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:34:17.065</t>
+  </si>
+  <si>
+    <t>2h82os5k9c4t8cd6b3go6n6yir6boqdu</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:36:23.628</t>
+  </si>
+  <si>
+    <t>hsxnbsmjw5vpwu1cjl92e3p8068haknk</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:37:17.693</t>
+  </si>
+  <si>
+    <t>633e9f4sj8b765g9ma8pf9o715buvia8</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:38:14.502</t>
+  </si>
+  <si>
+    <t>rsivudzz26m36uza78i35mhtys8dlmqr</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:39:15.046</t>
+  </si>
+  <si>
+    <t>fb3h0v41314vh3md2tfwsp0r029oy2nr</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:40:15.703</t>
+  </si>
+  <si>
+    <t>64410b3pqezv9z8u0c8r6jly3n17ozqg</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:41:13.186</t>
+  </si>
+  <si>
+    <t>wv5015v68zp16dck50zrs8kempt71i01</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:41:27.857</t>
+  </si>
+  <si>
+    <t>3j427541vz506guxz7jv629ndbv79sty</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:41:40.796</t>
+  </si>
+  <si>
+    <t>u05cb0nmzfz402804w6jxhrplj1y2111</t>
+  </si>
+  <si>
+    <t>2018-11-21T07:41:53.604</t>
+  </si>
+  <si>
+    <t>juv53aok4n749gk5781uyd7r05u3rwk3</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:02:24.359</t>
+  </si>
+  <si>
+    <t>940q26gd30k66ta33f8oc2k4nyf226wh</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:03:13.766</t>
+  </si>
+  <si>
+    <t>x6f4epiui0undof3o50743m1z48a2n0h</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:04:14.073</t>
+  </si>
+  <si>
+    <t>pxgpps1at3c64dk4s9gfobzecf914h6t</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:05:17.935</t>
+  </si>
+  <si>
+    <t>48y1t5jd6600ts739yaiezt3a4yi09sf</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:06:28.215</t>
+  </si>
+  <si>
+    <t>6rdk4j648zu6c03hblyx6718065rkqd3</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:07:16.123</t>
+  </si>
+  <si>
+    <t>anhm9bmf51ji7n0p9q1gtcehxa0qy30m</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:07:28.286</t>
+  </si>
+  <si>
+    <t>9jy1ucsfdrzdgt5ov3ko05ly9n31ppw1</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:08:16.744</t>
+  </si>
+  <si>
+    <t>8216qil435yjq9akk70978dtmklq6zk8</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:09:27.425</t>
+  </si>
+  <si>
+    <t>m4n5y93ib82vn21xm4y9ocy72lnhx3ay</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:10:20.525</t>
+  </si>
+  <si>
+    <t>tv9t40isan9ghiwx3e573e8434qa73o9</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:11:09.516</t>
+  </si>
+  <si>
+    <t>1157b317ye4l5dt9n441769c349ze0qq</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:13:40.446</t>
+  </si>
+  <si>
+    <t>3vfyaa8rf82991n9inmb1009g48x06uz</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:13:52.171</t>
+  </si>
+  <si>
+    <t>z4ancxj424z1nbu412x00pf6pf200u35</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:14:19.346</t>
+  </si>
+  <si>
+    <t>bvvh1015sbkfei0123rpd1k5tg9b9gb5</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:14:31.067</t>
+  </si>
+  <si>
+    <t>426v4l4pfmor4hk13o1pxjangodf4003</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:15:18.763</t>
+  </si>
+  <si>
+    <t>a5348jqueaotxbbs5b1qjs8m26lbh8h4</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:16:27.758</t>
+  </si>
+  <si>
+    <t>n18v85jb281vi2x251z4t5xld9z9i685</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:17:16.964</t>
+  </si>
+  <si>
+    <t>98e395frtu6858yi8ls1xa3e45a30gjz</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:17:28.973</t>
+  </si>
+  <si>
+    <t>1e99a82g5gc3a351vvv9nuj838225tf1</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:17:35.962</t>
+  </si>
+  <si>
+    <t>lwd9dng47zturhec38gx50ac0ahkafd6</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:17:41.293</t>
+  </si>
+  <si>
+    <t>2m39os4f3r914a79z83sfxzqz7so10zk</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:17:49</t>
+  </si>
+  <si>
+    <t>l28qc99nu60t89blg83219500euh4uzp</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:17:54.785</t>
+  </si>
+  <si>
+    <t>ma49291s7tgfv23633b5s4747f6j49o4</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:19:20.295</t>
+  </si>
+  <si>
+    <t>cg1hk652f9pfal3c0zbkyi4dft0wx3uc</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:21:04.299</t>
+  </si>
+  <si>
+    <t>7i6b9tow8pbu0r7gn9ov21gdaoub2rte</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:22:15.646</t>
+  </si>
+  <si>
+    <t>w1tk99m51h9ewgv58az7wm1tst87v1i3</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:23:15.816</t>
+  </si>
+  <si>
+    <t>4x1qjst7f7li2nd3yfxwnleni7zo7ul7</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:24:16.768</t>
+  </si>
+  <si>
+    <t>td08pk916i01uiq9cjv74tmrod68n1w7</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:26:24.553</t>
+  </si>
+  <si>
+    <t>15majknc5j8e9xev71r947fjwj9u67vt</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:27:14.325</t>
+  </si>
+  <si>
+    <t>2q549vr7fox9f48fy6m6qi69618226jb</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:28:15.210</t>
+  </si>
+  <si>
+    <t>9ver88uv97js6g73p7pf93f4123672d9</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:28:28.478</t>
+  </si>
+  <si>
+    <t>zw3i4sfpuob20va12yfgqx1ca78i1068</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:28:42.772</t>
+  </si>
+  <si>
+    <t>yp84g4qb3332n031lbuj3r3239s895r2</t>
+  </si>
+  <si>
+    <t>2018-11-21T09:28:55.551</t>
+  </si>
+  <si>
+    <t>d03gcqqp9wxpfyuj18sv07z03lwdylc9</t>
+  </si>
+  <si>
+    <t>2018-11-21T10:10:46.695</t>
+  </si>
+  <si>
+    <t>hl2kl3cpixp9715g6087f19b09p58d81</t>
+  </si>
+  <si>
+    <t>2018-11-21T10:11:21.805</t>
+  </si>
+  <si>
+    <t>ysh3sct38i9u4v335hh2o55ere7a3w96</t>
+  </si>
+  <si>
+    <t>2018-11-21T10:11:35.744</t>
+  </si>
+  <si>
+    <t>zei63b0umsqc42g12yab4h7u7b15bdp3</t>
+  </si>
+  <si>
+    <t>2018-11-21T10:12:20.322</t>
+  </si>
+  <si>
+    <t>4y72s0y2447d2f6hh8cnf6mt2vh0mpw1</t>
+  </si>
+  <si>
+    <t>2018-11-21T10:16:15.063</t>
+  </si>
+  <si>
+    <t>6gl08j8xvrnk1p485dvy1yq4130cad17</t>
+  </si>
+  <si>
+    <t>2018-11-21T10:17:17.612</t>
   </si>
 </sst>
 </file>
@@ -9502,6 +11968,3294 @@
         <v>1301</v>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>2123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/java/resources/generateduuid.xlsx
+++ b/src/main/java/resources/generateduuid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5575" uniqueCount="4067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5579" uniqueCount="4071">
   <si>
     <t>Vehicle uuid</t>
   </si>
@@ -12227,6 +12227,18 @@
   </si>
   <si>
     <t>2018-12-02T09:17:28.462</t>
+  </si>
+  <si>
+    <t>xdiyh9wl264d20l7624u6dt0o6bx3vil0a5</t>
+  </si>
+  <si>
+    <t>2018-12-02T20:22:09.566</t>
+  </si>
+  <si>
+    <t>r8re11gesbf1gxilawcpzjjoei6y2jk3r0a</t>
+  </si>
+  <si>
+    <t>2018-12-02T20:22:39.330</t>
   </si>
 </sst>
 </file>
@@ -25070,6 +25082,22 @@
         <v>4066</v>
       </c>
     </row>
+    <row r="1562">
+      <c r="A1562" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>4070</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/java/resources/generateduuid.xlsx
+++ b/src/main/java/resources/generateduuid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12374" uniqueCount="7911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12930" uniqueCount="8189">
   <si>
     <t>Vehicle uuid</t>
   </si>
@@ -23759,6 +23759,840 @@
   </si>
   <si>
     <t>2018-12-15T13:23:18.190</t>
+  </si>
+  <si>
+    <t>2018-12-22T13:24:05</t>
+  </si>
+  <si>
+    <t>2018-12-15T16:20:46.533</t>
+  </si>
+  <si>
+    <t>q76bd2li7b552evgf0pv0c57734zl2c600z</t>
+  </si>
+  <si>
+    <t>2018-12-15T16:20:50.401</t>
+  </si>
+  <si>
+    <t>eao15w0t6j1z2f6167is8mzmro47080g9z6</t>
+  </si>
+  <si>
+    <t>2018-12-15T16:21:05.105</t>
+  </si>
+  <si>
+    <t>0y3suup4ia30x0qsrk57ztl06ubsq064a0m</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:02:25.318</t>
+  </si>
+  <si>
+    <t>0s0m4ooiqmus7r671d1nomy0ng34p9rpf6w</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:02:27.070</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:02:33</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:03:06.013</t>
+  </si>
+  <si>
+    <t>WBAJE7C59KWW16413</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:02:32</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:03:08.115</t>
+  </si>
+  <si>
+    <t>65zxz25azal3d32f0mm8y959cup134n87hf</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:03:12.417</t>
+  </si>
+  <si>
+    <t>2018-12-24T09:03:07</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:04:09.080</t>
+  </si>
+  <si>
+    <t>2018-12-24T09:03:12</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:04:09.769</t>
+  </si>
+  <si>
+    <t>5UXKR2C59J0Z15155</t>
+  </si>
+  <si>
+    <t>2018-12-24T09:04:06</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:04:10.492</t>
+  </si>
+  <si>
+    <t>zy73to1wnyfz1632c1i9h4f8wc719a42vsc</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:04:14.583</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:04:21</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:04:38.409</t>
+  </si>
+  <si>
+    <t>t68d1o7eh7xdyokgk0s66ddx7s01d39u3zy</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:04:42.170</t>
+  </si>
+  <si>
+    <t>2018-12-24T09:05:07</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:18:03.143</t>
+  </si>
+  <si>
+    <t>xxk35emwm8v1pf2hj0w60q8otv86fzvd8n4</t>
+  </si>
+  <si>
+    <t>2018-12-17T09:18:19.269</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111110</t>
+  </si>
+  <si>
+    <t>2018-12-17T20:10:08</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:58:52.027</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>2018-12-24T20:10:07</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:58:52.997</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111112</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:58:53.740</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111113</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:58:54.429</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111114</t>
+  </si>
+  <si>
+    <t>WBXHT3C30J5L34022</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:58:55.059</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111115</t>
+  </si>
+  <si>
+    <t>WBA4J3C54KBL07084</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:58:55.698</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111116</t>
+  </si>
+  <si>
+    <t>5UXKR0C50J0X88087</t>
+  </si>
+  <si>
+    <t>2018-12-24T20:11:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:58:56.333</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111117</t>
+  </si>
+  <si>
+    <t>5UXTS3C53J0Z02433</t>
+  </si>
+  <si>
+    <t>2018-12-17T20:11:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:58:56.948</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111118</t>
+  </si>
+  <si>
+    <t>5UXTR7C54KLF33720</t>
+  </si>
+  <si>
+    <t>2018-12-17T20:11:07</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:58:57.623</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111119</t>
+  </si>
+  <si>
+    <t>5UXTR7C53KLF33725</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:58:58.231</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111120</t>
+  </si>
+  <si>
+    <t>2018-12-17T20:12:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:58:58.860</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111121</t>
+  </si>
+  <si>
+    <t>2018-12-24T20:12:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:58:59.471</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111122</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:00.147</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111123</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:00.773</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111124</t>
+  </si>
+  <si>
+    <t>2018-12-24T20:13:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:01.391</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111125</t>
+  </si>
+  <si>
+    <t>2018-12-17T20:13:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:02.029</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111126</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:02.653</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111127</t>
+  </si>
+  <si>
+    <t>2018-12-17T20:14:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:03.280</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111128</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:03.943</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111129</t>
+  </si>
+  <si>
+    <t>2018-12-17T20:15:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:04.558</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111130</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:05.179</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111131</t>
+  </si>
+  <si>
+    <t>2018-12-24T20:16:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:05.819</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111132</t>
+  </si>
+  <si>
+    <t>2018-12-24T20:17:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:06.435</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111133</t>
+  </si>
+  <si>
+    <t>2018-12-24T20:18:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:07.044</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111134</t>
+  </si>
+  <si>
+    <t>2018-12-24T20:19:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:07.696</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111135</t>
+  </si>
+  <si>
+    <t>2018-12-17T20:20:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:08.303</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111136</t>
+  </si>
+  <si>
+    <t>2018-12-24T21:00:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:08.916</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111137</t>
+  </si>
+  <si>
+    <t>2018-12-17T21:00:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:09.538</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111138</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:10.179</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111139</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:10.803</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111110</t>
+  </si>
+  <si>
+    <t>WBA8A9C52JAH12047</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:11.412</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>WBA8B9G59JNU99692</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:12.032</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111112</t>
+  </si>
+  <si>
+    <t>2018-12-17T20:10:09</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:12.715</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111113</t>
+  </si>
+  <si>
+    <t>WBA8E1C5XJA756445</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:13.325</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111114</t>
+  </si>
+  <si>
+    <t>5UXKR2C55J0Z22121</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:13.933</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111115</t>
+  </si>
+  <si>
+    <t>5UXTS3C57K0Z04834</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:14.544</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111116</t>
+  </si>
+  <si>
+    <t>WBAJA7C58KWW06127</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:15.193</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111117</t>
+  </si>
+  <si>
+    <t>WBAJA7C56KWW11990</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:15.815</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111118</t>
+  </si>
+  <si>
+    <t>WBA7F2C59KB240233</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:16.437</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111119</t>
+  </si>
+  <si>
+    <t>WBA8A3C58JA505978</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:17.045</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111120</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:17.654</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111121</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:18.315</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111122</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:18.926</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111123</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:19.534</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111124</t>
+  </si>
+  <si>
+    <t>2018-12-24T20:10:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:20.147</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111125</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:20.757</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111126</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:21.412</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111127</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:22.031</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111128</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:22.645</t>
+  </si>
+  <si>
+    <t>21111111111111111111111111111111129</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:23.258</t>
+  </si>
+  <si>
+    <t>fy3axfm585y5y2t7xke02oqw2sswf1qrmy7</t>
+  </si>
+  <si>
+    <t>2018-12-18T15:59:26.688</t>
+  </si>
+  <si>
+    <t>2018-12-25T16:00:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:00:08.910</t>
+  </si>
+  <si>
+    <t>230wo6aqczg335bbgz398as41n5fi3j8c9f</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:00:12.323</t>
+  </si>
+  <si>
+    <t>2018-12-25T16:01:07</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:01:09.779</t>
+  </si>
+  <si>
+    <t>4521md68nr3qvhdl1525m2wt62jc79p207f</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:01:13.273</t>
+  </si>
+  <si>
+    <t>a5db68bb0a0e0adf052ed355793a2935zfa</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:01:18.195</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:01:19</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:01:26.064</t>
+  </si>
+  <si>
+    <t>kloi10ms8vx84nw9w659sfkla9bd0b2fo1x</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:01:29.497</t>
+  </si>
+  <si>
+    <t>d4348fe40a0e0a17623e2bddc20b7fc2gx0</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:01:35.155</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:01:36</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:01:43.046</t>
+  </si>
+  <si>
+    <t>y720pb515nn12z5cfj81ac84jm4qfka6i5e</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:01:46.382</t>
+  </si>
+  <si>
+    <t>2018-12-25T16:02:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:02:08.707</t>
+  </si>
+  <si>
+    <t>1k4a60101v801hl5z4g7r97f1k5007rw2dr</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:02:12.060</t>
+  </si>
+  <si>
+    <t>2018-12-25T16:03:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:03:08.667</t>
+  </si>
+  <si>
+    <t>7hrtja6w3fog50dt7my1f0590q5gikba9q7</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:03:12.034</t>
+  </si>
+  <si>
+    <t>2018-12-25T16:04:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:04:08.879</t>
+  </si>
+  <si>
+    <t>1x2u96c84w60y844hri93sp0crg3fnbwqem</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:04:12.267</t>
+  </si>
+  <si>
+    <t>2018-12-25T16:05:05</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:05:08.752</t>
+  </si>
+  <si>
+    <t>qlwnf65lrbxr7qx43390o7aru109s7m3632</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:05:12.259</t>
+  </si>
+  <si>
+    <t>5UXKU2C55K0Z64000</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:05:21</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:05:25.372</t>
+  </si>
+  <si>
+    <t>s9b7x53lb53qrok5ddn0vp0756lhy783jnu</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:05:28.915</t>
+  </si>
+  <si>
+    <t>WAU24GF56JN009862</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:05:35</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:05:39.934</t>
+  </si>
+  <si>
+    <t>dq595d09mbz29135kzn6k689rl0e4dvfsb8</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:05:44.011</t>
+  </si>
+  <si>
+    <t>5UXTR9C51KLE12400</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:05:52</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:06:01.497</t>
+  </si>
+  <si>
+    <t>pratbi3fzy2jy4wqrey0uh6m4kk0hw8586u</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:06:05.771</t>
+  </si>
+  <si>
+    <t>WBS3S7C59KAC09544</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:06:19</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:06:26.247</t>
+  </si>
+  <si>
+    <t>7y1f2y3178nnd66l3ce1124970098e4wv0u</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:06:29.839</t>
+  </si>
+  <si>
+    <t>WBXHT3C33J5L30966</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:06:39</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:06:45.983</t>
+  </si>
+  <si>
+    <t>8hcqyup12n8d6yxv70y47hc75zg1xr19829</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:06:49.812</t>
+  </si>
+  <si>
+    <t>WAUPNAF53JA084008</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:07:17</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:07:24.738</t>
+  </si>
+  <si>
+    <t>ultrq1942i4yw14xed5yg91mervsghiucne</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:07:28.364</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:07:36</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:07:43.047</t>
+  </si>
+  <si>
+    <t>3tfvutws1923n84d46i031x8odfkm12p39g</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:07:46.816</t>
+  </si>
+  <si>
+    <t>WA1VAAF72JD027511</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:08:14</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:08:21.483</t>
+  </si>
+  <si>
+    <t>o389xhlb21qh89j556s5vt06bxo6w9pumy6</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:08:25.355</t>
+  </si>
+  <si>
+    <t>2018-12-25T16:08:54</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:08:59.864</t>
+  </si>
+  <si>
+    <t>49z2q02wqmedqfbxf2b2khz5255q5yih971</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:09:03.564</t>
+  </si>
+  <si>
+    <t>WBXHT3C38J5F92260</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:09:31</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:09:36.529</t>
+  </si>
+  <si>
+    <t>2pgs4ftpws74e3wz5p0i1m3065132alqj7o</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:09:40.157</t>
+  </si>
+  <si>
+    <t>2018-12-25T16:11:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:11:10.604</t>
+  </si>
+  <si>
+    <t>ug349636054hi31zg21iadrh63oeqtpgox7</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:11:14.323</t>
+  </si>
+  <si>
+    <t>2018-12-25T16:12:06</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:12:10.271</t>
+  </si>
+  <si>
+    <t>u8n69z8lks1y4ns011i2q73wp9k9l7ti68t</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:12:14.312</t>
+  </si>
+  <si>
+    <t>3bd9dc580a0a00de6a568762d66fa01av7m</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:12:35.003</t>
+  </si>
+  <si>
+    <t>2018-12-25T16:13:05</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:13:09.755</t>
+  </si>
+  <si>
+    <t>ntan8br55kdx8nsjwyhu955nh6h73lie1bn</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:13:13.189</t>
+  </si>
+  <si>
+    <t>04c16ffd0a0e0adf4d75c02155d62aedh50</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:13:17.774</t>
+  </si>
+  <si>
+    <t>2018-12-25T16:14:05</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:15:19.757</t>
+  </si>
+  <si>
+    <t>5tvrufjv86rdf7b695rf14a4okyh7354v7w</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:15:23.667</t>
+  </si>
+  <si>
+    <t>WBXHT3C38J5K24335</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:16:10</t>
+  </si>
+  <si>
+    <t>2018-12-18T16:16:11.661</t>
   </si>
 </sst>
 </file>
@@ -51204,6 +52038,286 @@
         <v>7910</v>
       </c>
     </row>
+    <row r="2573">
+      <c r="A2573" t="s">
+        <v>7913</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>7914</v>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="s">
+        <v>7915</v>
+      </c>
+      <c r="B2574" t="s">
+        <v>7916</v>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="s">
+        <v>7917</v>
+      </c>
+      <c r="B2575" t="s">
+        <v>7918</v>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="s">
+        <v>7919</v>
+      </c>
+      <c r="B2576" t="s">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="s">
+        <v>7926</v>
+      </c>
+      <c r="B2577" t="s">
+        <v>7927</v>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" t="s">
+        <v>7935</v>
+      </c>
+      <c r="B2578" t="s">
+        <v>7936</v>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" t="s">
+        <v>7939</v>
+      </c>
+      <c r="B2579" t="s">
+        <v>7940</v>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" t="s">
+        <v>7943</v>
+      </c>
+      <c r="B2580" t="s">
+        <v>7944</v>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="s">
+        <v>8080</v>
+      </c>
+      <c r="B2581" t="s">
+        <v>8081</v>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="s">
+        <v>8084</v>
+      </c>
+      <c r="B2582" t="s">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" t="s">
+        <v>8088</v>
+      </c>
+      <c r="B2583" t="s">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" t="s">
+        <v>8090</v>
+      </c>
+      <c r="B2584" t="s">
+        <v>8091</v>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" t="s">
+        <v>8094</v>
+      </c>
+      <c r="B2585" t="s">
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" t="s">
+        <v>8096</v>
+      </c>
+      <c r="B2586" t="s">
+        <v>8097</v>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" t="s">
+        <v>8100</v>
+      </c>
+      <c r="B2587" t="s">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" t="s">
+        <v>8104</v>
+      </c>
+      <c r="B2588" t="s">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" t="s">
+        <v>8108</v>
+      </c>
+      <c r="B2589" t="s">
+        <v>8109</v>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" t="s">
+        <v>8112</v>
+      </c>
+      <c r="B2590" t="s">
+        <v>8113</v>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" t="s">
+        <v>8116</v>
+      </c>
+      <c r="B2591" t="s">
+        <v>8117</v>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" t="s">
+        <v>8121</v>
+      </c>
+      <c r="B2592" t="s">
+        <v>8122</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" t="s">
+        <v>8126</v>
+      </c>
+      <c r="B2593" t="s">
+        <v>8127</v>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" t="s">
+        <v>8131</v>
+      </c>
+      <c r="B2594" t="s">
+        <v>8132</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" t="s">
+        <v>8136</v>
+      </c>
+      <c r="B2595" t="s">
+        <v>8137</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" t="s">
+        <v>8141</v>
+      </c>
+      <c r="B2596" t="s">
+        <v>8142</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="s">
+        <v>8146</v>
+      </c>
+      <c r="B2597" t="s">
+        <v>8147</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="s">
+        <v>8150</v>
+      </c>
+      <c r="B2598" t="s">
+        <v>8151</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="s">
+        <v>8155</v>
+      </c>
+      <c r="B2599" t="s">
+        <v>8156</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="s">
+        <v>8159</v>
+      </c>
+      <c r="B2600" t="s">
+        <v>8160</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="s">
+        <v>8164</v>
+      </c>
+      <c r="B2601" t="s">
+        <v>8165</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="s">
+        <v>8168</v>
+      </c>
+      <c r="B2602" t="s">
+        <v>8169</v>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="s">
+        <v>8172</v>
+      </c>
+      <c r="B2603" t="s">
+        <v>8173</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="s">
+        <v>8174</v>
+      </c>
+      <c r="B2604" t="s">
+        <v>8175</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="s">
+        <v>8178</v>
+      </c>
+      <c r="B2605" t="s">
+        <v>8179</v>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="s">
+        <v>8180</v>
+      </c>
+      <c r="B2606" t="s">
+        <v>8181</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="s">
+        <v>8184</v>
+      </c>
+      <c r="B2607" t="s">
+        <v>8185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -84645,6 +85759,2112 @@
         <v>7906</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="s">
+        <v>7909</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>7911</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1209" t="s">
+        <v>7912</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="s">
+        <v>7919</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>7921</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1210" t="s">
+        <v>7922</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="s">
+        <v>7917</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>7923</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>7924</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>7925</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="s">
+        <v>7919</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>7928</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>7929</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="s">
+        <v>7917</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>7923</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>7930</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1213" t="s">
+        <v>7931</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="s">
+        <v>7926</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>7932</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>7933</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>7934</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="s">
+        <v>7935</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>7923</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>7937</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>7938</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="s">
+        <v>7939</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>7482</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>7941</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1216" t="s">
+        <v>7942</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="s">
+        <v>7945</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>7946</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1217" t="s">
+        <v>7947</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="s">
+        <v>7948</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>3651</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1218" t="s">
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="s">
+        <v>7951</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>5203</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="s">
+        <v>7953</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1220" t="s">
+        <v>7954</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="s">
+        <v>7955</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>7956</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>7957</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="s">
+        <v>7958</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>7959</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>7946</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>7960</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="s">
+        <v>7961</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>7962</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>7963</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>7964</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="s">
+        <v>7965</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>7966</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>7967</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1224" t="s">
+        <v>7968</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="s">
+        <v>7969</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>7970</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>7971</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1225" t="s">
+        <v>7972</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="s">
+        <v>7973</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>7974</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>7971</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1226" t="s">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="s">
+        <v>7976</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>7977</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1227" t="s">
+        <v>7978</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="s">
+        <v>7979</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>3651</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>7980</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1228" t="s">
+        <v>7981</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="s">
+        <v>7982</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>5203</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>7980</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1229" t="s">
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="s">
+        <v>7984</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>7980</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1230" t="s">
+        <v>7985</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="s">
+        <v>7986</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>7956</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>7987</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>7988</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="s">
+        <v>7989</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>7959</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>7990</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1232" t="s">
+        <v>7991</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="s">
+        <v>7992</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>7962</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>7987</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>7993</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="s">
+        <v>7994</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>7966</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>7995</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>7996</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="s">
+        <v>7997</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>7970</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>7995</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="s">
+        <v>7999</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>7974</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>8000</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1236" t="s">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="s">
+        <v>8002</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>8000</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="s">
+        <v>8004</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>3651</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>8005</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="s">
+        <v>8007</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>5203</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>8008</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>8009</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="s">
+        <v>8010</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>8011</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>8012</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="s">
+        <v>8013</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>7956</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>8014</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>8015</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="s">
+        <v>8016</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>7959</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>8017</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1242" t="s">
+        <v>8018</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="s">
+        <v>8019</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>7962</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>8020</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="s">
+        <v>8022</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>7966</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>8023</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>8024</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="s">
+        <v>8025</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>7970</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>8023</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>8026</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="s">
+        <v>8027</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>7974</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>8023</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="s">
+        <v>8029</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>8030</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>8031</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="s">
+        <v>8032</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>8033</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>8034</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="s">
+        <v>8035</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>8036</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>8037</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="s">
+        <v>8038</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>8039</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="s">
+        <v>8041</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>8042</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>8043</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="s">
+        <v>8044</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>8045</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>8036</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>8046</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="s">
+        <v>8047</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>8048</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>8049</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="s">
+        <v>8050</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>8051</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="s">
+        <v>8053</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>8054</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="s">
+        <v>8056</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>8057</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>8058</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="s">
+        <v>8059</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>8030</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="s">
+        <v>8061</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>8033</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>8062</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="s">
+        <v>8063</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>8036</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>8064</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="s">
+        <v>8065</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>8039</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>8066</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="s">
+        <v>8067</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>8042</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>8068</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>8069</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="s">
+        <v>8070</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>8045</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>8036</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>8071</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="s">
+        <v>8072</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>8048</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>8073</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="s">
+        <v>8074</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>8051</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>8068</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>8075</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="s">
+        <v>8076</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>8054</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>8077</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="s">
+        <v>8078</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>8057</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>7949</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>8079</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="s">
+        <v>8080</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>8082</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>8083</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="s">
+        <v>8084</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>8086</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>8087</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="s">
+        <v>8090</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>4204</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>8092</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>8093</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="s">
+        <v>8096</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>4210</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>8098</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>8099</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="s">
+        <v>8100</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>8102</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>8103</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="s">
+        <v>8104</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>8106</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>8107</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="s">
+        <v>8108</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>8110</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>8111</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="s">
+        <v>8112</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>8114</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>8115</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="s">
+        <v>8116</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>8118</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>8119</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>8120</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="s">
+        <v>8121</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>8123</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>8124</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>8125</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="s">
+        <v>8126</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>8128</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>8129</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>8130</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="s">
+        <v>8131</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>8133</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>8134</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>8135</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="s">
+        <v>8136</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>8138</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>8139</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="s">
+        <v>8141</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>8143</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>8144</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>8145</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="s">
+        <v>8146</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>8148</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>8149</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="s">
+        <v>8150</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>8152</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>8153</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>8154</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="s">
+        <v>8155</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>4796</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>8157</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>8158</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="s">
+        <v>8159</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>8161</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>8162</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1284" t="s">
+        <v>8163</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="s">
+        <v>8164</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>8166</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>8167</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="s">
+        <v>8168</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>8170</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>8171</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="s">
+        <v>8174</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>8176</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>8177</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="s">
+        <v>8180</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>8182</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>8183</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="s">
+        <v>8184</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>8186</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>8187</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>8188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/java/resources/generateduuid.xlsx
+++ b/src/main/java/resources/generateduuid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12930" uniqueCount="8189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12940" uniqueCount="8196">
   <si>
     <t>Vehicle uuid</t>
   </si>
@@ -24593,6 +24593,27 @@
   </si>
   <si>
     <t>2018-12-18T16:16:11.661</t>
+  </si>
+  <si>
+    <t>5vde6pl1z20qofmbz2da53624s1y4835o4x</t>
+  </si>
+  <si>
+    <t>2018-12-19T10:18:23.482</t>
+  </si>
+  <si>
+    <t>WBA4J1C52JBG75950</t>
+  </si>
+  <si>
+    <t>2018-12-26T10:19:06</t>
+  </si>
+  <si>
+    <t>2018-12-19T10:19:09.018</t>
+  </si>
+  <si>
+    <t>gnvvrx61ogn19c9kuhu31l5h5s5rl73t5ne</t>
+  </si>
+  <si>
+    <t>2018-12-19T10:19:13.063</t>
   </si>
 </sst>
 </file>
@@ -52318,6 +52339,22 @@
         <v>8185</v>
       </c>
     </row>
+    <row r="2608">
+      <c r="A2608" t="s">
+        <v>8189</v>
+      </c>
+      <c r="B2608" t="s">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="s">
+        <v>8194</v>
+      </c>
+      <c r="B2609" t="s">
+        <v>8195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -87865,6 +87902,32 @@
         <v>8188</v>
       </c>
     </row>
+    <row r="1290">
+      <c r="A1290" t="s">
+        <v>8189</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>8191</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>8192</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>8193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/java/resources/generateduuid.xlsx
+++ b/src/main/java/resources/generateduuid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12940" uniqueCount="8196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13126" uniqueCount="8303">
   <si>
     <t>Vehicle uuid</t>
   </si>
@@ -24614,6 +24614,327 @@
   </si>
   <si>
     <t>2018-12-19T10:19:13.063</t>
+  </si>
+  <si>
+    <t>2018-12-26T10:20:06</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:09:59.405</t>
+  </si>
+  <si>
+    <t>ie14vu44104mh2c9xayuu7vv3fgi1hs549n</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:10:03.413</t>
+  </si>
+  <si>
+    <t>klhj0gk7mmw18r40h00f1r2b9joqcie2kk8</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:12:08.338</t>
+  </si>
+  <si>
+    <t>5UXUJ5C55KLJ62774</t>
+  </si>
+  <si>
+    <t>2018-12-26T15:13:06</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:13:09.900</t>
+  </si>
+  <si>
+    <t>7cm325i77vp0z2ep05vawz63vw8txw10rai</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:13:13.476</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:14:09</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:14:12.373</t>
+  </si>
+  <si>
+    <t>dta7i6p7lo8h5dcffo7ri423hqz3x55kvme</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:14:15.799</t>
+  </si>
+  <si>
+    <t>a5db68bb0a0e0adf052ed355793a2935rty</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:14:20.347</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:14:21</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:14:28.545</t>
+  </si>
+  <si>
+    <t>8730rb46ju872hqhr37yy5fb589gt9xbr21</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:14:32.003</t>
+  </si>
+  <si>
+    <t>d4348fe40a0e0a17623e2bddc20b7fc2yv9</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:14:36.542</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:14:37</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:14:44.692</t>
+  </si>
+  <si>
+    <t>9pqz6vdnpt1l9tsgko6bknxf36d35p1v441</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:14:48.203</t>
+  </si>
+  <si>
+    <t>2018-12-26T15:15:06</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:15:09.671</t>
+  </si>
+  <si>
+    <t>r7fwsdb030357sy7jy3n5n63raseu5j9op8</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:15:13.354</t>
+  </si>
+  <si>
+    <t>2018-12-26T15:16:06</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:16:09.026</t>
+  </si>
+  <si>
+    <t>58631i0oq85970hndd417c0a2bu0zb2a97x</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:16:12.458</t>
+  </si>
+  <si>
+    <t>2018-12-26T15:17:05</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:17:09.789</t>
+  </si>
+  <si>
+    <t>8ht5y7ra5ltey83juw7b63jzvmct10fbjcd</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:17:13.591</t>
+  </si>
+  <si>
+    <t>2018-12-26T15:18:05</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:18:09.760</t>
+  </si>
+  <si>
+    <t>x8pb88lld00ufxt1x1fjlp1s782dxx85cfm</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:18:13.291</t>
+  </si>
+  <si>
+    <t>WBA2J1C57KVD10185</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:18:20</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:18:24.558</t>
+  </si>
+  <si>
+    <t>5495x14qt964cxymli7xh8ml05a7axnxyhh</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:18:28.340</t>
+  </si>
+  <si>
+    <t>WA19NAF46JA196444</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:18:55</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:19:00.263</t>
+  </si>
+  <si>
+    <t>m488gstreg5lcvf065lvony308u4x0f535z</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:19:03.735</t>
+  </si>
+  <si>
+    <t>WBXHU7C32J3F04299</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:19:30</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:19:37.910</t>
+  </si>
+  <si>
+    <t>ouw5e6w02671d0vq4rmhgsj1sp0516xc3w8</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:19:41.716</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:20:08</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:20:15.789</t>
+  </si>
+  <si>
+    <t>r5zmb0nzq41bqht05uq833e2m69u2hq72me</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:20:19.572</t>
+  </si>
+  <si>
+    <t>WBA8E5C50JA506607</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:20:47</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:20:54.042</t>
+  </si>
+  <si>
+    <t>5nfu2y521v152jg3mi7k3ya0r6e9j6zhw79</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:20:57.968</t>
+  </si>
+  <si>
+    <t>WUAPWAF58JA904537</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:21:24</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:21:31.342</t>
+  </si>
+  <si>
+    <t>rh3mj6qfjdlfxwye65b2yrr8t6dfm8332r1</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:21:35.176</t>
+  </si>
+  <si>
+    <t>2018-12-26T15:22:05</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:22:08.806</t>
+  </si>
+  <si>
+    <t>128x0ec7l5dn1929gvg38e60b7p167pwq8r</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:22:12.264</t>
+  </si>
+  <si>
+    <t>WA1JCCFS0JR021654</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:22:18</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:22:25.499</t>
+  </si>
+  <si>
+    <t>k73gstyjw4tc915r9s4qdti8ls8a7q7pyb8</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:22:28.942</t>
+  </si>
+  <si>
+    <t>WBS3S7C50KAC09528</t>
+  </si>
+  <si>
+    <t>2018-12-26T15:22:40</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:22:45.760</t>
+  </si>
+  <si>
+    <t>108qtdi6eeq2k5w3721840m6xik8e3hx2f4</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:22:49.568</t>
+  </si>
+  <si>
+    <t>WBY2Z6C57KVG97828</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:23:16</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:23:22.185</t>
+  </si>
+  <si>
+    <t>59o9ffs9v77ds7koj2983v46lh492f79zqy</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:23:25.632</t>
+  </si>
+  <si>
+    <t>2018-12-26T15:24:06</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:24:12.090</t>
+  </si>
+  <si>
+    <t>f00nx70uqr2zdov2eos09g86r382faq928e</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:24:15.963</t>
+  </si>
+  <si>
+    <t>2018-12-26T15:25:06</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:25:09.525</t>
+  </si>
+  <si>
+    <t>3w4s7u8r8gl02its8ndad1661hku4826708</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:25:13.305</t>
+  </si>
+  <si>
+    <t>3bd9dc580a0a00de6a568762d66fa01axnk</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:25:33.043</t>
+  </si>
+  <si>
+    <t>2018-12-26T15:26:05</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:26:10.273</t>
+  </si>
+  <si>
+    <t>rir6ddbqj2gscf8ps9182wta823j4e2gncu</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:26:14.011</t>
+  </si>
+  <si>
+    <t>04c16ffd0a0e0adf4d75c02155d62aed2fh</t>
+  </si>
+  <si>
+    <t>2018-12-19T15:26:34.529</t>
   </si>
 </sst>
 </file>
@@ -52355,6 +52676,222 @@
         <v>8195</v>
       </c>
     </row>
+    <row r="2610">
+      <c r="A2610" t="s">
+        <v>8198</v>
+      </c>
+      <c r="B2610" t="s">
+        <v>8199</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="s">
+        <v>8200</v>
+      </c>
+      <c r="B2611" t="s">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="s">
+        <v>8205</v>
+      </c>
+      <c r="B2612" t="s">
+        <v>8206</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="s">
+        <v>8209</v>
+      </c>
+      <c r="B2613" t="s">
+        <v>8210</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="s">
+        <v>8211</v>
+      </c>
+      <c r="B2614" t="s">
+        <v>8212</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="s">
+        <v>8215</v>
+      </c>
+      <c r="B2615" t="s">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="s">
+        <v>8217</v>
+      </c>
+      <c r="B2616" t="s">
+        <v>8218</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="s">
+        <v>8221</v>
+      </c>
+      <c r="B2617" t="s">
+        <v>8222</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="s">
+        <v>8225</v>
+      </c>
+      <c r="B2618" t="s">
+        <v>8226</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="s">
+        <v>8229</v>
+      </c>
+      <c r="B2619" t="s">
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="s">
+        <v>8233</v>
+      </c>
+      <c r="B2620" t="s">
+        <v>8234</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="s">
+        <v>8237</v>
+      </c>
+      <c r="B2621" t="s">
+        <v>8238</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="s">
+        <v>8242</v>
+      </c>
+      <c r="B2622" t="s">
+        <v>8243</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="s">
+        <v>8247</v>
+      </c>
+      <c r="B2623" t="s">
+        <v>8248</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="s">
+        <v>8252</v>
+      </c>
+      <c r="B2624" t="s">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="s">
+        <v>8256</v>
+      </c>
+      <c r="B2625" t="s">
+        <v>8257</v>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="s">
+        <v>8261</v>
+      </c>
+      <c r="B2626" t="s">
+        <v>8262</v>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="s">
+        <v>8266</v>
+      </c>
+      <c r="B2627" t="s">
+        <v>8267</v>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="s">
+        <v>8270</v>
+      </c>
+      <c r="B2628" t="s">
+        <v>8271</v>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="s">
+        <v>8275</v>
+      </c>
+      <c r="B2629" t="s">
+        <v>8276</v>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="s">
+        <v>8280</v>
+      </c>
+      <c r="B2630" t="s">
+        <v>8281</v>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="s">
+        <v>8285</v>
+      </c>
+      <c r="B2631" t="s">
+        <v>8286</v>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="s">
+        <v>8289</v>
+      </c>
+      <c r="B2632" t="s">
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="s">
+        <v>8293</v>
+      </c>
+      <c r="B2633" t="s">
+        <v>8294</v>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="s">
+        <v>8295</v>
+      </c>
+      <c r="B2634" t="s">
+        <v>8296</v>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="s">
+        <v>8299</v>
+      </c>
+      <c r="B2635" t="s">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="s">
+        <v>8301</v>
+      </c>
+      <c r="B2636" t="s">
+        <v>8302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -87928,6 +88465,578 @@
         <v>8193</v>
       </c>
     </row>
+    <row r="1291">
+      <c r="A1291" t="s">
+        <v>8194</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>5442</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>8196</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>8197</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="s">
+        <v>8200</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>8202</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>8203</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>8204</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="s">
+        <v>8205</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>8207</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>8208</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="s">
+        <v>8211</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>4204</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>8213</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>8214</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="s">
+        <v>8217</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>4210</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>8219</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="s">
+        <v>8221</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>8223</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="s">
+        <v>8225</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>8227</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>8228</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="s">
+        <v>8229</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>8231</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>8232</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="s">
+        <v>8233</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>8235</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>8236</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="s">
+        <v>8237</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>8239</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>8240</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>8241</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="s">
+        <v>8242</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>8244</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>8245</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>8246</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="s">
+        <v>8247</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>8249</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>8250</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>8251</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="s">
+        <v>8252</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>8254</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>8255</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="s">
+        <v>8256</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>8258</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>8259</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="s">
+        <v>8261</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>8263</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>8264</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>8265</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="s">
+        <v>8266</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>8268</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>8269</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="s">
+        <v>8270</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>8272</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>8273</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="s">
+        <v>8275</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>8277</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>8278</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>8279</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="s">
+        <v>8280</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>8282</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>8283</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>8284</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="s">
+        <v>8285</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>8287</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>8288</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="s">
+        <v>8289</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>8291</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>8292</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="s">
+        <v>8295</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>8297</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>8298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/java/resources/generateduuid.xlsx
+++ b/src/main/java/resources/generateduuid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13362" uniqueCount="8440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14516" uniqueCount="9115">
   <si>
     <t>Vehicle uuid</t>
   </si>
@@ -25346,6 +25346,2031 @@
   </si>
   <si>
     <t>2018-12-20T16:02:18.234</t>
+  </si>
+  <si>
+    <t>WA1LAAF74KD017684</t>
+  </si>
+  <si>
+    <t>2018-12-20T16:02:24</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:09:23.260</t>
+  </si>
+  <si>
+    <t>s69jv3fds9m8z591m6qyo4i18vee5l1x9gp</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:09:27.199</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:10:10</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:10:14.756</t>
+  </si>
+  <si>
+    <t>e1t51s8974738jxnkq1i89yh1d5l7rtc7a2</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:10:18.445</t>
+  </si>
+  <si>
+    <t>5UXKR2C53J0Z20593</t>
+  </si>
+  <si>
+    <t>2018-12-28T13:11:06</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:11:09.676</t>
+  </si>
+  <si>
+    <t>7jph4v6388543x8ftk0bzfqkfy0c5g121no</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:11:13.651</t>
+  </si>
+  <si>
+    <t>d95af1410a0e0a17623e2bdd80ffb7d6qv5</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:11:35.051</t>
+  </si>
+  <si>
+    <t>WA1AVAF17KD009859</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:11:41</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:11:48.226</t>
+  </si>
+  <si>
+    <t>paz71i5wb7ay9dpm33eo48svqis9aqc6eiv</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:11:51.842</t>
+  </si>
+  <si>
+    <t>d95aee4f0a0e0a17623e2bdd86feae94kqz</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:11:57.027</t>
+  </si>
+  <si>
+    <t>WAUKMAF44JA234700</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:11:58</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:12:05.261</t>
+  </si>
+  <si>
+    <t>5q0f75c2qn351vdlmfse6x9hqw1qepx14e4</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:12:08.679</t>
+  </si>
+  <si>
+    <t>5UXKR2C52J0X09093</t>
+  </si>
+  <si>
+    <t>2018-12-28T13:13:06</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:13:09.569</t>
+  </si>
+  <si>
+    <t>jmimoqwebuh1e7sbiis538p1dgjj46l4p6r</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:13:13.079</t>
+  </si>
+  <si>
+    <t>WBS8M9C55J5L71932</t>
+  </si>
+  <si>
+    <t>2018-12-28T13:14:08</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:14:08.699</t>
+  </si>
+  <si>
+    <t>knixld14tibrcyat667m5kd2oa65bw1lgz5</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:14:12.571</t>
+  </si>
+  <si>
+    <t>WA1VAAF72KD018390</t>
+  </si>
+  <si>
+    <t>2018-12-28T13:15:05</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:15:08.585</t>
+  </si>
+  <si>
+    <t>9u6695dt959uxry2a3029ceo76eo4ohbtf6</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:15:12.493</t>
+  </si>
+  <si>
+    <t>2018-12-28T13:16:05</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:16:09.181</t>
+  </si>
+  <si>
+    <t>9vc1ntzrbxl53623c28f7yg1gp6r5438i1e</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:16:12.810</t>
+  </si>
+  <si>
+    <t>WBY7Z4C56JVD97321</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:16:21</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:16:25.339</t>
+  </si>
+  <si>
+    <t>g1yio25l2rz84i6so6ct8k4vhn0mb41in5u</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:16:28.889</t>
+  </si>
+  <si>
+    <t>WAUENAF4XJA166476</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:16:35</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:16:39.725</t>
+  </si>
+  <si>
+    <t>3ok6o156xbd055f900h8oaiw7y0778z3d40</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:16:43.265</t>
+  </si>
+  <si>
+    <t>WBA4J3C5XKBL08272</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:16:50</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:16:57.123</t>
+  </si>
+  <si>
+    <t>6o69y2y84fx68hvzkd29a0780iihq9zl94f</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:17:00.665</t>
+  </si>
+  <si>
+    <t>WBS3S7C58KAC09552</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:17:06</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:17:13.685</t>
+  </si>
+  <si>
+    <t>un23av2ob3j2o3igxk9ipix8pv51y3hand5</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:17:17.281</t>
+  </si>
+  <si>
+    <t>WBXHT3C39J5L29336</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:17:24</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:17:31.847</t>
+  </si>
+  <si>
+    <t>pb3qjp4884ca0184zu7pm5r6qgz122enjlu</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:17:35.692</t>
+  </si>
+  <si>
+    <t>WAUF8AFC8JN054187</t>
+  </si>
+  <si>
+    <t>2018-12-28T13:18:05</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:18:09.844</t>
+  </si>
+  <si>
+    <t>xb7img8mr5q1mzdwo3m7epadfly73q9d722</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:18:13.867</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:18:40</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:18:47.465</t>
+  </si>
+  <si>
+    <t>6bq9fe5wv6q25z2v74roe132rpotp2qnd0z</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:18:51.070</t>
+  </si>
+  <si>
+    <t>WA18NAF4XJA041486</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:19:17</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:19:24.873</t>
+  </si>
+  <si>
+    <t>0zzbu8f687r6u149v04o8zi00v6e479ni8j</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:19:28.353</t>
+  </si>
+  <si>
+    <t>WBS8M9C58J5L00286</t>
+  </si>
+  <si>
+    <t>2018-12-28T13:19:34</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:19:40.208</t>
+  </si>
+  <si>
+    <t>2biwo8p8zhri3upv0s7dwccmg77j827v9v3</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:19:44.224</t>
+  </si>
+  <si>
+    <t>WBAJA5C51KWW03669</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:20:12</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:20:17.620</t>
+  </si>
+  <si>
+    <t>8fw08fm46842107p3x70leyi7bo15q3nn1b</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:20:21.293</t>
+  </si>
+  <si>
+    <t>2018-12-28T13:21:06</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:21:11.002</t>
+  </si>
+  <si>
+    <t>px6tc1s34xvktceypjy29w182o82n726w0p</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:21:14.515</t>
+  </si>
+  <si>
+    <t>2018-12-28T13:22:06</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:22:09.048</t>
+  </si>
+  <si>
+    <t>ow180qt7v79n929g2mnk8vu4cjf7ikv1979</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:22:12.753</t>
+  </si>
+  <si>
+    <t>3bd9dc580a0a00de6a568762d66fa01a57t</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:22:18.366</t>
+  </si>
+  <si>
+    <t>2018-12-28T13:23:05</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:23:09.845</t>
+  </si>
+  <si>
+    <t>54f5e6kw6x33kr9xy1m4ee8xs0s34zefpj1</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:23:13.535</t>
+  </si>
+  <si>
+    <t>04c16ffd0a0e0adf4d75c02155d62aedfwe</t>
+  </si>
+  <si>
+    <t>2018-12-21T13:23:18.344</t>
+  </si>
+  <si>
+    <t>2018-12-28T13:24:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:54:19.995</t>
+  </si>
+  <si>
+    <t>gtqn84nr32r001o5xh5j5v90y229m2avay6</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:54:25.035</t>
+  </si>
+  <si>
+    <t>5UXTR7C53KLF31098</t>
+  </si>
+  <si>
+    <t>2018-12-31T12:55:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:55:09.201</t>
+  </si>
+  <si>
+    <t>q76wp18ab16k8wt4k1b0t4xqwhq764ifiii</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:55:14.376</t>
+  </si>
+  <si>
+    <t>5UXKR0C50JL077293</t>
+  </si>
+  <si>
+    <t>2018-12-31T12:56:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:56:09.166</t>
+  </si>
+  <si>
+    <t>48472sqx3b4b1z5iq7he2l00b7pw24wxtq4</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:56:12.882</t>
+  </si>
+  <si>
+    <t>cf5c3eb30a0e0a6b6c3308db22775a31x87</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:56:21.117</t>
+  </si>
+  <si>
+    <t>WA1LAAF74KD017491</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:56:22</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:56:29.179</t>
+  </si>
+  <si>
+    <t>tp0amx4ner0kx0l89255v1gop26r43zvi8n</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:56:33.069</t>
+  </si>
+  <si>
+    <t>0c96ac890a0a00f97867b4f2aef73eb1yt5</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:56:38.750</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:56:39</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:56:46.781</t>
+  </si>
+  <si>
+    <t>xec66n07ybd94zd79hp667bix7tt589580f</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:56:50.543</t>
+  </si>
+  <si>
+    <t>WBXHT3C34J5L34024</t>
+  </si>
+  <si>
+    <t>2018-12-31T12:57:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:57:07.653</t>
+  </si>
+  <si>
+    <t>1le6wlz5z73fc5p9rr9kpw6kc59me9w0wtv</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:57:11.462</t>
+  </si>
+  <si>
+    <t>WBS8M9C52J5K99667</t>
+  </si>
+  <si>
+    <t>2018-12-31T12:58:08</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:58:10.237</t>
+  </si>
+  <si>
+    <t>op5ybvc99q7t9lkx2r340zesk9ix2776s29</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:58:14.098</t>
+  </si>
+  <si>
+    <t>WA1A4AFY6J2184663</t>
+  </si>
+  <si>
+    <t>2018-12-31T12:59:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:59:08.210</t>
+  </si>
+  <si>
+    <t>3d38yklmr425c41g0h2t2j7ddmyaz4mx542</t>
+  </si>
+  <si>
+    <t>2018-12-24T12:59:12.084</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:00:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:00:08.110</t>
+  </si>
+  <si>
+    <t>t4rm3ig82y5oqikv529x873wpjk0639k70q</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:00:11.961</t>
+  </si>
+  <si>
+    <t>5UXTR7C52KLF27656</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:00:22</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:00:26.704</t>
+  </si>
+  <si>
+    <t>k8f5727rhts5va6093bpuor7vp60vgt772e</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:00:30.540</t>
+  </si>
+  <si>
+    <t>WAUC4AF41KA005607</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:00:37</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:00:41.875</t>
+  </si>
+  <si>
+    <t>ut4n4dlxw19lyusij3aek6hpgg8upd1cjfa</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:00:45.698</t>
+  </si>
+  <si>
+    <t>WBXHU7C38J3H43761</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:00:53</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:01:00.818</t>
+  </si>
+  <si>
+    <t>k07ydy486935e392r9002duh1mhnqpm6rfh</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:01:04.651</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:01:11</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:01:20.820</t>
+  </si>
+  <si>
+    <t>5t4p18u5t7b5s695sl4yn2hcff7w7q0tw9i</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:01:24.990</t>
+  </si>
+  <si>
+    <t>5UXCR6C54KLB12509</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:01:32</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:01:39.805</t>
+  </si>
+  <si>
+    <t>ke3x37nvji40dwf3r5k3vcmf99at3z2r5xl</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:01:43.691</t>
+  </si>
+  <si>
+    <t>WAU5ULFF3J1080443</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:01:50</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:01:57.688</t>
+  </si>
+  <si>
+    <t>d67665fik08x9zt87k765gfgihw80kl0grx</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:02:01.534</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:02:09</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:02:16.210</t>
+  </si>
+  <si>
+    <t>mb9op4fy4q3mx184pcv8tk8yt69kdmpn815</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:02:22.695</t>
+  </si>
+  <si>
+    <t>WA1BNAFY6J2234110</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:02:29</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:02:36.077</t>
+  </si>
+  <si>
+    <t>m975ho2g8lc0gx8638u0j535ujat517pbr8</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:02:43.460</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:02:50</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:02:56.337</t>
+  </si>
+  <si>
+    <t>8743zjc7e4x8b4tgt0q2jp2is6bp5w6sg79</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:03:00.167</t>
+  </si>
+  <si>
+    <t>WBXHT3C3XJ5K28175</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:03:09</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:03:15.147</t>
+  </si>
+  <si>
+    <t>ix1m75nel75j5t4uczzd769x67734p6id9u</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:03:19.232</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:04:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:04:09.699</t>
+  </si>
+  <si>
+    <t>kd43w7jj37v4pkv9em9bw702uty5983hxv7</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:04:14.047</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:05:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:05:10.521</t>
+  </si>
+  <si>
+    <t>wvf62n80v5vf870t9k08b3uwvm9f1ws1g59</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:05:14.256</t>
+  </si>
+  <si>
+    <t>3bd9dc580a0a00de6a568762d66fa01aree</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:05:18.873</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:06:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:06:10.255</t>
+  </si>
+  <si>
+    <t>h9381xjcngrh0931mae8r75u3um7vimf0yh</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:06:13.981</t>
+  </si>
+  <si>
+    <t>04c16ffd0a0e0adf4d75c02155d62aedmvj</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:06:18.561</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:07:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:11:38.947</t>
+  </si>
+  <si>
+    <t>57txqc5kfl0wfhr49y146j4l795pia58qdd</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:11:43.002</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:12:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:12:09.578</t>
+  </si>
+  <si>
+    <t>dpqyq93etfo31m4l028l4ptb783e16ho7q7</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:12:13.340</t>
+  </si>
+  <si>
+    <t>WBA4J1C51KBM14971</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:13:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:13:09.618</t>
+  </si>
+  <si>
+    <t>7h510703bamd1qh5b8pdk4j10134s2y12wu</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:13:13.364</t>
+  </si>
+  <si>
+    <t>5UXTR7C5XKLF31468</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:14:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:14:10.043</t>
+  </si>
+  <si>
+    <t>iqn2m0n46wl86xb384w228x4l928ddapdc1</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:14:13.779</t>
+  </si>
+  <si>
+    <t>WBA8E5G57JNV03223</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:15:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:15:09.239</t>
+  </si>
+  <si>
+    <t>n6855n2gvemfsn1wx8ott648d8vfd63otu1</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:15:13.219</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:16:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:16:09.802</t>
+  </si>
+  <si>
+    <t>yi6te1sinv01muub1phu5w2g3zm4u72rpbt</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:16:13.517</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:17:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:17:10.632</t>
+  </si>
+  <si>
+    <t>b0b2n8jf7tdiv37a3fl30va1u22t4c2xe32</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:17:14.394</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:18:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:18:08.869</t>
+  </si>
+  <si>
+    <t>h9es2jh7tnygthv4kijeguc6755f097jowy</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:18:12.542</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:19:11</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:19:15.681</t>
+  </si>
+  <si>
+    <t>9bu03637c114ijf80f1y8k86s3231nbj669</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:19:19.521</t>
+  </si>
+  <si>
+    <t>cf5c3bc80a0e0a6b6c3308dbf861e322s2y</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:19:25.640</t>
+  </si>
+  <si>
+    <t>WA1AAAF74KD017501</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:19:27</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:19:33.683</t>
+  </si>
+  <si>
+    <t>wa4836nn8f8pa2tqeko8g55hfvexqcy7q62</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:19:37.483</t>
+  </si>
+  <si>
+    <t>d95af19f0a0e0a17623e2bdd237cbb4aay3</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:19:44.214</t>
+  </si>
+  <si>
+    <t>WA1AVAF12KD010255</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:19:45</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:19:52.427</t>
+  </si>
+  <si>
+    <t>kqg91e3krkzastb7498r8rgwe2xrq5144h0</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:19:56.180</t>
+  </si>
+  <si>
+    <t>WBAJE7C50JWC56031</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:21:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:21:11.178</t>
+  </si>
+  <si>
+    <t>fr39zkdso74yhhb85267mj1123m9mamh470</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:21:14.973</t>
+  </si>
+  <si>
+    <t>WBS8M9C53J5L01099</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:22:08</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:22:09.079</t>
+  </si>
+  <si>
+    <t>6z46d1y9y640723escp5mgk3chr6cjvk1wo</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:22:12.868</t>
+  </si>
+  <si>
+    <t>WAUENAF43JA134047</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:23:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:23:08.913</t>
+  </si>
+  <si>
+    <t>6uw3q9p64kj6z69c258l422p1rynq2i99ts</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:23:12.687</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:24:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:24:09.858</t>
+  </si>
+  <si>
+    <t>h2lqnm13oq4h1oqeli8q9bo5f65bk8r63br</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:24:13.747</t>
+  </si>
+  <si>
+    <t>WBA8D9G3XHNU63688</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:24:22</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:24:26.675</t>
+  </si>
+  <si>
+    <t>bwjdm5ht4cxvlfsi77l0oe6r2kvx9tzq6h5</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:24:30.442</t>
+  </si>
+  <si>
+    <t>WAUENAF49JA233939</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:24:38</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:24:42.173</t>
+  </si>
+  <si>
+    <t>cf50ujsdjqh53qpsm5usn0h38a26a0g4p6r</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:24:45.958</t>
+  </si>
+  <si>
+    <t>WBA8E1G55JNU92523</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:24:59</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:25:02.197</t>
+  </si>
+  <si>
+    <t>o8734egtj67934zf66owg6w3x7r62961t6w</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:25:06.021</t>
+  </si>
+  <si>
+    <t>WA1HCCFS7JR029877</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:25:14</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:25:17.379</t>
+  </si>
+  <si>
+    <t>g17b01shz9keu4clc55dqnx5wvdzi6h8kk0</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:25:21.141</t>
+  </si>
+  <si>
+    <t>WBAJE7C58JWD49914</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:25:29</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:25:32.891</t>
+  </si>
+  <si>
+    <t>g9qlq34tmbll9593jep13ixb162mxo542gl</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:25:36.598</t>
+  </si>
+  <si>
+    <t>WAUSPBFFXJA105679</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:25:43</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:25:47.870</t>
+  </si>
+  <si>
+    <t>q56asys9fj972pb28gx18quysx2pt4y02u6</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:25:51.616</t>
+  </si>
+  <si>
+    <t>5UXTR9C57KLE18914</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:26:01</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:26:05.912</t>
+  </si>
+  <si>
+    <t>l8ij8gnhrca990ol1hbuhgceffndur3tql2</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:26:09.552</t>
+  </si>
+  <si>
+    <t>WA1JCCFS7JR023093</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:26:17</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:26:20.738</t>
+  </si>
+  <si>
+    <t>w5e4v96k40wjsdm0eip6963t2a5q09z1l0q</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:26:24.435</t>
+  </si>
+  <si>
+    <t>5UXWZ7C33H0V92096</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:26:32</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:26:38.592</t>
+  </si>
+  <si>
+    <t>1p23cnp794rtpyik16l4pvexk1uyxr8jys0</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:26:42.330</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:26:49</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:26:57.654</t>
+  </si>
+  <si>
+    <t>gwe7sbssaegbu1af1fl11ew63s0unk39wkc</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:27:01.426</t>
+  </si>
+  <si>
+    <t>5UXUJ3C50KLG52630</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:27:09</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:27:17.166</t>
+  </si>
+  <si>
+    <t>2y9vnjkmt50zvw1i2ie25vppzrd1x622f81</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:27:20.827</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:27:28</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:27:36.188</t>
+  </si>
+  <si>
+    <t>j653cdj7xblb43499y21gofi6450tdhp0e4</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:27:39.905</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:27:46</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:27:53.937</t>
+  </si>
+  <si>
+    <t>0n799hh7zr7sy3dt5468hcd02315q8m3lkd</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:28:00.888</t>
+  </si>
+  <si>
+    <t>WAU23AFC0JN062703</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:28:10</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:28:16.893</t>
+  </si>
+  <si>
+    <t>ped2hkf413g01fcnkuu1z4zaw9276t9d78z</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:28:20.569</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:28:27</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:28:32.843</t>
+  </si>
+  <si>
+    <t>hvwb8hn5qkq32gc0s0sy79zkof7v0cmyui5</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:28:36.571</t>
+  </si>
+  <si>
+    <t>WBA7F0C57KGM25503</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:28:44</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:28:50.650</t>
+  </si>
+  <si>
+    <t>g99ur5ll1ry774104n8i8lfsr6ux9p9dtnz</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:28:54.367</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:29:03</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:29:07.607</t>
+  </si>
+  <si>
+    <t>heu97hkz5awbh9swl9w0a25319tzv465eu2</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:29:11.295</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:29:19</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:29:24.639</t>
+  </si>
+  <si>
+    <t>g7oyvz2l21l4k1h2bw46r16346039pl3xm9</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:29:28.339</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:29:50</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:29:57.454</t>
+  </si>
+  <si>
+    <t>cfagszyp54j15mb6vzpkrs0r2v31g4t3817</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:30:03.939</t>
+  </si>
+  <si>
+    <t>5UXTS3C50K0Z08157</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:30:11</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:30:17.048</t>
+  </si>
+  <si>
+    <t>eghvz6ofjly68wh69i1468p07hu383fve97</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:30:21.411</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:30:29</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:30:33.741</t>
+  </si>
+  <si>
+    <t>3xyfp17jv9hg97x0wn23tkl579ka4wt2hfz</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:30:37.433</t>
+  </si>
+  <si>
+    <t>WA1JCCFS3JR030266</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:30:44</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:30:49.748</t>
+  </si>
+  <si>
+    <t>769n62u7rs542lpp2d59267bbc5d9lef701</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:30:53.447</t>
+  </si>
+  <si>
+    <t>WBS8M9C58J5L71813</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:31</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:31:07.239</t>
+  </si>
+  <si>
+    <t>6dm991k2ea440f2vzkgq9zbbnb0j17765vf</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:31:10.892</t>
+  </si>
+  <si>
+    <t>WBA8D9C54JEM32238</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:31:18</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:31:25.312</t>
+  </si>
+  <si>
+    <t>76cv96r320w1q9q12ebb15lpf4f2620bal6</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:31:29.284</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:31:35</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:31:40.869</t>
+  </si>
+  <si>
+    <t>l0huj5w1v5ua76s5hly8819g9s9mq9f0ggq</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:31:44.651</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:31:54</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:31:59.489</t>
+  </si>
+  <si>
+    <t>83b3fq3524mtoav5bnyt85ypn0gix72u3xw</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:32:05.907</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:33:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:33:10.866</t>
+  </si>
+  <si>
+    <t>w455cp0z863xh589kgareh81l6ntt0dq8i5</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:33:15.937</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:34:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:34:11.687</t>
+  </si>
+  <si>
+    <t>z34181x2by83ns25jo4nnv91cj570zvhi9l</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:34:15.421</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:35:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:35:13.013</t>
+  </si>
+  <si>
+    <t>bftxghmk1nsn5y9qspr00s6d861i64eqn9k</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:35:16.818</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:36:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:36:08.476</t>
+  </si>
+  <si>
+    <t>379yv5x01k3ktr64ypg79x89c22rn2x97yk</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:36:14.954</t>
+  </si>
+  <si>
+    <t>3bd9dc580a0a00de6a568762d66fa01awtp</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:36:20.520</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:37:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:37:13.777</t>
+  </si>
+  <si>
+    <t>5014snb4l9w7o480och79j7c8g2y4x037v3</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:37:17.525</t>
+  </si>
+  <si>
+    <t>04c16ffd0a0e0adf4d75c02155d62aed2b8</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:37:22.390</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:38:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:38:10.320</t>
+  </si>
+  <si>
+    <t>gbe9jhqvf2xlix8rbn3lkk2m75ttka68l10</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:38:17.144</t>
+  </si>
+  <si>
+    <t>3bd9dc580a0a00de6a568762d66fa01aa98</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:38:37.624</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:39:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:39:09.266</t>
+  </si>
+  <si>
+    <t>q8121i8xkrw46t65eo5apc7g74ba8qo99s9</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:39:14.883</t>
+  </si>
+  <si>
+    <t>04c16ffd0a0e0adf4d75c02155d62aeds3e</t>
+  </si>
+  <si>
+    <t>2018-12-24T13:39:22.668</t>
+  </si>
+  <si>
+    <t>2018-12-31T13:40:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:02:16.656</t>
+  </si>
+  <si>
+    <t>8990wtx2i99mdf10wr0t13lat9yyfu6thqk</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:02:20.665</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:03:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:03:08.866</t>
+  </si>
+  <si>
+    <t>gtsu077ozlrh71d55id3zgqbn3sj27710c1</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:03:12.843</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:04:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:04:08.649</t>
+  </si>
+  <si>
+    <t>gq3rbosil28swq04ms0ksl3he63w7chu36d</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:04:12.833</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:05:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:05:09.640</t>
+  </si>
+  <si>
+    <t>o147396jj4ih66rdzsap0x137hj7e3zoz27</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:05:13.756</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:06:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:06:08.676</t>
+  </si>
+  <si>
+    <t>2kcr0zi8alr89sn38mkqya03xs86l3d64uz</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:06:12.626</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:07:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:07:09.872</t>
+  </si>
+  <si>
+    <t>k300isjt407283l01c2jv19or3umi145n05</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:07:13.782</t>
+  </si>
+  <si>
+    <t>WBA7E2C52JG742179</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:08:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:08:09.545</t>
+  </si>
+  <si>
+    <t>7l42499l937jp5w7cr2fg86e1wo3hbkrsh4</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:08:13.664</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:09:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:09:09.330</t>
+  </si>
+  <si>
+    <t>7ix181f0aq38t93jql5ntc0lhnyk658y37c</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:09:14.231</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:10:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:10:08.742</t>
+  </si>
+  <si>
+    <t>lwh660c6jf14q60vdbq2lb053n9k202gkm3</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:10:13.125</t>
+  </si>
+  <si>
+    <t>0c94cab40a0a00f97867b4f282988a4foee</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:10:25.655</t>
+  </si>
+  <si>
+    <t>WAUAUGFF8J1006540</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:10:26</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:10:34.531</t>
+  </si>
+  <si>
+    <t>x201jyd7b623m63kzie2g407thm5w2cno8t</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:10:38.820</t>
+  </si>
+  <si>
+    <t>8d5a2e460a0a024e7ecf2fc94b560d58tsc</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:10:45.343</t>
+  </si>
+  <si>
+    <t>WAULFAFR8CA002602</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:10:46</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:10:54.497</t>
+  </si>
+  <si>
+    <t>vpkl7222u0l0cw5118b6xtfktmsrx69ig0n</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:10:58.492</t>
+  </si>
+  <si>
+    <t>5UXKR2C34H0X03692</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:12:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:12:09.302</t>
+  </si>
+  <si>
+    <t>o5i1admv19alb1rdwd3t0ck0j24eae40854</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:12:13.220</t>
+  </si>
+  <si>
+    <t>WBS8M9C56J5L01081</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:13:08</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:13:09.372</t>
+  </si>
+  <si>
+    <t>bkcfcz4l80bd9g2u3r28jdy6v1482fc4201</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:13:14.028</t>
+  </si>
+  <si>
+    <t>WA1JCCFS0JR017572</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:14:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:14:11.192</t>
+  </si>
+  <si>
+    <t>g0po0op9fkn3nljqq53iz63y9wqz4pk1amk</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:14:15.112</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:15:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:15:11.162</t>
+  </si>
+  <si>
+    <t>c45y2398b01nf68fv0g574tyj99piv29nxl</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:15:15.309</t>
+  </si>
+  <si>
+    <t>5UXTS3C56J0Z01194</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:15:24</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:15:30.472</t>
+  </si>
+  <si>
+    <t>46euz29kl9wvriwe7ql8bg1x4270u6ys2oh</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:15:34.623</t>
+  </si>
+  <si>
+    <t>WA1VAAF7XJD041320</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:15:43</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:15:47.139</t>
+  </si>
+  <si>
+    <t>s1dbc40e4th4wt84dw99by945x4qan59w2s</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:15:51.447</t>
+  </si>
+  <si>
+    <t>WBAJE7C59KWW13334</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:16:01</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:16:06.328</t>
+  </si>
+  <si>
+    <t>qpkdr7g8862zn3132k9f2v37doggtoivkha</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:16:13.250</t>
+  </si>
+  <si>
+    <t>WAUTPBFF8JA058141</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:16:23</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:16:28.861</t>
+  </si>
+  <si>
+    <t>98kefjj53l0u6feo3125c9lrg370f36tv70</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:16:32.754</t>
+  </si>
+  <si>
+    <t>5UXCR6C50KLK83691</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:16:40</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:16:46.368</t>
+  </si>
+  <si>
+    <t>0ilap567z00rrg8yg4a0x00693p1221pn3k</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:16:50.551</t>
+  </si>
+  <si>
+    <t>WAUJ8GFF2J1016243</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:16:58</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:17:02.468</t>
+  </si>
+  <si>
+    <t>7hx5v4sutclfl03n6751vea01h31yp65xjg</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:17:06.511</t>
+  </si>
+  <si>
+    <t>WBXHT3C35J5L33660</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:17:17</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:17:20.547</t>
+  </si>
+  <si>
+    <t>5u577e2p1sw12s2ttom2yl2541nb8o3uys2</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:17:24.380</t>
+  </si>
+  <si>
+    <t>WA1LAAF72KD002956</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:17:31</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:17:36.396</t>
+  </si>
+  <si>
+    <t>796mqwka7cn809ri7r2uus84b4d0bpkexg4</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:17:40.452</t>
+  </si>
+  <si>
+    <t>WBA8B3C55JK843345</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:17:48</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:17:55.163</t>
+  </si>
+  <si>
+    <t>x968wjpa3ih32hy2t2lhw94v5me0a675zpm</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:17:59.062</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:18:09</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:18:16.334</t>
+  </si>
+  <si>
+    <t>ys0k853y9vzjslrkobdk5g7bm1i5ljwj8y3</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:18:20.121</t>
+  </si>
+  <si>
+    <t>WBA8B3C51JK384671</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:18:28</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:18:34.630</t>
+  </si>
+  <si>
+    <t>uw4h24gl2g0x4p2kruym589u5u09oa61f03</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:18:38.352</t>
+  </si>
+  <si>
+    <t>WAUENAF44JA126104</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:18:45</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:18:51.669</t>
+  </si>
+  <si>
+    <t>y0x8t7d1vhd6aw751o2s1lilg49i37rpjam</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:18:55.784</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:19:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:19:10.663</t>
+  </si>
+  <si>
+    <t>6h4n76t4jvwup8s3635w80u61gz5bdkevan</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:19:17.337</t>
+  </si>
+  <si>
+    <t>WAUGUGFF6J1034881</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:19:27</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:19:33.525</t>
+  </si>
+  <si>
+    <t>mmb9jjw82y9c51tshl6hrxx7l501818x4qx</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:19:37.444</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:19:46</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:19:51.750</t>
+  </si>
+  <si>
+    <t>d764987hdahv96hbj82etjs0emszz3krae8</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:19:55.952</t>
+  </si>
+  <si>
+    <t>WBA8E5C55JA507669</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:20:08</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:20:15.890</t>
+  </si>
+  <si>
+    <t>7dnr4ju6hcb56uzsn4vc64x21r7755qt4o5</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:20:20.399</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:20:27</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:20:32.215</t>
+  </si>
+  <si>
+    <t>t06zz7s8ldsqw614peax8wvv7ar8p1b8fv9</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:20:38.409</t>
+  </si>
+  <si>
+    <t>WA1BNAFY5J2159660</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:20:48</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:20:53.640</t>
+  </si>
+  <si>
+    <t>m83mu88j38vy4xdvnd39lc53g4pwwa1it6l</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:20:57.913</t>
+  </si>
+  <si>
+    <t>WBS3S7C50KAC09402</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:21:11</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:21:18.945</t>
+  </si>
+  <si>
+    <t>1q1kj51x47mk203owsqhkx50w7z8l1t2wc7</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:21:23.393</t>
+  </si>
+  <si>
+    <t>5UXTR9C50KLE16194</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:21:35</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:21:40.539</t>
+  </si>
+  <si>
+    <t>5a6zviiww9j8df21phe38auud226xwgl148</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:21:44.671</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:21:51</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:21:58.476</t>
+  </si>
+  <si>
+    <t>lrku9lpig05npz3ux021kg1245fqpk4d345</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:22:02.602</t>
+  </si>
+  <si>
+    <t>WA1JCCFS3JR017436</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:22:12</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:22:19.616</t>
+  </si>
+  <si>
+    <t>zx36apia6979lo80q3wr87xxy8540puv13z</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:22:23.725</t>
+  </si>
+  <si>
+    <t>WBS3S7C57KAC09459</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:22:30</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:22:36.940</t>
+  </si>
+  <si>
+    <t>io7bl2xbkkp7k0n71prf01ktof039g6ceb9</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:22:41.430</t>
+  </si>
+  <si>
+    <t>yxek00j1t7kn4a4tq8ayb0edh520q84s543</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:23:08.999</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:23:23</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:23:30.800</t>
+  </si>
+  <si>
+    <t>ww286jput6l65949c576t9n7ri1n2lh1o3u</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:23:34.657</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:23:42</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:23:50.888</t>
+  </si>
+  <si>
+    <t>8sruqhp5886ok57shw3ur16yks0t65w88bh</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:23:55.095</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:24:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:24:09.085</t>
+  </si>
+  <si>
+    <t>36u55gxl2gd49f6907a236gi55olodvvnwu</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:24:12.935</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:25:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:25:11.481</t>
+  </si>
+  <si>
+    <t>2x7a398mw67mijmuhpbmidj9bsji9njppm9</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:25:16.472</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:26:06</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:26:08.733</t>
+  </si>
+  <si>
+    <t>4sl85pzh4nis6b8wbj2pk7zf6o82hny83x4</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:26:12.828</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:27:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:27:09.033</t>
+  </si>
+  <si>
+    <t>9cxr7j95ao0i3ljq0ed7pbbyy6x8td77dga</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:27:13.134</t>
+  </si>
+  <si>
+    <t>3bd9dc580a0a00de6a568762d66fa01ah6z</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:27:19.277</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:28:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:28:09.025</t>
+  </si>
+  <si>
+    <t>1wk440hq9ex918gdh8x41ird3itbmkh0c09</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:28:13.097</t>
+  </si>
+  <si>
+    <t>04c16ffd0a0e0adf4d75c02155d62aedcae</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:28:36.182</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:29:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:29:12.401</t>
+  </si>
+  <si>
+    <t>6h1p0v7y581g19rx1b7ej809wiuqd06go86</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:29:19.814</t>
+  </si>
+  <si>
+    <t>3bd9dc580a0a00de6a568762d66fa01adzv</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:29:26.949</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:30:05</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:30:11.125</t>
+  </si>
+  <si>
+    <t>10hodjkz5i77cf7q70jbtq9hf9567uq18w2</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:30:14.947</t>
+  </si>
+  <si>
+    <t>04c16ffd0a0e0adf4d75c02155d62aedodj</t>
+  </si>
+  <si>
+    <t>2018-12-24T14:30:19.687</t>
   </si>
 </sst>
 </file>
@@ -53575,6 +55600,1286 @@
         <v>8439</v>
       </c>
     </row>
+    <row r="2671">
+      <c r="A2671" t="s">
+        <v>8443</v>
+      </c>
+      <c r="B2671" t="s">
+        <v>8444</v>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="s">
+        <v>8447</v>
+      </c>
+      <c r="B2672" t="s">
+        <v>8448</v>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="s">
+        <v>8452</v>
+      </c>
+      <c r="B2673" t="s">
+        <v>8453</v>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="s">
+        <v>8454</v>
+      </c>
+      <c r="B2674" t="s">
+        <v>8455</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="s">
+        <v>8459</v>
+      </c>
+      <c r="B2675" t="s">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="s">
+        <v>8461</v>
+      </c>
+      <c r="B2676" t="s">
+        <v>8462</v>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="s">
+        <v>8466</v>
+      </c>
+      <c r="B2677" t="s">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="s">
+        <v>8471</v>
+      </c>
+      <c r="B2678" t="s">
+        <v>8472</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="s">
+        <v>8476</v>
+      </c>
+      <c r="B2679" t="s">
+        <v>8477</v>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="s">
+        <v>8481</v>
+      </c>
+      <c r="B2680" t="s">
+        <v>8482</v>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="s">
+        <v>8485</v>
+      </c>
+      <c r="B2681" t="s">
+        <v>8486</v>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="s">
+        <v>8490</v>
+      </c>
+      <c r="B2682" t="s">
+        <v>8491</v>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="s">
+        <v>8495</v>
+      </c>
+      <c r="B2683" t="s">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="s">
+        <v>8500</v>
+      </c>
+      <c r="B2684" t="s">
+        <v>8501</v>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="s">
+        <v>8505</v>
+      </c>
+      <c r="B2685" t="s">
+        <v>8506</v>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="s">
+        <v>8510</v>
+      </c>
+      <c r="B2686" t="s">
+        <v>8511</v>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="s">
+        <v>8515</v>
+      </c>
+      <c r="B2687" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="s">
+        <v>8519</v>
+      </c>
+      <c r="B2688" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="s">
+        <v>8524</v>
+      </c>
+      <c r="B2689" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" t="s">
+        <v>8529</v>
+      </c>
+      <c r="B2690" t="s">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="s">
+        <v>8534</v>
+      </c>
+      <c r="B2691" t="s">
+        <v>8535</v>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="s">
+        <v>8538</v>
+      </c>
+      <c r="B2692" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="s">
+        <v>8542</v>
+      </c>
+      <c r="B2693" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="s">
+        <v>8544</v>
+      </c>
+      <c r="B2694" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="s">
+        <v>8548</v>
+      </c>
+      <c r="B2695" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="s">
+        <v>8550</v>
+      </c>
+      <c r="B2696" t="s">
+        <v>8551</v>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" t="s">
+        <v>8554</v>
+      </c>
+      <c r="B2697" t="s">
+        <v>8555</v>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" t="s">
+        <v>8559</v>
+      </c>
+      <c r="B2698" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="s">
+        <v>8564</v>
+      </c>
+      <c r="B2699" t="s">
+        <v>8565</v>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" t="s">
+        <v>8566</v>
+      </c>
+      <c r="B2700" t="s">
+        <v>8567</v>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" t="s">
+        <v>8571</v>
+      </c>
+      <c r="B2701" t="s">
+        <v>8572</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="s">
+        <v>8573</v>
+      </c>
+      <c r="B2702" t="s">
+        <v>8574</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="s">
+        <v>8577</v>
+      </c>
+      <c r="B2703" t="s">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" t="s">
+        <v>8582</v>
+      </c>
+      <c r="B2704" t="s">
+        <v>8583</v>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" t="s">
+        <v>8587</v>
+      </c>
+      <c r="B2705" t="s">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" t="s">
+        <v>8592</v>
+      </c>
+      <c r="B2706" t="s">
+        <v>8593</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="s">
+        <v>8596</v>
+      </c>
+      <c r="B2707" t="s">
+        <v>8597</v>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" t="s">
+        <v>8601</v>
+      </c>
+      <c r="B2708" t="s">
+        <v>8602</v>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" t="s">
+        <v>8606</v>
+      </c>
+      <c r="B2709" t="s">
+        <v>8607</v>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" t="s">
+        <v>8611</v>
+      </c>
+      <c r="B2710" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="s">
+        <v>8615</v>
+      </c>
+      <c r="B2711" t="s">
+        <v>8616</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="s">
+        <v>8620</v>
+      </c>
+      <c r="B2712" t="s">
+        <v>8621</v>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="s">
+        <v>8625</v>
+      </c>
+      <c r="B2713" t="s">
+        <v>8626</v>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="s">
+        <v>8629</v>
+      </c>
+      <c r="B2714" t="s">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="s">
+        <v>8634</v>
+      </c>
+      <c r="B2715" t="s">
+        <v>8635</v>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="s">
+        <v>8638</v>
+      </c>
+      <c r="B2716" t="s">
+        <v>8639</v>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="s">
+        <v>8643</v>
+      </c>
+      <c r="B2717" t="s">
+        <v>8644</v>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="s">
+        <v>8647</v>
+      </c>
+      <c r="B2718" t="s">
+        <v>8648</v>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="s">
+        <v>8651</v>
+      </c>
+      <c r="B2719" t="s">
+        <v>8652</v>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="s">
+        <v>8653</v>
+      </c>
+      <c r="B2720" t="s">
+        <v>8654</v>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="s">
+        <v>8657</v>
+      </c>
+      <c r="B2721" t="s">
+        <v>8658</v>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" t="s">
+        <v>8659</v>
+      </c>
+      <c r="B2722" t="s">
+        <v>8660</v>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="s">
+        <v>8663</v>
+      </c>
+      <c r="B2723" t="s">
+        <v>8664</v>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" t="s">
+        <v>8667</v>
+      </c>
+      <c r="B2724" t="s">
+        <v>8668</v>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="s">
+        <v>8672</v>
+      </c>
+      <c r="B2725" t="s">
+        <v>8673</v>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="s">
+        <v>8677</v>
+      </c>
+      <c r="B2726" t="s">
+        <v>8678</v>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="s">
+        <v>8682</v>
+      </c>
+      <c r="B2727" t="s">
+        <v>8683</v>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="s">
+        <v>8686</v>
+      </c>
+      <c r="B2728" t="s">
+        <v>8687</v>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="s">
+        <v>8690</v>
+      </c>
+      <c r="B2729" t="s">
+        <v>8691</v>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="s">
+        <v>8694</v>
+      </c>
+      <c r="B2730" t="s">
+        <v>8695</v>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="s">
+        <v>8698</v>
+      </c>
+      <c r="B2731" t="s">
+        <v>8699</v>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="s">
+        <v>8700</v>
+      </c>
+      <c r="B2732" t="s">
+        <v>8701</v>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="s">
+        <v>8705</v>
+      </c>
+      <c r="B2733" t="s">
+        <v>8706</v>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="s">
+        <v>8707</v>
+      </c>
+      <c r="B2734" t="s">
+        <v>8708</v>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="s">
+        <v>8712</v>
+      </c>
+      <c r="B2735" t="s">
+        <v>8713</v>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="s">
+        <v>8717</v>
+      </c>
+      <c r="B2736" t="s">
+        <v>8718</v>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="s">
+        <v>8722</v>
+      </c>
+      <c r="B2737" t="s">
+        <v>8723</v>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="s">
+        <v>8727</v>
+      </c>
+      <c r="B2738" t="s">
+        <v>8728</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="s">
+        <v>8731</v>
+      </c>
+      <c r="B2739" t="s">
+        <v>8732</v>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="s">
+        <v>8736</v>
+      </c>
+      <c r="B2740" t="s">
+        <v>8737</v>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" t="s">
+        <v>8741</v>
+      </c>
+      <c r="B2741" t="s">
+        <v>8742</v>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" t="s">
+        <v>8746</v>
+      </c>
+      <c r="B2742" t="s">
+        <v>8747</v>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" t="s">
+        <v>8751</v>
+      </c>
+      <c r="B2743" t="s">
+        <v>8752</v>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" t="s">
+        <v>8756</v>
+      </c>
+      <c r="B2744" t="s">
+        <v>8757</v>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" t="s">
+        <v>8761</v>
+      </c>
+      <c r="B2745" t="s">
+        <v>8762</v>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="s">
+        <v>8766</v>
+      </c>
+      <c r="B2746" t="s">
+        <v>8767</v>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="s">
+        <v>8771</v>
+      </c>
+      <c r="B2747" t="s">
+        <v>8772</v>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="s">
+        <v>8776</v>
+      </c>
+      <c r="B2748" t="s">
+        <v>8777</v>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="s">
+        <v>8780</v>
+      </c>
+      <c r="B2749" t="s">
+        <v>8781</v>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="s">
+        <v>8785</v>
+      </c>
+      <c r="B2750" t="s">
+        <v>8786</v>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" t="s">
+        <v>8789</v>
+      </c>
+      <c r="B2751" t="s">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="s">
+        <v>8793</v>
+      </c>
+      <c r="B2752" t="s">
+        <v>8794</v>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="s">
+        <v>8798</v>
+      </c>
+      <c r="B2753" t="s">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="s">
+        <v>8802</v>
+      </c>
+      <c r="B2754" t="s">
+        <v>8803</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="s">
+        <v>8807</v>
+      </c>
+      <c r="B2755" t="s">
+        <v>8808</v>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="s">
+        <v>8811</v>
+      </c>
+      <c r="B2756" t="s">
+        <v>8812</v>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="s">
+        <v>8815</v>
+      </c>
+      <c r="B2757" t="s">
+        <v>8816</v>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="s">
+        <v>8819</v>
+      </c>
+      <c r="B2758" t="s">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="s">
+        <v>8824</v>
+      </c>
+      <c r="B2759" t="s">
+        <v>8825</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="s">
+        <v>8828</v>
+      </c>
+      <c r="B2760" t="s">
+        <v>8829</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="s">
+        <v>8833</v>
+      </c>
+      <c r="B2761" t="s">
+        <v>8834</v>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="s">
+        <v>8838</v>
+      </c>
+      <c r="B2762" t="s">
+        <v>8839</v>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="s">
+        <v>8843</v>
+      </c>
+      <c r="B2763" t="s">
+        <v>8844</v>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="s">
+        <v>8847</v>
+      </c>
+      <c r="B2764" t="s">
+        <v>8848</v>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="s">
+        <v>8851</v>
+      </c>
+      <c r="B2765" t="s">
+        <v>8852</v>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="s">
+        <v>8855</v>
+      </c>
+      <c r="B2766" t="s">
+        <v>8856</v>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="s">
+        <v>8859</v>
+      </c>
+      <c r="B2767" t="s">
+        <v>8860</v>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="s">
+        <v>8863</v>
+      </c>
+      <c r="B2768" t="s">
+        <v>8864</v>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" t="s">
+        <v>8867</v>
+      </c>
+      <c r="B2769" t="s">
+        <v>8868</v>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" t="s">
+        <v>8869</v>
+      </c>
+      <c r="B2770" t="s">
+        <v>8870</v>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" t="s">
+        <v>8873</v>
+      </c>
+      <c r="B2771" t="s">
+        <v>8874</v>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="s">
+        <v>8875</v>
+      </c>
+      <c r="B2772" t="s">
+        <v>8876</v>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="s">
+        <v>8879</v>
+      </c>
+      <c r="B2773" t="s">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" t="s">
+        <v>8881</v>
+      </c>
+      <c r="B2774" t="s">
+        <v>8882</v>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" t="s">
+        <v>8885</v>
+      </c>
+      <c r="B2775" t="s">
+        <v>8886</v>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" t="s">
+        <v>8887</v>
+      </c>
+      <c r="B2776" t="s">
+        <v>8888</v>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" t="s">
+        <v>8891</v>
+      </c>
+      <c r="B2777" t="s">
+        <v>8892</v>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" t="s">
+        <v>8895</v>
+      </c>
+      <c r="B2778" t="s">
+        <v>8896</v>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" t="s">
+        <v>8899</v>
+      </c>
+      <c r="B2779" t="s">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" t="s">
+        <v>8903</v>
+      </c>
+      <c r="B2780" t="s">
+        <v>8904</v>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" t="s">
+        <v>8907</v>
+      </c>
+      <c r="B2781" t="s">
+        <v>8908</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" t="s">
+        <v>8911</v>
+      </c>
+      <c r="B2782" t="s">
+        <v>8912</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" t="s">
+        <v>8916</v>
+      </c>
+      <c r="B2783" t="s">
+        <v>8917</v>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" t="s">
+        <v>8920</v>
+      </c>
+      <c r="B2784" t="s">
+        <v>8921</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" t="s">
+        <v>8924</v>
+      </c>
+      <c r="B2785" t="s">
+        <v>8925</v>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" t="s">
+        <v>8926</v>
+      </c>
+      <c r="B2786" t="s">
+        <v>8927</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" t="s">
+        <v>8931</v>
+      </c>
+      <c r="B2787" t="s">
+        <v>8932</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" t="s">
+        <v>8933</v>
+      </c>
+      <c r="B2788" t="s">
+        <v>8934</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" t="s">
+        <v>8938</v>
+      </c>
+      <c r="B2789" t="s">
+        <v>8939</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" t="s">
+        <v>8943</v>
+      </c>
+      <c r="B2790" t="s">
+        <v>8944</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" t="s">
+        <v>8948</v>
+      </c>
+      <c r="B2791" t="s">
+        <v>8949</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" t="s">
+        <v>8953</v>
+      </c>
+      <c r="B2792" t="s">
+        <v>8954</v>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" t="s">
+        <v>8957</v>
+      </c>
+      <c r="B2793" t="s">
+        <v>8958</v>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" t="s">
+        <v>8962</v>
+      </c>
+      <c r="B2794" t="s">
+        <v>8963</v>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" t="s">
+        <v>8967</v>
+      </c>
+      <c r="B2795" t="s">
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" t="s">
+        <v>8972</v>
+      </c>
+      <c r="B2796" t="s">
+        <v>8973</v>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" t="s">
+        <v>8977</v>
+      </c>
+      <c r="B2797" t="s">
+        <v>8978</v>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" t="s">
+        <v>8982</v>
+      </c>
+      <c r="B2798" t="s">
+        <v>8983</v>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" t="s">
+        <v>8987</v>
+      </c>
+      <c r="B2799" t="s">
+        <v>8988</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" t="s">
+        <v>8992</v>
+      </c>
+      <c r="B2800" t="s">
+        <v>8993</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" t="s">
+        <v>8997</v>
+      </c>
+      <c r="B2801" t="s">
+        <v>8998</v>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" t="s">
+        <v>9002</v>
+      </c>
+      <c r="B2802" t="s">
+        <v>9003</v>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" t="s">
+        <v>9006</v>
+      </c>
+      <c r="B2803" t="s">
+        <v>9007</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" t="s">
+        <v>9011</v>
+      </c>
+      <c r="B2804" t="s">
+        <v>9012</v>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" t="s">
+        <v>9016</v>
+      </c>
+      <c r="B2805" t="s">
+        <v>9017</v>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" t="s">
+        <v>9020</v>
+      </c>
+      <c r="B2806" t="s">
+        <v>9021</v>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" t="s">
+        <v>9025</v>
+      </c>
+      <c r="B2807" t="s">
+        <v>9026</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="s">
+        <v>9029</v>
+      </c>
+      <c r="B2808" t="s">
+        <v>9030</v>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" t="s">
+        <v>9034</v>
+      </c>
+      <c r="B2809" t="s">
+        <v>9035</v>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" t="s">
+        <v>9038</v>
+      </c>
+      <c r="B2810" t="s">
+        <v>9039</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" t="s">
+        <v>9043</v>
+      </c>
+      <c r="B2811" t="s">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="s">
+        <v>9048</v>
+      </c>
+      <c r="B2812" t="s">
+        <v>9049</v>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" t="s">
+        <v>9053</v>
+      </c>
+      <c r="B2813" t="s">
+        <v>9054</v>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" t="s">
+        <v>9057</v>
+      </c>
+      <c r="B2814" t="s">
+        <v>9058</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" t="s">
+        <v>9062</v>
+      </c>
+      <c r="B2815" t="s">
+        <v>9063</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="s">
+        <v>9067</v>
+      </c>
+      <c r="B2816" t="s">
+        <v>9068</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" t="s">
+        <v>9069</v>
+      </c>
+      <c r="B2817" t="s">
+        <v>9070</v>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" t="s">
+        <v>9073</v>
+      </c>
+      <c r="B2818" t="s">
+        <v>9074</v>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" t="s">
+        <v>9077</v>
+      </c>
+      <c r="B2819" t="s">
+        <v>9078</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" t="s">
+        <v>9081</v>
+      </c>
+      <c r="B2820" t="s">
+        <v>9082</v>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" t="s">
+        <v>9085</v>
+      </c>
+      <c r="B2821" t="s">
+        <v>9086</v>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" t="s">
+        <v>9089</v>
+      </c>
+      <c r="B2822" t="s">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" t="s">
+        <v>9093</v>
+      </c>
+      <c r="B2823" t="s">
+        <v>9094</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="s">
+        <v>9095</v>
+      </c>
+      <c r="B2824" t="s">
+        <v>9096</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="s">
+        <v>9099</v>
+      </c>
+      <c r="B2825" t="s">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" t="s">
+        <v>9101</v>
+      </c>
+      <c r="B2826" t="s">
+        <v>9102</v>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" t="s">
+        <v>9105</v>
+      </c>
+      <c r="B2827" t="s">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" t="s">
+        <v>9107</v>
+      </c>
+      <c r="B2828" t="s">
+        <v>9108</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" t="s">
+        <v>9111</v>
+      </c>
+      <c r="B2829" t="s">
+        <v>9112</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" t="s">
+        <v>9113</v>
+      </c>
+      <c r="B2830" t="s">
+        <v>9114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -93708,6 +97013,3620 @@
         <v>8435</v>
       </c>
     </row>
+    <row r="1341">
+      <c r="A1341" t="s">
+        <v>8438</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>8440</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>8441</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="s">
+        <v>8443</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>7259</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>8445</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>8446</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="s">
+        <v>8447</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>8449</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>8450</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>8451</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="s">
+        <v>8454</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>8456</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>8457</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>8458</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="s">
+        <v>8461</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>8463</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>8464</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>8465</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="s">
+        <v>8466</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>8468</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>8469</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="s">
+        <v>8471</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>8473</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>8474</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>8475</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="s">
+        <v>8476</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>8478</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>8479</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="s">
+        <v>8481</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>8483</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>8484</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="s">
+        <v>8485</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>8487</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>8488</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>8489</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="s">
+        <v>8490</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>8492</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>8493</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="s">
+        <v>8495</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>8497</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>8498</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>8499</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="s">
+        <v>8500</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>8502</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>8503</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>8504</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="s">
+        <v>8505</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>8507</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>8508</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>8509</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="s">
+        <v>8510</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>8512</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>8513</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="s">
+        <v>8515</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>8517</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>8518</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="s">
+        <v>8519</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>8521</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>8522</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="s">
+        <v>8524</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>8526</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>8527</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="s">
+        <v>8529</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>8531</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>8532</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>8533</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="s">
+        <v>8534</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>8536</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1360" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="s">
+        <v>8538</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>8540</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1361" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="s">
+        <v>8544</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>8546</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1362" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="s">
+        <v>8550</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>8552</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1363" t="s">
+        <v>8553</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="s">
+        <v>8554</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>8556</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>8557</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1364" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="s">
+        <v>8559</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>8561</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>8562</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>8563</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="s">
+        <v>8566</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>8568</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>8569</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>8570</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="s">
+        <v>8573</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>8575</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>8576</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="s">
+        <v>8577</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>8579</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>8580</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>8581</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="s">
+        <v>8582</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>8584</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>8585</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1369" t="s">
+        <v>8586</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="s">
+        <v>8587</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>8589</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>8590</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>8591</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="s">
+        <v>8592</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>8594</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>8595</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="s">
+        <v>8596</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>8598</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>8599</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1372" t="s">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="s">
+        <v>8601</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>8603</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>8604</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1373" t="s">
+        <v>8605</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="s">
+        <v>8606</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>8608</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>8609</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1374" t="s">
+        <v>8610</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="s">
+        <v>8611</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>6620</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>8613</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1375" t="s">
+        <v>8614</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="s">
+        <v>8615</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>8617</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>8618</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="s">
+        <v>8620</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>8622</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>8623</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>8624</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="s">
+        <v>8625</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>8627</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>8628</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="s">
+        <v>8629</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>8631</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>8632</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1379" t="s">
+        <v>8633</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="s">
+        <v>8634</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>8502</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>8636</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1380" t="s">
+        <v>8637</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="s">
+        <v>8638</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>8640</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>8641</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1381" t="s">
+        <v>8642</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="s">
+        <v>8643</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>8645</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1382" t="s">
+        <v>8646</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="s">
+        <v>8647</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>8649</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1383" t="s">
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="s">
+        <v>8653</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>8655</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>8656</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="s">
+        <v>8659</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>8661</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>8662</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="s">
+        <v>8663</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>6867</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>8665</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>8666</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="s">
+        <v>8667</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>8669</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>8670</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1387" t="s">
+        <v>8671</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="s">
+        <v>8672</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>8674</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>8675</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>8676</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="s">
+        <v>8677</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>8679</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>8680</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1389" t="s">
+        <v>8681</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="s">
+        <v>8682</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>4829</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>8684</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>8685</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="s">
+        <v>8686</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>8688</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1391" t="s">
+        <v>8689</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="s">
+        <v>8690</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>7245</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>8692</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>8693</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="s">
+        <v>8694</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>7259</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>8696</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1393" t="s">
+        <v>8697</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="s">
+        <v>8700</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>8702</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>8703</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1394" t="s">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="s">
+        <v>8707</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>8709</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>8710</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1395" t="s">
+        <v>8711</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="s">
+        <v>8712</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>8714</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>8715</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1396" t="s">
+        <v>8716</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="s">
+        <v>8717</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>8719</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>8720</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>8721</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="s">
+        <v>8722</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>8724</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>8725</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="s">
+        <v>8727</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>8729</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1399" t="s">
+        <v>8730</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="s">
+        <v>8731</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>8733</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>8734</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1400" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="s">
+        <v>8736</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>8738</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>8739</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="s">
+        <v>8741</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>8743</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>8744</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1402" t="s">
+        <v>8745</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="s">
+        <v>8746</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>8748</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>8749</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="s">
+        <v>8751</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>8753</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>8754</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>8755</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="s">
+        <v>8756</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>8758</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>8759</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1405" t="s">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="s">
+        <v>8761</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>8763</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>8764</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1406" t="s">
+        <v>8765</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="s">
+        <v>8766</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>8768</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>8769</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>8770</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="s">
+        <v>8771</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>8773</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>8774</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>8775</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="s">
+        <v>8776</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>7630</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>8778</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>8779</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="s">
+        <v>8780</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>8782</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>8783</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>8784</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="s">
+        <v>8785</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>3915</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>8787</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>8788</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="s">
+        <v>8789</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>8791</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>8792</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="s">
+        <v>8793</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>8795</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>8796</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>8797</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="s">
+        <v>8798</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>5237</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>8800</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>8801</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="s">
+        <v>8802</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>8804</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>8805</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>8806</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="s">
+        <v>8807</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>8809</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>8810</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="s">
+        <v>8811</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>8813</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="s">
+        <v>8815</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>8817</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>8818</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="s">
+        <v>8819</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>8821</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>8822</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>8823</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="s">
+        <v>8824</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>8826</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>8827</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="s">
+        <v>8828</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>8830</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>8831</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>8832</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="s">
+        <v>8833</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>8835</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>8836</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>8837</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="s">
+        <v>8838</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>8840</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>8841</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>8842</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="s">
+        <v>8843</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>8845</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>8846</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="s">
+        <v>8847</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>7297</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>8849</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="s">
+        <v>8851</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>8853</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="s">
+        <v>8855</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>8857</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>8858</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="s">
+        <v>8859</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>8861</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>8862</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="s">
+        <v>8863</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>8865</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>8866</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="s">
+        <v>8869</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>8871</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>8872</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="s">
+        <v>8875</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>8877</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1431" t="s">
+        <v>8878</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="s">
+        <v>8881</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>8883</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1432" t="s">
+        <v>8884</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="s">
+        <v>8887</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>8889</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1433" t="s">
+        <v>8890</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="s">
+        <v>8891</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>7231</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>8893</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>8894</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="s">
+        <v>8895</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>4078</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>8897</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>8898</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="s">
+        <v>8899</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>7710</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>8901</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>8902</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="s">
+        <v>8903</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>8905</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>8906</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="s">
+        <v>8907</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>6410</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>8909</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="s">
+        <v>8911</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>8913</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>8914</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="s">
+        <v>8916</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>5149</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>8918</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>8919</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="s">
+        <v>8920</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>4078</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>8922</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>8923</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="s">
+        <v>8926</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>8928</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>8929</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>8930</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="s">
+        <v>8933</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>8935</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>8936</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>8937</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="s">
+        <v>8938</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>8940</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>8941</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>8942</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="s">
+        <v>8943</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>8945</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>8946</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>8947</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="s">
+        <v>8948</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>8950</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>8951</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>8952</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="s">
+        <v>8953</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>8955</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>8956</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="s">
+        <v>8957</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>8959</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>8960</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>8961</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="s">
+        <v>8962</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>8964</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>8965</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>8966</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="s">
+        <v>8967</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>8969</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>8970</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>8971</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="s">
+        <v>8972</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>8974</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>8975</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="s">
+        <v>8977</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>8979</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>8980</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>8981</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="s">
+        <v>8982</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>8984</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>8985</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1453" t="s">
+        <v>8986</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="s">
+        <v>8987</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>8989</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>8990</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1454" t="s">
+        <v>8991</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="s">
+        <v>8992</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>8994</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>8995</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1455" t="s">
+        <v>8996</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="s">
+        <v>8997</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>8999</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>9000</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="s">
+        <v>9002</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>7630</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>9004</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="s">
+        <v>9006</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>9008</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>9009</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1458" t="s">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="s">
+        <v>9011</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>9013</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>9014</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1459" t="s">
+        <v>9015</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="s">
+        <v>9016</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>9018</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1460" t="s">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="s">
+        <v>9020</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>9022</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>9023</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1461" t="s">
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="s">
+        <v>9025</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>9027</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1462" t="s">
+        <v>9028</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="s">
+        <v>9029</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>9031</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>9032</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1463" t="s">
+        <v>9033</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="s">
+        <v>9034</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>9036</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1464" t="s">
+        <v>9037</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="s">
+        <v>9038</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>9040</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>9041</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1465" t="s">
+        <v>9042</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="s">
+        <v>9043</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>9045</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>9046</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>9047</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="s">
+        <v>9048</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>9050</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>9051</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>9052</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="s">
+        <v>9053</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>9055</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>9056</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="s">
+        <v>9057</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>9059</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>9060</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1469" t="s">
+        <v>9061</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="s">
+        <v>9062</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>9064</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>9065</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1470" t="s">
+        <v>9066</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="s">
+        <v>9069</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>9071</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1471" t="s">
+        <v>9072</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="s">
+        <v>9073</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>4607</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>9075</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1472" t="s">
+        <v>9076</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="s">
+        <v>9077</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>9079</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1473" t="s">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="s">
+        <v>9081</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>9083</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1474" t="s">
+        <v>9084</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="s">
+        <v>9085</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>9087</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1475" t="s">
+        <v>9088</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="s">
+        <v>9089</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>9091</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1476" t="s">
+        <v>9092</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="s">
+        <v>9095</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>9097</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1477" t="s">
+        <v>9098</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="s">
+        <v>9101</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>9103</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>9104</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="s">
+        <v>9107</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>9109</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>9110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/java/resources/generateduuid.xlsx
+++ b/src/main/java/resources/generateduuid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14516" uniqueCount="9115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15020" uniqueCount="9404">
   <si>
     <t>Vehicle uuid</t>
   </si>
@@ -27371,6 +27371,873 @@
   </si>
   <si>
     <t>2018-12-24T14:30:19.687</t>
+  </si>
+  <si>
+    <t>2018-12-31T14:31:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:20:59.643</t>
+  </si>
+  <si>
+    <t>efndgrcyhha4r5f5b17y4pl13ep7e6y7g2e</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:21:08.542</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:22:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:22:14.322</t>
+  </si>
+  <si>
+    <t>ok2cdm68mauw9j04b1boft2jj6ng96y0md6</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:22:23.512</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:23:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:23:10.647</t>
+  </si>
+  <si>
+    <t>zw66jhect3uo7kd08733ym170c8p85oqhkv</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:23:15.005</t>
+  </si>
+  <si>
+    <t>0c94cab40a0a00f97867b4f282988a4fydi</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:23:20.959</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:23:22</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:23:29.983</t>
+  </si>
+  <si>
+    <t>w9fncx5ifoi164u797q7699x3xv557055g0</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:23:34.932</t>
+  </si>
+  <si>
+    <t>d95aecc00a0e0a17623e2bdd0d7fc438rbf</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:23:56.475</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:24:22</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:24:25.969</t>
+  </si>
+  <si>
+    <t>hzo46ts78qdva3ij88qad97r0c40k1dd6oq</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:24:30.428</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:25:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:25:09.652</t>
+  </si>
+  <si>
+    <t>xn07zqmdkxv8i53z4zm60yg66w55xjcbk78</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:25:14.559</t>
+  </si>
+  <si>
+    <t>WBS8M9C51J5L00288</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:26:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:26:08.747</t>
+  </si>
+  <si>
+    <t>qunbkimwzokxv2zzo5o57531k1k5y8vbb81</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:26:13.668</t>
+  </si>
+  <si>
+    <t>WAUP4AF50KA014096</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:27:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:27:10.286</t>
+  </si>
+  <si>
+    <t>y1xla17i1oyg25a318f47cghfg28kj483pi</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:27:15.065</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:28:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:28:09.466</t>
+  </si>
+  <si>
+    <t>ce5ra0827vu7rbmg965jt96xiw4w66k6zoj</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:28:14.236</t>
+  </si>
+  <si>
+    <t>WBA4J1C59JBM11203</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:28:43</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:28:47.948</t>
+  </si>
+  <si>
+    <t>2qd6imzb8ab1e33ztwv18tkfs1od5mt42oa</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:28:52.362</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:28:59</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:29:04.610</t>
+  </si>
+  <si>
+    <t>705ewiuujcq1e2zo6iz8dou926p1cb9ytc5</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:29:09.592</t>
+  </si>
+  <si>
+    <t>WBA2M7C57KVD52303</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:29:37</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:29:42.566</t>
+  </si>
+  <si>
+    <t>2cgs50r5p59r750hx3ixor71h376v9m7q1s</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:29:47.432</t>
+  </si>
+  <si>
+    <t>WA1BNAFY7J2208762</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:30:15</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:30:22.174</t>
+  </si>
+  <si>
+    <t>ijlpr55m8f0sc05z0wz5d9bff9844h94qyt</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:30:30.651</t>
+  </si>
+  <si>
+    <t>WBA8A9C56JAH13265</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:30:43</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:30:51.158</t>
+  </si>
+  <si>
+    <t>4npg55p599p24wn6kwbm5sjy6gwe1f899z5</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:30:56.036</t>
+  </si>
+  <si>
+    <t>WBS8M9C53J5L71654</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:31:23</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:31:31.017</t>
+  </si>
+  <si>
+    <t>wltx73o8918pf15o2esa7q6hlla1vfc3unj</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:31:35.883</t>
+  </si>
+  <si>
+    <t>5UXTR9C5XKLE16381</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:32:10</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:32:14.817</t>
+  </si>
+  <si>
+    <t>6pl46a52t6o44tr7g200ygq8zjl6gzpodmw</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:32:19.681</t>
+  </si>
+  <si>
+    <t>WA1VAAF79JD049814</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:32:47</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:32:54.958</t>
+  </si>
+  <si>
+    <t>tj79yrao718anans4o08174931hdvt16i51</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:32:59.888</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:33:27</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:33:35.337</t>
+  </si>
+  <si>
+    <t>ouvsgswhtgc5v4v6a4xw3krcdr979h7vfkl</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:33:40.297</t>
+  </si>
+  <si>
+    <t>WAUFFAFC5JN051186</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:34:08</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:34:15.968</t>
+  </si>
+  <si>
+    <t>0229d6l8m6h315wx5u67nd2rne4b24m1bh6</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:34:20.812</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:34:48</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:34:54.600</t>
+  </si>
+  <si>
+    <t>r3ai8pd7g4m9stir0s454ih47450y9g4xby</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:34:59.510</t>
+  </si>
+  <si>
+    <t>WBA4W5C52KAE49746</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:35:28</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:35:34.213</t>
+  </si>
+  <si>
+    <t>p079lnk85kczmbj18vtefw9v7fq0wqi4z4u</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:35:39.221</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:36:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:36:13.277</t>
+  </si>
+  <si>
+    <t>k84yk64v0444612919un0uy8d70wxiye3yc</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:36:18.197</t>
+  </si>
+  <si>
+    <t>WA1BNAFY3J2135972</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:36:46</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:36:52.607</t>
+  </si>
+  <si>
+    <t>xe0a56ykdb1u36ykbx8g7gn06ljo04w5d58</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:36:57.620</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:38:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:38:11.924</t>
+  </si>
+  <si>
+    <t>e43h32668455tp3bfm9myll8o30q79jvk7y</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:38:16.988</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:39:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:39:10.888</t>
+  </si>
+  <si>
+    <t>j1c40tf8w2snrptyuk2v64be12i83h98c6m</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:39:15.755</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:40:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:40:11.824</t>
+  </si>
+  <si>
+    <t>49sh6ud8b09vk8x99v3tvi5ogc98j33c93h</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:40:16.240</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:41:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:41:10.545</t>
+  </si>
+  <si>
+    <t>hre4rk1v71o4ykz987m3kk6o08m33zuc84k</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:41:15.442</t>
+  </si>
+  <si>
+    <t>3bd9dc580a0a00de6a568762d66fa01azxw</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:41:36.615</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:42:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:42:11.113</t>
+  </si>
+  <si>
+    <t>o0pe586923b7d4i98cs929qlkfkji1tnino</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:42:16.067</t>
+  </si>
+  <si>
+    <t>04c16ffd0a0e0adf4d75c02155d62aed4wl</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:42:37.006</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:43:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:43:11.763</t>
+  </si>
+  <si>
+    <t>330896md8ap94q4qz0516rdq04bom6at6u4</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:43:16.167</t>
+  </si>
+  <si>
+    <t>3bd9dc580a0a00de6a568762d66fa01ax6d</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:43:21.561</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:44:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:44:11.597</t>
+  </si>
+  <si>
+    <t>ad22mmiy4bt53hot3u04dp3am6h7j4hzp8u</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:44:16.095</t>
+  </si>
+  <si>
+    <t>04c16ffd0a0e0adf4d75c02155d62aed414</t>
+  </si>
+  <si>
+    <t>2019-01-02T09:44:21.251</t>
+  </si>
+  <si>
+    <t>2019-01-09T09:45:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:35:19.798</t>
+  </si>
+  <si>
+    <t>35s1k9ntp5tp6pw9f5s9x03k9ppdx6d9vwn</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:35:24.603</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:36:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:36:09.998</t>
+  </si>
+  <si>
+    <t>qwj2fm347i98fg1y607n02q0ndurvw88zbs</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:36:14.393</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:37:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:37:10.571</t>
+  </si>
+  <si>
+    <t>q1tm5t9woi5xeok6b39g6307x8i37n71n75</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:37:14.994</t>
+  </si>
+  <si>
+    <t>d95aeeeb0a0e0a17623e2bdd2734b24b2sk</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:37:20.853</t>
+  </si>
+  <si>
+    <t>WAUKMAF47JA234674</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:37:22</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:37:29.569</t>
+  </si>
+  <si>
+    <t>8v6gd220tww4754ex03sr1825t4kij1pjl2</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:37:34.020</t>
+  </si>
+  <si>
+    <t>cf5c3c060a0e0a6b6c3308db0c1b7ce4aa3</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:37:39.936</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:37:41</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:37:48.589</t>
+  </si>
+  <si>
+    <t>plcraynt5644jod745sh3byw57ndi8oq3du</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:37:52.942</t>
+  </si>
+  <si>
+    <t>WBXHT3C35J5K31355</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:38:07</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:38:08.623</t>
+  </si>
+  <si>
+    <t>r59bss2s33ea05w41c5j34m3nki5rybl21f</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:38:13.008</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:39:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:39:09.219</t>
+  </si>
+  <si>
+    <t>l73kfuea25z284uwoz11o7if1j51w0lokl5</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:39:13.581</t>
+  </si>
+  <si>
+    <t>WA1BNAFY3J2228927</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:40:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:40:08.059</t>
+  </si>
+  <si>
+    <t>zc6tyb7dyl2ymcvif00kx4qo9npxy9tayxa</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:40:12.612</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:41:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:41:08.668</t>
+  </si>
+  <si>
+    <t>3v04k1fw77e21ch9g7zi4t5c5m2j345sq9u</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:41:13.053</t>
+  </si>
+  <si>
+    <t>5UXTR7C57KLF26583</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:41:20</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:41:25.378</t>
+  </si>
+  <si>
+    <t>9nfzj914uf9ku014ulwis446pa37010rc29</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:41:29.772</t>
+  </si>
+  <si>
+    <t>WA1BNAFY1J2218042</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:41:36</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:41:41.689</t>
+  </si>
+  <si>
+    <t>1p30qy9cage93yx2lkg7s1cln3bt1kamubb</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:41:46.045</t>
+  </si>
+  <si>
+    <t>WBXHU7C31J3H43567</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:41:53</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:41:58.590</t>
+  </si>
+  <si>
+    <t>juft16c3q3g9v9w7nlpos61ma03a4c0v4og</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:42:02.962</t>
+  </si>
+  <si>
+    <t>WAUKMAF43JA193637</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:42:09</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:42:14.652</t>
+  </si>
+  <si>
+    <t>0q3ot0r00uzb8cmr8782sa95pg76i83f354</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:42:18.973</t>
+  </si>
+  <si>
+    <t>WBA7F2C50JB238790</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:42:26</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:42:33.876</t>
+  </si>
+  <si>
+    <t>m810ovs1g21ba004mx3g9jv61y22uqc5tir</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:42:38.220</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:42:45</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:42:52.525</t>
+  </si>
+  <si>
+    <t>8t7ft1kxu5258me4r3na0uklt977mumiouu</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:42:56.917</t>
+  </si>
+  <si>
+    <t>WBAJA9C55KB388778</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:43:11</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:43:14.608</t>
+  </si>
+  <si>
+    <t>3rm4wyfk0y5d90s9u1r8114mc2cbh7g7flr</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:43:18.941</t>
+  </si>
+  <si>
+    <t>WA1LAAF74KD011884</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:43:25</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:43:33.178</t>
+  </si>
+  <si>
+    <t>xvd3z2d2v8p7tb4s1a3f42ui1mn3647zp6e</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:43:37.548</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:43:45</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:43:52.865</t>
+  </si>
+  <si>
+    <t>w8vve32vad012c2di8507r6v2p0kgsg6pg4</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:43:57.197</t>
+  </si>
+  <si>
+    <t>WA1C4AFY3J2208703</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:44:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:44:11.974</t>
+  </si>
+  <si>
+    <t>x1o9os406x90dislf383o6e46wgyua3u9y5</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:44:16.289</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:44:23</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:44:29.185</t>
+  </si>
+  <si>
+    <t>7ji8yb6idmawznlk6yg0h25mtq37483qx03</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:44:33.616</t>
+  </si>
+  <si>
+    <t>WBAJE5C58KWW03155</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:44:41</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:44:47.307</t>
+  </si>
+  <si>
+    <t>3kn93tilpjcu5mnu2u1iyz18n47y0j24x1h</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:44:51.722</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:44:58</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:45:04.884</t>
+  </si>
+  <si>
+    <t>qx8cw15v4q310c1n83yc5c5y6ew07djlzhm</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:45:09.253</t>
+  </si>
+  <si>
+    <t>WAUB4BF41JA083546</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:45:16</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:45:22.314</t>
+  </si>
+  <si>
+    <t>h90032bzgtwd5a3pnyc1k358o381g7gdb0k</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:45:26.670</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:46:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:46:09.471</t>
+  </si>
+  <si>
+    <t>3doq8e4ir3u1n2n5aylmsp8dyykdoq2a959</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:46:13.909</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:47:07</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:47:12.879</t>
+  </si>
+  <si>
+    <t>hc2072o1ngj90zxd76ceal5531zf2cma9f8</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:47:17.220</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:48:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:48:10.638</t>
+  </si>
+  <si>
+    <t>8x25m1kork5tc4o944870r1fpdhy52r4wm8</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:48:14.992</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:49:06</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:49:10.744</t>
+  </si>
+  <si>
+    <t>824uoh5n8y6in664n896m0p7wig8068sy6h</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:49:15.148</t>
+  </si>
+  <si>
+    <t>3bd9dc580a0a00de6a568762d66fa01aovm</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:49:20.208</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:50:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:50:10.060</t>
+  </si>
+  <si>
+    <t>zn5404uw33k6w7wde774q62u4qfym8zu790</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:50:14.393</t>
+  </si>
+  <si>
+    <t>04c16ffd0a0e0adf4d75c02155d62aedbky</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:50:20.691</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:51:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:51:10.591</t>
+  </si>
+  <si>
+    <t>i4g7ql12i2l6ydff8qeoi7779hki956pd99</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:51:14.987</t>
+  </si>
+  <si>
+    <t>3bd9dc580a0a00de6a568762d66fa01ayba</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:51:19.994</t>
+  </si>
+  <si>
+    <t>2019-01-09T12:52:05</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:52:09.857</t>
+  </si>
+  <si>
+    <t>o6fwwq917s9zt90h40cjl4w6o6f7h94t638</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:52:14.192</t>
+  </si>
+  <si>
+    <t>04c16ffd0a0e0adf4d75c02155d62aed1wh</t>
+  </si>
+  <si>
+    <t>2019-01-02T12:52:19.206</t>
   </si>
 </sst>
 </file>
@@ -56880,6 +57747,582 @@
         <v>9114</v>
       </c>
     </row>
+    <row r="2831">
+      <c r="A2831" t="s">
+        <v>9117</v>
+      </c>
+      <c r="B2831" t="s">
+        <v>9118</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" t="s">
+        <v>9121</v>
+      </c>
+      <c r="B2832" t="s">
+        <v>9122</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" t="s">
+        <v>9125</v>
+      </c>
+      <c r="B2833" t="s">
+        <v>9126</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" t="s">
+        <v>9127</v>
+      </c>
+      <c r="B2834" t="s">
+        <v>9128</v>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" t="s">
+        <v>9131</v>
+      </c>
+      <c r="B2835" t="s">
+        <v>9132</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" t="s">
+        <v>9133</v>
+      </c>
+      <c r="B2836" t="s">
+        <v>9134</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" t="s">
+        <v>9137</v>
+      </c>
+      <c r="B2837" t="s">
+        <v>9138</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" t="s">
+        <v>9141</v>
+      </c>
+      <c r="B2838" t="s">
+        <v>9142</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" t="s">
+        <v>9146</v>
+      </c>
+      <c r="B2839" t="s">
+        <v>9147</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" t="s">
+        <v>9151</v>
+      </c>
+      <c r="B2840" t="s">
+        <v>9152</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" t="s">
+        <v>9155</v>
+      </c>
+      <c r="B2841" t="s">
+        <v>9156</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" t="s">
+        <v>9160</v>
+      </c>
+      <c r="B2842" t="s">
+        <v>9161</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" t="s">
+        <v>9164</v>
+      </c>
+      <c r="B2843" t="s">
+        <v>9165</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" t="s">
+        <v>9169</v>
+      </c>
+      <c r="B2844" t="s">
+        <v>9170</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" t="s">
+        <v>9174</v>
+      </c>
+      <c r="B2845" t="s">
+        <v>9175</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" t="s">
+        <v>9179</v>
+      </c>
+      <c r="B2846" t="s">
+        <v>9180</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" t="s">
+        <v>9184</v>
+      </c>
+      <c r="B2847" t="s">
+        <v>9185</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" t="s">
+        <v>9189</v>
+      </c>
+      <c r="B2848" t="s">
+        <v>9190</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" t="s">
+        <v>9194</v>
+      </c>
+      <c r="B2849" t="s">
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" t="s">
+        <v>9198</v>
+      </c>
+      <c r="B2850" t="s">
+        <v>9199</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" t="s">
+        <v>9203</v>
+      </c>
+      <c r="B2851" t="s">
+        <v>9204</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" t="s">
+        <v>9207</v>
+      </c>
+      <c r="B2852" t="s">
+        <v>9208</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" t="s">
+        <v>9212</v>
+      </c>
+      <c r="B2853" t="s">
+        <v>9213</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" t="s">
+        <v>9216</v>
+      </c>
+      <c r="B2854" t="s">
+        <v>9217</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" t="s">
+        <v>9221</v>
+      </c>
+      <c r="B2855" t="s">
+        <v>9222</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" t="s">
+        <v>9225</v>
+      </c>
+      <c r="B2856" t="s">
+        <v>9226</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" t="s">
+        <v>9229</v>
+      </c>
+      <c r="B2857" t="s">
+        <v>9230</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" t="s">
+        <v>9233</v>
+      </c>
+      <c r="B2858" t="s">
+        <v>9234</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" t="s">
+        <v>9237</v>
+      </c>
+      <c r="B2859" t="s">
+        <v>9238</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" t="s">
+        <v>9239</v>
+      </c>
+      <c r="B2860" t="s">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" t="s">
+        <v>9243</v>
+      </c>
+      <c r="B2861" t="s">
+        <v>9244</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" t="s">
+        <v>9245</v>
+      </c>
+      <c r="B2862" t="s">
+        <v>9246</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" t="s">
+        <v>9249</v>
+      </c>
+      <c r="B2863" t="s">
+        <v>9250</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" t="s">
+        <v>9251</v>
+      </c>
+      <c r="B2864" t="s">
+        <v>9252</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="s">
+        <v>9255</v>
+      </c>
+      <c r="B2865" t="s">
+        <v>9256</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="s">
+        <v>9257</v>
+      </c>
+      <c r="B2866" t="s">
+        <v>9258</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="s">
+        <v>9261</v>
+      </c>
+      <c r="B2867" t="s">
+        <v>9262</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="s">
+        <v>9265</v>
+      </c>
+      <c r="B2868" t="s">
+        <v>9266</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="s">
+        <v>9269</v>
+      </c>
+      <c r="B2869" t="s">
+        <v>9270</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="s">
+        <v>9271</v>
+      </c>
+      <c r="B2870" t="s">
+        <v>9272</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="s">
+        <v>9276</v>
+      </c>
+      <c r="B2871" t="s">
+        <v>9277</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="s">
+        <v>9278</v>
+      </c>
+      <c r="B2872" t="s">
+        <v>9279</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="s">
+        <v>9282</v>
+      </c>
+      <c r="B2873" t="s">
+        <v>9283</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="s">
+        <v>9287</v>
+      </c>
+      <c r="B2874" t="s">
+        <v>9288</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="s">
+        <v>9291</v>
+      </c>
+      <c r="B2875" t="s">
+        <v>9292</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="s">
+        <v>9296</v>
+      </c>
+      <c r="B2876" t="s">
+        <v>9297</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="s">
+        <v>9300</v>
+      </c>
+      <c r="B2877" t="s">
+        <v>9301</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="s">
+        <v>9305</v>
+      </c>
+      <c r="B2878" t="s">
+        <v>9306</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="s">
+        <v>9310</v>
+      </c>
+      <c r="B2879" t="s">
+        <v>9311</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="s">
+        <v>9315</v>
+      </c>
+      <c r="B2880" t="s">
+        <v>9316</v>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" t="s">
+        <v>9320</v>
+      </c>
+      <c r="B2881" t="s">
+        <v>9321</v>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" t="s">
+        <v>9325</v>
+      </c>
+      <c r="B2882" t="s">
+        <v>9326</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" t="s">
+        <v>9329</v>
+      </c>
+      <c r="B2883" t="s">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="s">
+        <v>9334</v>
+      </c>
+      <c r="B2884" t="s">
+        <v>9335</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="s">
+        <v>9339</v>
+      </c>
+      <c r="B2885" t="s">
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" t="s">
+        <v>9343</v>
+      </c>
+      <c r="B2886" t="s">
+        <v>9344</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" t="s">
+        <v>9348</v>
+      </c>
+      <c r="B2887" t="s">
+        <v>9349</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" t="s">
+        <v>9352</v>
+      </c>
+      <c r="B2888" t="s">
+        <v>9353</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" t="s">
+        <v>9357</v>
+      </c>
+      <c r="B2889" t="s">
+        <v>9358</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="s">
+        <v>9361</v>
+      </c>
+      <c r="B2890" t="s">
+        <v>9362</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" t="s">
+        <v>9366</v>
+      </c>
+      <c r="B2891" t="s">
+        <v>9367</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" t="s">
+        <v>9370</v>
+      </c>
+      <c r="B2892" t="s">
+        <v>9371</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" t="s">
+        <v>9374</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>9375</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" t="s">
+        <v>9378</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>9379</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" t="s">
+        <v>9382</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>9383</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" t="s">
+        <v>9384</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>9385</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" t="s">
+        <v>9388</v>
+      </c>
+      <c r="B2897" t="s">
+        <v>9389</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" t="s">
+        <v>9390</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>9391</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" t="s">
+        <v>9394</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>9395</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" t="s">
+        <v>9396</v>
+      </c>
+      <c r="B2900" t="s">
+        <v>9397</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" t="s">
+        <v>9400</v>
+      </c>
+      <c r="B2901" t="s">
+        <v>9401</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" t="s">
+        <v>9402</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>9403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -100627,6 +102070,1566 @@
         <v>9110</v>
       </c>
     </row>
+    <row r="1480">
+      <c r="A1480" t="s">
+        <v>9113</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>9115</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1480" t="s">
+        <v>9116</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="s">
+        <v>9117</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>8679</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>9119</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="s">
+        <v>9121</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>9123</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1482" t="s">
+        <v>9124</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="s">
+        <v>9127</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>8928</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>9129</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1483" t="s">
+        <v>9130</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="s">
+        <v>9133</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>9135</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1484" t="s">
+        <v>9136</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="s">
+        <v>9137</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>3719</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>9139</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>9140</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="s">
+        <v>9141</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>9143</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>9144</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>9145</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="s">
+        <v>9146</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>9148</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>9149</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1487" t="s">
+        <v>9150</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="s">
+        <v>9151</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>9153</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1488" t="s">
+        <v>9154</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="s">
+        <v>9155</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>9157</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>9158</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1489" t="s">
+        <v>9159</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="s">
+        <v>9160</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>7538</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>9162</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1490" t="s">
+        <v>9163</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="s">
+        <v>9164</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>9166</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>9167</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1491" t="s">
+        <v>9168</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="s">
+        <v>9169</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>9171</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>9172</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1492" t="s">
+        <v>9173</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="s">
+        <v>9174</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>9176</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>9177</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1493" t="s">
+        <v>9178</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="s">
+        <v>9179</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>9181</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>9182</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1494" t="s">
+        <v>9183</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="s">
+        <v>9184</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>9186</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>9187</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1495" t="s">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="s">
+        <v>9189</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>9191</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>9192</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1496" t="s">
+        <v>9193</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="s">
+        <v>9194</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>9196</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1497" t="s">
+        <v>9197</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="s">
+        <v>9198</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>9200</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>9201</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1498" t="s">
+        <v>9202</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="s">
+        <v>9203</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>7109</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>9205</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1499" t="s">
+        <v>9206</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="s">
+        <v>9207</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>9209</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>9210</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1500" t="s">
+        <v>9211</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="s">
+        <v>9212</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>9214</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1501" t="s">
+        <v>9215</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="s">
+        <v>9216</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>9218</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>9219</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1502" t="s">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="s">
+        <v>9221</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>9223</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1503" t="s">
+        <v>9224</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="s">
+        <v>9225</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>9227</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1504" t="s">
+        <v>9228</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="s">
+        <v>9229</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>9231</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1505" t="s">
+        <v>9232</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="s">
+        <v>9233</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>9235</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1506" t="s">
+        <v>9236</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="s">
+        <v>9239</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>9241</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1507" t="s">
+        <v>9242</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="s">
+        <v>9245</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>9247</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1508" t="s">
+        <v>9248</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="s">
+        <v>9251</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>9253</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1509" t="s">
+        <v>9254</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="s">
+        <v>9257</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>9259</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1510" t="s">
+        <v>9260</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="s">
+        <v>9261</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>9263</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1511" t="s">
+        <v>9264</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="s">
+        <v>9265</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>9267</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1512" t="s">
+        <v>9268</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="s">
+        <v>9271</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>9273</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>9274</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1513" t="s">
+        <v>9275</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="s">
+        <v>9278</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>8440</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>9280</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1514" t="s">
+        <v>9281</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="s">
+        <v>9282</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>9284</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>9285</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1515" t="s">
+        <v>9286</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="s">
+        <v>9287</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>7399</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>9289</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1516" t="s">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="s">
+        <v>9291</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>9293</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>9294</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1517" t="s">
+        <v>9295</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="s">
+        <v>9296</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>9298</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1518" t="s">
+        <v>9299</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="s">
+        <v>9300</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>9302</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>9303</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1519" t="s">
+        <v>9304</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="s">
+        <v>9305</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>9307</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>9308</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1520" t="s">
+        <v>9309</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="s">
+        <v>9310</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>9312</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>9313</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1521" t="s">
+        <v>9314</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="s">
+        <v>9315</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>9317</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>9318</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1522" t="s">
+        <v>9319</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="s">
+        <v>9320</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>9322</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>9323</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1523" t="s">
+        <v>9324</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="s">
+        <v>9325</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>9143</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>9327</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1524" t="s">
+        <v>9328</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="s">
+        <v>9329</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>9331</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>9332</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1525" t="s">
+        <v>9333</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="s">
+        <v>9334</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>9336</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>9337</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1526" t="s">
+        <v>9338</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="s">
+        <v>9339</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>9341</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1527" t="s">
+        <v>9342</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="s">
+        <v>9343</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>9345</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>9346</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1528" t="s">
+        <v>9347</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="s">
+        <v>9348</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>5297</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>9350</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1529" t="s">
+        <v>9351</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="s">
+        <v>9352</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>9354</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>9355</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1530" t="s">
+        <v>9356</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="s">
+        <v>9357</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>9359</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1531" t="s">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="s">
+        <v>9361</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>9363</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>9364</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1532" t="s">
+        <v>9365</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="s">
+        <v>9366</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>9368</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1533" t="s">
+        <v>9369</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="s">
+        <v>9370</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>9372</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1534" t="s">
+        <v>9373</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="s">
+        <v>9374</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>9376</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1535" t="s">
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="s">
+        <v>9378</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>9380</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1536" t="s">
+        <v>9381</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="s">
+        <v>9384</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>9386</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1537" t="s">
+        <v>9387</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="s">
+        <v>9390</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>9392</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1538" t="s">
+        <v>9393</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="s">
+        <v>9396</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>9398</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1539" t="s">
+        <v>9399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
